--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="254">
   <si>
     <t>Arabic Name</t>
   </si>
   <si>
-    <t>Arabic Char</t>
-  </si>
-  <si>
     <t>English Char</t>
   </si>
   <si>
@@ -294,15 +291,9 @@
     <t>Arabic Fathatan</t>
   </si>
   <si>
-    <t>Arabic Subscript Alef</t>
-  </si>
-  <si>
     <t>Exclamation Point</t>
   </si>
   <si>
-    <t>&amp;#x656</t>
-  </si>
-  <si>
     <t>&amp;#x60c</t>
   </si>
   <si>
@@ -327,24 +318,12 @@
     <t>Arabic Letter Yeh With Hamza Above</t>
   </si>
   <si>
-    <t>&amp;#x66b</t>
-  </si>
-  <si>
-    <t>Arabic Decimal Separator</t>
-  </si>
-  <si>
     <t>Arabic Thousands Separator</t>
   </si>
   <si>
     <t>&amp;#x66c</t>
   </si>
   <si>
-    <t>&amp;#x6a9</t>
-  </si>
-  <si>
-    <t>Arabic Letter Keheh</t>
-  </si>
-  <si>
     <t>Arabic Letter Yeh</t>
   </si>
   <si>
@@ -369,10 +348,439 @@
     <t>Arabic Sign Sallallahou Alayhe Wassallam</t>
   </si>
   <si>
-    <t>Arabic Ray</t>
-  </si>
-  <si>
-    <t>&amp;#x608</t>
+    <t>&amp;#x642</t>
+  </si>
+  <si>
+    <t>Arabic Letter Qaf</t>
+  </si>
+  <si>
+    <t>&amp;#x6f0</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Zero</t>
+  </si>
+  <si>
+    <t>&amp;#x6f1</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit One</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Two</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Three</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Four</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Five</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Six</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Seven</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Eight</t>
+  </si>
+  <si>
+    <t>Extended Arabic-Indic Digit Nine</t>
+  </si>
+  <si>
+    <t>&amp;#x6f2</t>
+  </si>
+  <si>
+    <t>&amp;#x6f3</t>
+  </si>
+  <si>
+    <t>&amp;#x6f5</t>
+  </si>
+  <si>
+    <t>&amp;#x6f6</t>
+  </si>
+  <si>
+    <t>&amp;#x6f7</t>
+  </si>
+  <si>
+    <t>&amp;#x6f8</t>
+  </si>
+  <si>
+    <t>&amp;#x6f9</t>
+  </si>
+  <si>
+    <t>Comma</t>
+  </si>
+  <si>
+    <t>&amp;#x60d</t>
+  </si>
+  <si>
+    <t>Arabic Date Separator</t>
+  </si>
+  <si>
+    <t>&amp;#x654</t>
+  </si>
+  <si>
+    <t>Arabic Hamza Above</t>
+  </si>
+  <si>
+    <t>Left Parenthesis</t>
+  </si>
+  <si>
+    <t>Right Parenthesis</t>
+  </si>
+  <si>
+    <t>&amp;#x64c</t>
+  </si>
+  <si>
+    <t>Arabic Dammatan</t>
+  </si>
+  <si>
+    <t>Arabic Shadda</t>
+  </si>
+  <si>
+    <t>&amp;#x651</t>
+  </si>
+  <si>
+    <t>&amp;#x623</t>
+  </si>
+  <si>
+    <t>Arabic Letter Alef With Hamza Above</t>
+  </si>
+  <si>
+    <t>Arabic Letter Waw With Hamza Above</t>
+  </si>
+  <si>
+    <t>&amp;#x624</t>
+  </si>
+  <si>
+    <t>Arabic Sign Takhallus</t>
+  </si>
+  <si>
+    <t>&amp;#x614</t>
+  </si>
+  <si>
+    <t>Arabic Poetic Verse Sign</t>
+  </si>
+  <si>
+    <t>&amp;#x60e</t>
+  </si>
+  <si>
+    <t>Urdu Jazam</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Sallallahou Alayhe Wasallam</t>
+  </si>
+  <si>
+    <t>&amp;#xfdfa</t>
+  </si>
+  <si>
+    <t>Arabic Letter Waw</t>
+  </si>
+  <si>
+    <t>&amp;#x648</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Arabic Letter Ain</t>
+  </si>
+  <si>
+    <t>&amp;#x639</t>
+  </si>
+  <si>
+    <t>&amp;#x691</t>
+  </si>
+  <si>
+    <t>Arabic Letter Rreh</t>
+  </si>
+  <si>
+    <t>&amp;#x631</t>
+  </si>
+  <si>
+    <t>Arabic Letter Reh</t>
+  </si>
+  <si>
+    <t>Arabic Letter Tteh</t>
+  </si>
+  <si>
+    <t>&amp;#x679</t>
+  </si>
+  <si>
+    <t>&amp;#x62a</t>
+  </si>
+  <si>
+    <t>Arabic Letter Teh</t>
+  </si>
+  <si>
+    <t>Arabic Sign Sanah</t>
+  </si>
+  <si>
+    <t>&amp;#x601</t>
+  </si>
+  <si>
+    <t>Arabic Letter Yeh Barree</t>
+  </si>
+  <si>
+    <t>&amp;#x6d2</t>
+  </si>
+  <si>
+    <t>Arabic Inverted Damma</t>
+  </si>
+  <si>
+    <t>&amp;#x657</t>
+  </si>
+  <si>
+    <t>&amp;#x621</t>
+  </si>
+  <si>
+    <t>Arabic Letter Hamza</t>
+  </si>
+  <si>
+    <t>Arabic Letter Superscript Alef</t>
+  </si>
+  <si>
+    <t>&amp;#x670</t>
+  </si>
+  <si>
+    <t>Arabic Letter Teh Marbuta Goal</t>
+  </si>
+  <si>
+    <t>&amp;#x6c3</t>
+  </si>
+  <si>
+    <t>Arabic Letter Heh Goal</t>
+  </si>
+  <si>
+    <t>&amp;#x6c1</t>
+  </si>
+  <si>
+    <t>Arabic Small Damma</t>
+  </si>
+  <si>
+    <t>&amp;#x619</t>
+  </si>
+  <si>
+    <t>Arabic Letter Peh</t>
+  </si>
+  <si>
+    <t>&amp;#x67e</t>
+  </si>
+  <si>
+    <t>right square bra</t>
+  </si>
+  <si>
+    <t>left square bracket</t>
+  </si>
+  <si>
+    <t>Arabic Maddah Above</t>
+  </si>
+  <si>
+    <t>&amp;#x653</t>
+  </si>
+  <si>
+    <t>&amp;#x635</t>
+  </si>
+  <si>
+    <t>Arabic Letter Sad</t>
+  </si>
+  <si>
+    <t>Arabic Letter Seen</t>
+  </si>
+  <si>
+    <t>&amp;#x633</t>
+  </si>
+  <si>
+    <t>Arabic Letter Ddal</t>
+  </si>
+  <si>
+    <t>&amp;#x688</t>
+  </si>
+  <si>
+    <t>&amp;#x62f</t>
+  </si>
+  <si>
+    <t>Arabic Letter Dal</t>
+  </si>
+  <si>
+    <t>Arabic Letter Feh</t>
+  </si>
+  <si>
+    <t>&amp;#x641</t>
+  </si>
+  <si>
+    <t>&amp;#x63a</t>
+  </si>
+  <si>
+    <t>Arabic Letter Ghain</t>
+  </si>
+  <si>
+    <t>Arabic Letter Dad</t>
+  </si>
+  <si>
+    <t>&amp;#x636</t>
+  </si>
+  <si>
+    <t>&amp;#x62c</t>
+  </si>
+  <si>
+    <t>Arabic Letter Jeem</t>
+  </si>
+  <si>
+    <t>Arabic Letter Khah</t>
+  </si>
+  <si>
+    <t>&amp;#x62e</t>
+  </si>
+  <si>
+    <t>Arabic Letter Kaf Initial Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfedb</t>
+  </si>
+  <si>
+    <t>Rehmat Sign</t>
+  </si>
+  <si>
+    <t>Laam</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>&amp;#x61b</t>
+  </si>
+  <si>
+    <t>Arabic Semicolon</t>
+  </si>
+  <si>
+    <t>&amp;#x640</t>
+  </si>
+  <si>
+    <t>Arabic Tatweel</t>
+  </si>
+  <si>
+    <t>&amp;#x6d4</t>
+  </si>
+  <si>
+    <t>Arabic Full Stop</t>
+  </si>
+  <si>
+    <t>Arabic Letter Thal</t>
+  </si>
+  <si>
+    <t>&amp;#x630</t>
+  </si>
+  <si>
+    <t>Arabic Letter Zain</t>
+  </si>
+  <si>
+    <t>&amp;#x632</t>
+  </si>
+  <si>
+    <t>Arabic Letter Jeh</t>
+  </si>
+  <si>
+    <t>&amp;#x698</t>
+  </si>
+  <si>
+    <t>&amp;#x634</t>
+  </si>
+  <si>
+    <t>Arabic Letter Sheen</t>
+  </si>
+  <si>
+    <t>&amp;#x62b</t>
+  </si>
+  <si>
+    <t>Arabic Letter Theh</t>
+  </si>
+  <si>
+    <t>Arabic Letter Tcheh</t>
+  </si>
+  <si>
+    <t>&amp;#x686</t>
+  </si>
+  <si>
+    <t>Arabic Letter Zah</t>
+  </si>
+  <si>
+    <t>&amp;#x638</t>
+  </si>
+  <si>
+    <t>Arabic Letter Tah</t>
+  </si>
+  <si>
+    <t>&amp;#x637</t>
+  </si>
+  <si>
+    <t>Arabic Char Hex</t>
+  </si>
+  <si>
+    <t>Raziallah Sign</t>
+  </si>
+  <si>
+    <t>Arabic Letter Beh</t>
+  </si>
+  <si>
+    <t>&amp;#x628</t>
+  </si>
+  <si>
+    <t>Arabic Letter Noon Ghunna</t>
+  </si>
+  <si>
+    <t>&amp;#x6ba</t>
+  </si>
+  <si>
+    <t>Arabic Letter Noon</t>
+  </si>
+  <si>
+    <t>&amp;#x646</t>
+  </si>
+  <si>
+    <t>Arabic Letter Alef With Hamza Below</t>
+  </si>
+  <si>
+    <t>&amp;#x625</t>
+  </si>
+  <si>
+    <t>Arabic Letter Meem</t>
+  </si>
+  <si>
+    <t>&amp;#x645</t>
+  </si>
+  <si>
+    <t>&amp;#x61a</t>
+  </si>
+  <si>
+    <t>Arabic Small Kasra</t>
+  </si>
+  <si>
+    <t>Arabic Small Fatha</t>
+  </si>
+  <si>
+    <t>&amp;#x618</t>
+  </si>
+  <si>
+    <t>Urdu Full Stop</t>
+  </si>
+  <si>
+    <t>Second Set:</t>
+  </si>
+  <si>
+    <t>First Set:</t>
+  </si>
+  <si>
+    <t>Yellow = Unsure</t>
+  </si>
+  <si>
+    <t>Red = Unfound</t>
+  </si>
+  <si>
+    <t>Blue = unfound, possibly unnecessary.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +815,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +825,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +862,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,21 +878,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -468,6 +945,20 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -475,6 +966,20 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -804,595 +1309,8757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:KE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="10"/>
+    <col min="6" max="6" width="12" style="10" customWidth="1"/>
+    <col min="7" max="291" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:291">
+      <c r="A1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:291">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:291">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:291" s="10" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:291">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:291" s="3" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
+      <c r="CU6" s="10"/>
+      <c r="CV6" s="10"/>
+      <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
+      <c r="DA6" s="10"/>
+      <c r="DB6" s="10"/>
+      <c r="DC6" s="10"/>
+      <c r="DD6" s="10"/>
+      <c r="DE6" s="10"/>
+      <c r="DF6" s="10"/>
+      <c r="DG6" s="10"/>
+      <c r="DH6" s="10"/>
+      <c r="DI6" s="10"/>
+      <c r="DJ6" s="10"/>
+      <c r="DK6" s="10"/>
+      <c r="DL6" s="10"/>
+      <c r="DM6" s="10"/>
+      <c r="DN6" s="10"/>
+      <c r="DO6" s="10"/>
+      <c r="DP6" s="10"/>
+      <c r="DQ6" s="10"/>
+      <c r="DR6" s="10"/>
+      <c r="DS6" s="10"/>
+      <c r="DT6" s="10"/>
+      <c r="DU6" s="10"/>
+      <c r="DV6" s="10"/>
+      <c r="DW6" s="10"/>
+      <c r="DX6" s="10"/>
+      <c r="DY6" s="10"/>
+      <c r="DZ6" s="10"/>
+      <c r="EA6" s="10"/>
+      <c r="EB6" s="10"/>
+      <c r="EC6" s="10"/>
+      <c r="ED6" s="10"/>
+      <c r="EE6" s="10"/>
+      <c r="EF6" s="10"/>
+      <c r="EG6" s="10"/>
+      <c r="EH6" s="10"/>
+      <c r="EI6" s="10"/>
+      <c r="EJ6" s="10"/>
+      <c r="EK6" s="10"/>
+      <c r="EL6" s="10"/>
+      <c r="EM6" s="10"/>
+      <c r="EN6" s="10"/>
+      <c r="EO6" s="10"/>
+      <c r="EP6" s="10"/>
+      <c r="EQ6" s="10"/>
+      <c r="ER6" s="10"/>
+      <c r="ES6" s="10"/>
+      <c r="ET6" s="10"/>
+      <c r="EU6" s="10"/>
+      <c r="EV6" s="10"/>
+      <c r="EW6" s="10"/>
+      <c r="EX6" s="10"/>
+      <c r="EY6" s="10"/>
+      <c r="EZ6" s="10"/>
+      <c r="FA6" s="10"/>
+      <c r="FB6" s="10"/>
+      <c r="FC6" s="10"/>
+      <c r="FD6" s="10"/>
+      <c r="FE6" s="10"/>
+      <c r="FF6" s="10"/>
+      <c r="FG6" s="10"/>
+      <c r="FH6" s="10"/>
+      <c r="FI6" s="10"/>
+      <c r="FJ6" s="10"/>
+      <c r="FK6" s="10"/>
+      <c r="FL6" s="10"/>
+      <c r="FM6" s="10"/>
+      <c r="FN6" s="10"/>
+      <c r="FO6" s="10"/>
+      <c r="FP6" s="10"/>
+      <c r="FQ6" s="10"/>
+      <c r="FR6" s="10"/>
+      <c r="FS6" s="10"/>
+      <c r="FT6" s="10"/>
+      <c r="FU6" s="10"/>
+      <c r="FV6" s="10"/>
+      <c r="FW6" s="10"/>
+      <c r="FX6" s="10"/>
+      <c r="FY6" s="10"/>
+      <c r="FZ6" s="10"/>
+      <c r="GA6" s="10"/>
+      <c r="GB6" s="10"/>
+      <c r="GC6" s="10"/>
+      <c r="GD6" s="10"/>
+      <c r="GE6" s="10"/>
+      <c r="GF6" s="10"/>
+      <c r="GG6" s="10"/>
+      <c r="GH6" s="10"/>
+      <c r="GI6" s="10"/>
+      <c r="GJ6" s="10"/>
+      <c r="GK6" s="10"/>
+      <c r="GL6" s="10"/>
+      <c r="GM6" s="10"/>
+      <c r="GN6" s="10"/>
+      <c r="GO6" s="10"/>
+      <c r="GP6" s="10"/>
+      <c r="GQ6" s="10"/>
+      <c r="GR6" s="10"/>
+      <c r="GS6" s="10"/>
+      <c r="GT6" s="10"/>
+      <c r="GU6" s="10"/>
+      <c r="GV6" s="10"/>
+      <c r="GW6" s="10"/>
+      <c r="GX6" s="10"/>
+      <c r="GY6" s="10"/>
+      <c r="GZ6" s="10"/>
+      <c r="HA6" s="10"/>
+      <c r="HB6" s="10"/>
+      <c r="HC6" s="10"/>
+      <c r="HD6" s="10"/>
+      <c r="HE6" s="10"/>
+      <c r="HF6" s="10"/>
+      <c r="HG6" s="10"/>
+      <c r="HH6" s="10"/>
+      <c r="HI6" s="10"/>
+      <c r="HJ6" s="10"/>
+      <c r="HK6" s="10"/>
+      <c r="HL6" s="10"/>
+      <c r="HM6" s="10"/>
+      <c r="HN6" s="10"/>
+      <c r="HO6" s="10"/>
+      <c r="HP6" s="10"/>
+      <c r="HQ6" s="10"/>
+      <c r="HR6" s="10"/>
+      <c r="HS6" s="10"/>
+      <c r="HT6" s="10"/>
+      <c r="HU6" s="10"/>
+      <c r="HV6" s="10"/>
+      <c r="HW6" s="10"/>
+      <c r="HX6" s="10"/>
+      <c r="HY6" s="10"/>
+      <c r="HZ6" s="10"/>
+      <c r="IA6" s="10"/>
+      <c r="IB6" s="10"/>
+      <c r="IC6" s="10"/>
+      <c r="ID6" s="10"/>
+      <c r="IE6" s="10"/>
+      <c r="IF6" s="10"/>
+      <c r="IG6" s="10"/>
+      <c r="IH6" s="10"/>
+      <c r="II6" s="10"/>
+      <c r="IJ6" s="10"/>
+      <c r="IK6" s="10"/>
+      <c r="IL6" s="10"/>
+      <c r="IM6" s="10"/>
+      <c r="IN6" s="10"/>
+      <c r="IO6" s="10"/>
+      <c r="IP6" s="10"/>
+      <c r="IQ6" s="10"/>
+      <c r="IR6" s="10"/>
+      <c r="IS6" s="10"/>
+      <c r="IT6" s="10"/>
+      <c r="IU6" s="10"/>
+      <c r="IV6" s="10"/>
+      <c r="IW6" s="10"/>
+      <c r="IX6" s="10"/>
+      <c r="IY6" s="10"/>
+      <c r="IZ6" s="10"/>
+      <c r="JA6" s="10"/>
+      <c r="JB6" s="10"/>
+      <c r="JC6" s="10"/>
+      <c r="JD6" s="10"/>
+      <c r="JE6" s="10"/>
+      <c r="JF6" s="10"/>
+      <c r="JG6" s="10"/>
+      <c r="JH6" s="10"/>
+      <c r="JI6" s="10"/>
+      <c r="JJ6" s="10"/>
+      <c r="JK6" s="10"/>
+      <c r="JL6" s="10"/>
+      <c r="JM6" s="10"/>
+      <c r="JN6" s="10"/>
+      <c r="JO6" s="10"/>
+      <c r="JP6" s="10"/>
+      <c r="JQ6" s="10"/>
+      <c r="JR6" s="10"/>
+      <c r="JS6" s="10"/>
+      <c r="JT6" s="10"/>
+      <c r="JU6" s="10"/>
+      <c r="JV6" s="10"/>
+      <c r="JW6" s="10"/>
+      <c r="JX6" s="10"/>
+      <c r="JY6" s="10"/>
+      <c r="JZ6" s="10"/>
+      <c r="KA6" s="10"/>
+      <c r="KB6" s="10"/>
+      <c r="KC6" s="10"/>
+      <c r="KD6" s="10"/>
+      <c r="KE6" s="10"/>
+    </row>
+    <row r="7" spans="1:291" s="3" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="10"/>
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10"/>
+      <c r="BX7" s="10"/>
+      <c r="BY7" s="10"/>
+      <c r="BZ7" s="10"/>
+      <c r="CA7" s="10"/>
+      <c r="CB7" s="10"/>
+      <c r="CC7" s="10"/>
+      <c r="CD7" s="10"/>
+      <c r="CE7" s="10"/>
+      <c r="CF7" s="10"/>
+      <c r="CG7" s="10"/>
+      <c r="CH7" s="10"/>
+      <c r="CI7" s="10"/>
+      <c r="CJ7" s="10"/>
+      <c r="CK7" s="10"/>
+      <c r="CL7" s="10"/>
+      <c r="CM7" s="10"/>
+      <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
+      <c r="CQ7" s="10"/>
+      <c r="CR7" s="10"/>
+      <c r="CS7" s="10"/>
+      <c r="CT7" s="10"/>
+      <c r="CU7" s="10"/>
+      <c r="CV7" s="10"/>
+      <c r="CW7" s="10"/>
+      <c r="CX7" s="10"/>
+      <c r="CY7" s="10"/>
+      <c r="CZ7" s="10"/>
+      <c r="DA7" s="10"/>
+      <c r="DB7" s="10"/>
+      <c r="DC7" s="10"/>
+      <c r="DD7" s="10"/>
+      <c r="DE7" s="10"/>
+      <c r="DF7" s="10"/>
+      <c r="DG7" s="10"/>
+      <c r="DH7" s="10"/>
+      <c r="DI7" s="10"/>
+      <c r="DJ7" s="10"/>
+      <c r="DK7" s="10"/>
+      <c r="DL7" s="10"/>
+      <c r="DM7" s="10"/>
+      <c r="DN7" s="10"/>
+      <c r="DO7" s="10"/>
+      <c r="DP7" s="10"/>
+      <c r="DQ7" s="10"/>
+      <c r="DR7" s="10"/>
+      <c r="DS7" s="10"/>
+      <c r="DT7" s="10"/>
+      <c r="DU7" s="10"/>
+      <c r="DV7" s="10"/>
+      <c r="DW7" s="10"/>
+      <c r="DX7" s="10"/>
+      <c r="DY7" s="10"/>
+      <c r="DZ7" s="10"/>
+      <c r="EA7" s="10"/>
+      <c r="EB7" s="10"/>
+      <c r="EC7" s="10"/>
+      <c r="ED7" s="10"/>
+      <c r="EE7" s="10"/>
+      <c r="EF7" s="10"/>
+      <c r="EG7" s="10"/>
+      <c r="EH7" s="10"/>
+      <c r="EI7" s="10"/>
+      <c r="EJ7" s="10"/>
+      <c r="EK7" s="10"/>
+      <c r="EL7" s="10"/>
+      <c r="EM7" s="10"/>
+      <c r="EN7" s="10"/>
+      <c r="EO7" s="10"/>
+      <c r="EP7" s="10"/>
+      <c r="EQ7" s="10"/>
+      <c r="ER7" s="10"/>
+      <c r="ES7" s="10"/>
+      <c r="ET7" s="10"/>
+      <c r="EU7" s="10"/>
+      <c r="EV7" s="10"/>
+      <c r="EW7" s="10"/>
+      <c r="EX7" s="10"/>
+      <c r="EY7" s="10"/>
+      <c r="EZ7" s="10"/>
+      <c r="FA7" s="10"/>
+      <c r="FB7" s="10"/>
+      <c r="FC7" s="10"/>
+      <c r="FD7" s="10"/>
+      <c r="FE7" s="10"/>
+      <c r="FF7" s="10"/>
+      <c r="FG7" s="10"/>
+      <c r="FH7" s="10"/>
+      <c r="FI7" s="10"/>
+      <c r="FJ7" s="10"/>
+      <c r="FK7" s="10"/>
+      <c r="FL7" s="10"/>
+      <c r="FM7" s="10"/>
+      <c r="FN7" s="10"/>
+      <c r="FO7" s="10"/>
+      <c r="FP7" s="10"/>
+      <c r="FQ7" s="10"/>
+      <c r="FR7" s="10"/>
+      <c r="FS7" s="10"/>
+      <c r="FT7" s="10"/>
+      <c r="FU7" s="10"/>
+      <c r="FV7" s="10"/>
+      <c r="FW7" s="10"/>
+      <c r="FX7" s="10"/>
+      <c r="FY7" s="10"/>
+      <c r="FZ7" s="10"/>
+      <c r="GA7" s="10"/>
+      <c r="GB7" s="10"/>
+      <c r="GC7" s="10"/>
+      <c r="GD7" s="10"/>
+      <c r="GE7" s="10"/>
+      <c r="GF7" s="10"/>
+      <c r="GG7" s="10"/>
+      <c r="GH7" s="10"/>
+      <c r="GI7" s="10"/>
+      <c r="GJ7" s="10"/>
+      <c r="GK7" s="10"/>
+      <c r="GL7" s="10"/>
+      <c r="GM7" s="10"/>
+      <c r="GN7" s="10"/>
+      <c r="GO7" s="10"/>
+      <c r="GP7" s="10"/>
+      <c r="GQ7" s="10"/>
+      <c r="GR7" s="10"/>
+      <c r="GS7" s="10"/>
+      <c r="GT7" s="10"/>
+      <c r="GU7" s="10"/>
+      <c r="GV7" s="10"/>
+      <c r="GW7" s="10"/>
+      <c r="GX7" s="10"/>
+      <c r="GY7" s="10"/>
+      <c r="GZ7" s="10"/>
+      <c r="HA7" s="10"/>
+      <c r="HB7" s="10"/>
+      <c r="HC7" s="10"/>
+      <c r="HD7" s="10"/>
+      <c r="HE7" s="10"/>
+      <c r="HF7" s="10"/>
+      <c r="HG7" s="10"/>
+      <c r="HH7" s="10"/>
+      <c r="HI7" s="10"/>
+      <c r="HJ7" s="10"/>
+      <c r="HK7" s="10"/>
+      <c r="HL7" s="10"/>
+      <c r="HM7" s="10"/>
+      <c r="HN7" s="10"/>
+      <c r="HO7" s="10"/>
+      <c r="HP7" s="10"/>
+      <c r="HQ7" s="10"/>
+      <c r="HR7" s="10"/>
+      <c r="HS7" s="10"/>
+      <c r="HT7" s="10"/>
+      <c r="HU7" s="10"/>
+      <c r="HV7" s="10"/>
+      <c r="HW7" s="10"/>
+      <c r="HX7" s="10"/>
+      <c r="HY7" s="10"/>
+      <c r="HZ7" s="10"/>
+      <c r="IA7" s="10"/>
+      <c r="IB7" s="10"/>
+      <c r="IC7" s="10"/>
+      <c r="ID7" s="10"/>
+      <c r="IE7" s="10"/>
+      <c r="IF7" s="10"/>
+      <c r="IG7" s="10"/>
+      <c r="IH7" s="10"/>
+      <c r="II7" s="10"/>
+      <c r="IJ7" s="10"/>
+      <c r="IK7" s="10"/>
+      <c r="IL7" s="10"/>
+      <c r="IM7" s="10"/>
+      <c r="IN7" s="10"/>
+      <c r="IO7" s="10"/>
+      <c r="IP7" s="10"/>
+      <c r="IQ7" s="10"/>
+      <c r="IR7" s="10"/>
+      <c r="IS7" s="10"/>
+      <c r="IT7" s="10"/>
+      <c r="IU7" s="10"/>
+      <c r="IV7" s="10"/>
+      <c r="IW7" s="10"/>
+      <c r="IX7" s="10"/>
+      <c r="IY7" s="10"/>
+      <c r="IZ7" s="10"/>
+      <c r="JA7" s="10"/>
+      <c r="JB7" s="10"/>
+      <c r="JC7" s="10"/>
+      <c r="JD7" s="10"/>
+      <c r="JE7" s="10"/>
+      <c r="JF7" s="10"/>
+      <c r="JG7" s="10"/>
+      <c r="JH7" s="10"/>
+      <c r="JI7" s="10"/>
+      <c r="JJ7" s="10"/>
+      <c r="JK7" s="10"/>
+      <c r="JL7" s="10"/>
+      <c r="JM7" s="10"/>
+      <c r="JN7" s="10"/>
+      <c r="JO7" s="10"/>
+      <c r="JP7" s="10"/>
+      <c r="JQ7" s="10"/>
+      <c r="JR7" s="10"/>
+      <c r="JS7" s="10"/>
+      <c r="JT7" s="10"/>
+      <c r="JU7" s="10"/>
+      <c r="JV7" s="10"/>
+      <c r="JW7" s="10"/>
+      <c r="JX7" s="10"/>
+      <c r="JY7" s="10"/>
+      <c r="JZ7" s="10"/>
+      <c r="KA7" s="10"/>
+      <c r="KB7" s="10"/>
+      <c r="KC7" s="10"/>
+      <c r="KD7" s="10"/>
+      <c r="KE7" s="10"/>
+    </row>
+    <row r="8" spans="1:291">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:291" s="3" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="10"/>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="10"/>
+      <c r="BM9" s="10"/>
+      <c r="BN9" s="10"/>
+      <c r="BO9" s="10"/>
+      <c r="BP9" s="10"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="10"/>
+      <c r="BS9" s="10"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="10"/>
+      <c r="BV9" s="10"/>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="10"/>
+      <c r="BY9" s="10"/>
+      <c r="BZ9" s="10"/>
+      <c r="CA9" s="10"/>
+      <c r="CB9" s="10"/>
+      <c r="CC9" s="10"/>
+      <c r="CD9" s="10"/>
+      <c r="CE9" s="10"/>
+      <c r="CF9" s="10"/>
+      <c r="CG9" s="10"/>
+      <c r="CH9" s="10"/>
+      <c r="CI9" s="10"/>
+      <c r="CJ9" s="10"/>
+      <c r="CK9" s="10"/>
+      <c r="CL9" s="10"/>
+      <c r="CM9" s="10"/>
+      <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
+      <c r="CQ9" s="10"/>
+      <c r="CR9" s="10"/>
+      <c r="CS9" s="10"/>
+      <c r="CT9" s="10"/>
+      <c r="CU9" s="10"/>
+      <c r="CV9" s="10"/>
+      <c r="CW9" s="10"/>
+      <c r="CX9" s="10"/>
+      <c r="CY9" s="10"/>
+      <c r="CZ9" s="10"/>
+      <c r="DA9" s="10"/>
+      <c r="DB9" s="10"/>
+      <c r="DC9" s="10"/>
+      <c r="DD9" s="10"/>
+      <c r="DE9" s="10"/>
+      <c r="DF9" s="10"/>
+      <c r="DG9" s="10"/>
+      <c r="DH9" s="10"/>
+      <c r="DI9" s="10"/>
+      <c r="DJ9" s="10"/>
+      <c r="DK9" s="10"/>
+      <c r="DL9" s="10"/>
+      <c r="DM9" s="10"/>
+      <c r="DN9" s="10"/>
+      <c r="DO9" s="10"/>
+      <c r="DP9" s="10"/>
+      <c r="DQ9" s="10"/>
+      <c r="DR9" s="10"/>
+      <c r="DS9" s="10"/>
+      <c r="DT9" s="10"/>
+      <c r="DU9" s="10"/>
+      <c r="DV9" s="10"/>
+      <c r="DW9" s="10"/>
+      <c r="DX9" s="10"/>
+      <c r="DY9" s="10"/>
+      <c r="DZ9" s="10"/>
+      <c r="EA9" s="10"/>
+      <c r="EB9" s="10"/>
+      <c r="EC9" s="10"/>
+      <c r="ED9" s="10"/>
+      <c r="EE9" s="10"/>
+      <c r="EF9" s="10"/>
+      <c r="EG9" s="10"/>
+      <c r="EH9" s="10"/>
+      <c r="EI9" s="10"/>
+      <c r="EJ9" s="10"/>
+      <c r="EK9" s="10"/>
+      <c r="EL9" s="10"/>
+      <c r="EM9" s="10"/>
+      <c r="EN9" s="10"/>
+      <c r="EO9" s="10"/>
+      <c r="EP9" s="10"/>
+      <c r="EQ9" s="10"/>
+      <c r="ER9" s="10"/>
+      <c r="ES9" s="10"/>
+      <c r="ET9" s="10"/>
+      <c r="EU9" s="10"/>
+      <c r="EV9" s="10"/>
+      <c r="EW9" s="10"/>
+      <c r="EX9" s="10"/>
+      <c r="EY9" s="10"/>
+      <c r="EZ9" s="10"/>
+      <c r="FA9" s="10"/>
+      <c r="FB9" s="10"/>
+      <c r="FC9" s="10"/>
+      <c r="FD9" s="10"/>
+      <c r="FE9" s="10"/>
+      <c r="FF9" s="10"/>
+      <c r="FG9" s="10"/>
+      <c r="FH9" s="10"/>
+      <c r="FI9" s="10"/>
+      <c r="FJ9" s="10"/>
+      <c r="FK9" s="10"/>
+      <c r="FL9" s="10"/>
+      <c r="FM9" s="10"/>
+      <c r="FN9" s="10"/>
+      <c r="FO9" s="10"/>
+      <c r="FP9" s="10"/>
+      <c r="FQ9" s="10"/>
+      <c r="FR9" s="10"/>
+      <c r="FS9" s="10"/>
+      <c r="FT9" s="10"/>
+      <c r="FU9" s="10"/>
+      <c r="FV9" s="10"/>
+      <c r="FW9" s="10"/>
+      <c r="FX9" s="10"/>
+      <c r="FY9" s="10"/>
+      <c r="FZ9" s="10"/>
+      <c r="GA9" s="10"/>
+      <c r="GB9" s="10"/>
+      <c r="GC9" s="10"/>
+      <c r="GD9" s="10"/>
+      <c r="GE9" s="10"/>
+      <c r="GF9" s="10"/>
+      <c r="GG9" s="10"/>
+      <c r="GH9" s="10"/>
+      <c r="GI9" s="10"/>
+      <c r="GJ9" s="10"/>
+      <c r="GK9" s="10"/>
+      <c r="GL9" s="10"/>
+      <c r="GM9" s="10"/>
+      <c r="GN9" s="10"/>
+      <c r="GO9" s="10"/>
+      <c r="GP9" s="10"/>
+      <c r="GQ9" s="10"/>
+      <c r="GR9" s="10"/>
+      <c r="GS9" s="10"/>
+      <c r="GT9" s="10"/>
+      <c r="GU9" s="10"/>
+      <c r="GV9" s="10"/>
+      <c r="GW9" s="10"/>
+      <c r="GX9" s="10"/>
+      <c r="GY9" s="10"/>
+      <c r="GZ9" s="10"/>
+      <c r="HA9" s="10"/>
+      <c r="HB9" s="10"/>
+      <c r="HC9" s="10"/>
+      <c r="HD9" s="10"/>
+      <c r="HE9" s="10"/>
+      <c r="HF9" s="10"/>
+      <c r="HG9" s="10"/>
+      <c r="HH9" s="10"/>
+      <c r="HI9" s="10"/>
+      <c r="HJ9" s="10"/>
+      <c r="HK9" s="10"/>
+      <c r="HL9" s="10"/>
+      <c r="HM9" s="10"/>
+      <c r="HN9" s="10"/>
+      <c r="HO9" s="10"/>
+      <c r="HP9" s="10"/>
+      <c r="HQ9" s="10"/>
+      <c r="HR9" s="10"/>
+      <c r="HS9" s="10"/>
+      <c r="HT9" s="10"/>
+      <c r="HU9" s="10"/>
+      <c r="HV9" s="10"/>
+      <c r="HW9" s="10"/>
+      <c r="HX9" s="10"/>
+      <c r="HY9" s="10"/>
+      <c r="HZ9" s="10"/>
+      <c r="IA9" s="10"/>
+      <c r="IB9" s="10"/>
+      <c r="IC9" s="10"/>
+      <c r="ID9" s="10"/>
+      <c r="IE9" s="10"/>
+      <c r="IF9" s="10"/>
+      <c r="IG9" s="10"/>
+      <c r="IH9" s="10"/>
+      <c r="II9" s="10"/>
+      <c r="IJ9" s="10"/>
+      <c r="IK9" s="10"/>
+      <c r="IL9" s="10"/>
+      <c r="IM9" s="10"/>
+      <c r="IN9" s="10"/>
+      <c r="IO9" s="10"/>
+      <c r="IP9" s="10"/>
+      <c r="IQ9" s="10"/>
+      <c r="IR9" s="10"/>
+      <c r="IS9" s="10"/>
+      <c r="IT9" s="10"/>
+      <c r="IU9" s="10"/>
+      <c r="IV9" s="10"/>
+      <c r="IW9" s="10"/>
+      <c r="IX9" s="10"/>
+      <c r="IY9" s="10"/>
+      <c r="IZ9" s="10"/>
+      <c r="JA9" s="10"/>
+      <c r="JB9" s="10"/>
+      <c r="JC9" s="10"/>
+      <c r="JD9" s="10"/>
+      <c r="JE9" s="10"/>
+      <c r="JF9" s="10"/>
+      <c r="JG9" s="10"/>
+      <c r="JH9" s="10"/>
+      <c r="JI9" s="10"/>
+      <c r="JJ9" s="10"/>
+      <c r="JK9" s="10"/>
+      <c r="JL9" s="10"/>
+      <c r="JM9" s="10"/>
+      <c r="JN9" s="10"/>
+      <c r="JO9" s="10"/>
+      <c r="JP9" s="10"/>
+      <c r="JQ9" s="10"/>
+      <c r="JR9" s="10"/>
+      <c r="JS9" s="10"/>
+      <c r="JT9" s="10"/>
+      <c r="JU9" s="10"/>
+      <c r="JV9" s="10"/>
+      <c r="JW9" s="10"/>
+      <c r="JX9" s="10"/>
+      <c r="JY9" s="10"/>
+      <c r="JZ9" s="10"/>
+      <c r="KA9" s="10"/>
+      <c r="KB9" s="10"/>
+      <c r="KC9" s="10"/>
+      <c r="KD9" s="10"/>
+      <c r="KE9" s="10"/>
+    </row>
+    <row r="10" spans="1:291">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:291" s="3" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10"/>
+      <c r="BL11" s="10"/>
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="10"/>
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="10"/>
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="10"/>
+      <c r="BX11" s="10"/>
+      <c r="BY11" s="10"/>
+      <c r="BZ11" s="10"/>
+      <c r="CA11" s="10"/>
+      <c r="CB11" s="10"/>
+      <c r="CC11" s="10"/>
+      <c r="CD11" s="10"/>
+      <c r="CE11" s="10"/>
+      <c r="CF11" s="10"/>
+      <c r="CG11" s="10"/>
+      <c r="CH11" s="10"/>
+      <c r="CI11" s="10"/>
+      <c r="CJ11" s="10"/>
+      <c r="CK11" s="10"/>
+      <c r="CL11" s="10"/>
+      <c r="CM11" s="10"/>
+      <c r="CN11" s="10"/>
+      <c r="CO11" s="10"/>
+      <c r="CP11" s="10"/>
+      <c r="CQ11" s="10"/>
+      <c r="CR11" s="10"/>
+      <c r="CS11" s="10"/>
+      <c r="CT11" s="10"/>
+      <c r="CU11" s="10"/>
+      <c r="CV11" s="10"/>
+      <c r="CW11" s="10"/>
+      <c r="CX11" s="10"/>
+      <c r="CY11" s="10"/>
+      <c r="CZ11" s="10"/>
+      <c r="DA11" s="10"/>
+      <c r="DB11" s="10"/>
+      <c r="DC11" s="10"/>
+      <c r="DD11" s="10"/>
+      <c r="DE11" s="10"/>
+      <c r="DF11" s="10"/>
+      <c r="DG11" s="10"/>
+      <c r="DH11" s="10"/>
+      <c r="DI11" s="10"/>
+      <c r="DJ11" s="10"/>
+      <c r="DK11" s="10"/>
+      <c r="DL11" s="10"/>
+      <c r="DM11" s="10"/>
+      <c r="DN11" s="10"/>
+      <c r="DO11" s="10"/>
+      <c r="DP11" s="10"/>
+      <c r="DQ11" s="10"/>
+      <c r="DR11" s="10"/>
+      <c r="DS11" s="10"/>
+      <c r="DT11" s="10"/>
+      <c r="DU11" s="10"/>
+      <c r="DV11" s="10"/>
+      <c r="DW11" s="10"/>
+      <c r="DX11" s="10"/>
+      <c r="DY11" s="10"/>
+      <c r="DZ11" s="10"/>
+      <c r="EA11" s="10"/>
+      <c r="EB11" s="10"/>
+      <c r="EC11" s="10"/>
+      <c r="ED11" s="10"/>
+      <c r="EE11" s="10"/>
+      <c r="EF11" s="10"/>
+      <c r="EG11" s="10"/>
+      <c r="EH11" s="10"/>
+      <c r="EI11" s="10"/>
+      <c r="EJ11" s="10"/>
+      <c r="EK11" s="10"/>
+      <c r="EL11" s="10"/>
+      <c r="EM11" s="10"/>
+      <c r="EN11" s="10"/>
+      <c r="EO11" s="10"/>
+      <c r="EP11" s="10"/>
+      <c r="EQ11" s="10"/>
+      <c r="ER11" s="10"/>
+      <c r="ES11" s="10"/>
+      <c r="ET11" s="10"/>
+      <c r="EU11" s="10"/>
+      <c r="EV11" s="10"/>
+      <c r="EW11" s="10"/>
+      <c r="EX11" s="10"/>
+      <c r="EY11" s="10"/>
+      <c r="EZ11" s="10"/>
+      <c r="FA11" s="10"/>
+      <c r="FB11" s="10"/>
+      <c r="FC11" s="10"/>
+      <c r="FD11" s="10"/>
+      <c r="FE11" s="10"/>
+      <c r="FF11" s="10"/>
+      <c r="FG11" s="10"/>
+      <c r="FH11" s="10"/>
+      <c r="FI11" s="10"/>
+      <c r="FJ11" s="10"/>
+      <c r="FK11" s="10"/>
+      <c r="FL11" s="10"/>
+      <c r="FM11" s="10"/>
+      <c r="FN11" s="10"/>
+      <c r="FO11" s="10"/>
+      <c r="FP11" s="10"/>
+      <c r="FQ11" s="10"/>
+      <c r="FR11" s="10"/>
+      <c r="FS11" s="10"/>
+      <c r="FT11" s="10"/>
+      <c r="FU11" s="10"/>
+      <c r="FV11" s="10"/>
+      <c r="FW11" s="10"/>
+      <c r="FX11" s="10"/>
+      <c r="FY11" s="10"/>
+      <c r="FZ11" s="10"/>
+      <c r="GA11" s="10"/>
+      <c r="GB11" s="10"/>
+      <c r="GC11" s="10"/>
+      <c r="GD11" s="10"/>
+      <c r="GE11" s="10"/>
+      <c r="GF11" s="10"/>
+      <c r="GG11" s="10"/>
+      <c r="GH11" s="10"/>
+      <c r="GI11" s="10"/>
+      <c r="GJ11" s="10"/>
+      <c r="GK11" s="10"/>
+      <c r="GL11" s="10"/>
+      <c r="GM11" s="10"/>
+      <c r="GN11" s="10"/>
+      <c r="GO11" s="10"/>
+      <c r="GP11" s="10"/>
+      <c r="GQ11" s="10"/>
+      <c r="GR11" s="10"/>
+      <c r="GS11" s="10"/>
+      <c r="GT11" s="10"/>
+      <c r="GU11" s="10"/>
+      <c r="GV11" s="10"/>
+      <c r="GW11" s="10"/>
+      <c r="GX11" s="10"/>
+      <c r="GY11" s="10"/>
+      <c r="GZ11" s="10"/>
+      <c r="HA11" s="10"/>
+      <c r="HB11" s="10"/>
+      <c r="HC11" s="10"/>
+      <c r="HD11" s="10"/>
+      <c r="HE11" s="10"/>
+      <c r="HF11" s="10"/>
+      <c r="HG11" s="10"/>
+      <c r="HH11" s="10"/>
+      <c r="HI11" s="10"/>
+      <c r="HJ11" s="10"/>
+      <c r="HK11" s="10"/>
+      <c r="HL11" s="10"/>
+      <c r="HM11" s="10"/>
+      <c r="HN11" s="10"/>
+      <c r="HO11" s="10"/>
+      <c r="HP11" s="10"/>
+      <c r="HQ11" s="10"/>
+      <c r="HR11" s="10"/>
+      <c r="HS11" s="10"/>
+      <c r="HT11" s="10"/>
+      <c r="HU11" s="10"/>
+      <c r="HV11" s="10"/>
+      <c r="HW11" s="10"/>
+      <c r="HX11" s="10"/>
+      <c r="HY11" s="10"/>
+      <c r="HZ11" s="10"/>
+      <c r="IA11" s="10"/>
+      <c r="IB11" s="10"/>
+      <c r="IC11" s="10"/>
+      <c r="ID11" s="10"/>
+      <c r="IE11" s="10"/>
+      <c r="IF11" s="10"/>
+      <c r="IG11" s="10"/>
+      <c r="IH11" s="10"/>
+      <c r="II11" s="10"/>
+      <c r="IJ11" s="10"/>
+      <c r="IK11" s="10"/>
+      <c r="IL11" s="10"/>
+      <c r="IM11" s="10"/>
+      <c r="IN11" s="10"/>
+      <c r="IO11" s="10"/>
+      <c r="IP11" s="10"/>
+      <c r="IQ11" s="10"/>
+      <c r="IR11" s="10"/>
+      <c r="IS11" s="10"/>
+      <c r="IT11" s="10"/>
+      <c r="IU11" s="10"/>
+      <c r="IV11" s="10"/>
+      <c r="IW11" s="10"/>
+      <c r="IX11" s="10"/>
+      <c r="IY11" s="10"/>
+      <c r="IZ11" s="10"/>
+      <c r="JA11" s="10"/>
+      <c r="JB11" s="10"/>
+      <c r="JC11" s="10"/>
+      <c r="JD11" s="10"/>
+      <c r="JE11" s="10"/>
+      <c r="JF11" s="10"/>
+      <c r="JG11" s="10"/>
+      <c r="JH11" s="10"/>
+      <c r="JI11" s="10"/>
+      <c r="JJ11" s="10"/>
+      <c r="JK11" s="10"/>
+      <c r="JL11" s="10"/>
+      <c r="JM11" s="10"/>
+      <c r="JN11" s="10"/>
+      <c r="JO11" s="10"/>
+      <c r="JP11" s="10"/>
+      <c r="JQ11" s="10"/>
+      <c r="JR11" s="10"/>
+      <c r="JS11" s="10"/>
+      <c r="JT11" s="10"/>
+      <c r="JU11" s="10"/>
+      <c r="JV11" s="10"/>
+      <c r="JW11" s="10"/>
+      <c r="JX11" s="10"/>
+      <c r="JY11" s="10"/>
+      <c r="JZ11" s="10"/>
+      <c r="KA11" s="10"/>
+      <c r="KB11" s="10"/>
+      <c r="KC11" s="10"/>
+      <c r="KD11" s="10"/>
+      <c r="KE11" s="10"/>
+    </row>
+    <row r="12" spans="1:291" s="3" customFormat="1">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="10"/>
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="10"/>
+      <c r="BM12" s="10"/>
+      <c r="BN12" s="10"/>
+      <c r="BO12" s="10"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="10"/>
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="10"/>
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="10"/>
+      <c r="BX12" s="10"/>
+      <c r="BY12" s="10"/>
+      <c r="BZ12" s="10"/>
+      <c r="CA12" s="10"/>
+      <c r="CB12" s="10"/>
+      <c r="CC12" s="10"/>
+      <c r="CD12" s="10"/>
+      <c r="CE12" s="10"/>
+      <c r="CF12" s="10"/>
+      <c r="CG12" s="10"/>
+      <c r="CH12" s="10"/>
+      <c r="CI12" s="10"/>
+      <c r="CJ12" s="10"/>
+      <c r="CK12" s="10"/>
+      <c r="CL12" s="10"/>
+      <c r="CM12" s="10"/>
+      <c r="CN12" s="10"/>
+      <c r="CO12" s="10"/>
+      <c r="CP12" s="10"/>
+      <c r="CQ12" s="10"/>
+      <c r="CR12" s="10"/>
+      <c r="CS12" s="10"/>
+      <c r="CT12" s="10"/>
+      <c r="CU12" s="10"/>
+      <c r="CV12" s="10"/>
+      <c r="CW12" s="10"/>
+      <c r="CX12" s="10"/>
+      <c r="CY12" s="10"/>
+      <c r="CZ12" s="10"/>
+      <c r="DA12" s="10"/>
+      <c r="DB12" s="10"/>
+      <c r="DC12" s="10"/>
+      <c r="DD12" s="10"/>
+      <c r="DE12" s="10"/>
+      <c r="DF12" s="10"/>
+      <c r="DG12" s="10"/>
+      <c r="DH12" s="10"/>
+      <c r="DI12" s="10"/>
+      <c r="DJ12" s="10"/>
+      <c r="DK12" s="10"/>
+      <c r="DL12" s="10"/>
+      <c r="DM12" s="10"/>
+      <c r="DN12" s="10"/>
+      <c r="DO12" s="10"/>
+      <c r="DP12" s="10"/>
+      <c r="DQ12" s="10"/>
+      <c r="DR12" s="10"/>
+      <c r="DS12" s="10"/>
+      <c r="DT12" s="10"/>
+      <c r="DU12" s="10"/>
+      <c r="DV12" s="10"/>
+      <c r="DW12" s="10"/>
+      <c r="DX12" s="10"/>
+      <c r="DY12" s="10"/>
+      <c r="DZ12" s="10"/>
+      <c r="EA12" s="10"/>
+      <c r="EB12" s="10"/>
+      <c r="EC12" s="10"/>
+      <c r="ED12" s="10"/>
+      <c r="EE12" s="10"/>
+      <c r="EF12" s="10"/>
+      <c r="EG12" s="10"/>
+      <c r="EH12" s="10"/>
+      <c r="EI12" s="10"/>
+      <c r="EJ12" s="10"/>
+      <c r="EK12" s="10"/>
+      <c r="EL12" s="10"/>
+      <c r="EM12" s="10"/>
+      <c r="EN12" s="10"/>
+      <c r="EO12" s="10"/>
+      <c r="EP12" s="10"/>
+      <c r="EQ12" s="10"/>
+      <c r="ER12" s="10"/>
+      <c r="ES12" s="10"/>
+      <c r="ET12" s="10"/>
+      <c r="EU12" s="10"/>
+      <c r="EV12" s="10"/>
+      <c r="EW12" s="10"/>
+      <c r="EX12" s="10"/>
+      <c r="EY12" s="10"/>
+      <c r="EZ12" s="10"/>
+      <c r="FA12" s="10"/>
+      <c r="FB12" s="10"/>
+      <c r="FC12" s="10"/>
+      <c r="FD12" s="10"/>
+      <c r="FE12" s="10"/>
+      <c r="FF12" s="10"/>
+      <c r="FG12" s="10"/>
+      <c r="FH12" s="10"/>
+      <c r="FI12" s="10"/>
+      <c r="FJ12" s="10"/>
+      <c r="FK12" s="10"/>
+      <c r="FL12" s="10"/>
+      <c r="FM12" s="10"/>
+      <c r="FN12" s="10"/>
+      <c r="FO12" s="10"/>
+      <c r="FP12" s="10"/>
+      <c r="FQ12" s="10"/>
+      <c r="FR12" s="10"/>
+      <c r="FS12" s="10"/>
+      <c r="FT12" s="10"/>
+      <c r="FU12" s="10"/>
+      <c r="FV12" s="10"/>
+      <c r="FW12" s="10"/>
+      <c r="FX12" s="10"/>
+      <c r="FY12" s="10"/>
+      <c r="FZ12" s="10"/>
+      <c r="GA12" s="10"/>
+      <c r="GB12" s="10"/>
+      <c r="GC12" s="10"/>
+      <c r="GD12" s="10"/>
+      <c r="GE12" s="10"/>
+      <c r="GF12" s="10"/>
+      <c r="GG12" s="10"/>
+      <c r="GH12" s="10"/>
+      <c r="GI12" s="10"/>
+      <c r="GJ12" s="10"/>
+      <c r="GK12" s="10"/>
+      <c r="GL12" s="10"/>
+      <c r="GM12" s="10"/>
+      <c r="GN12" s="10"/>
+      <c r="GO12" s="10"/>
+      <c r="GP12" s="10"/>
+      <c r="GQ12" s="10"/>
+      <c r="GR12" s="10"/>
+      <c r="GS12" s="10"/>
+      <c r="GT12" s="10"/>
+      <c r="GU12" s="10"/>
+      <c r="GV12" s="10"/>
+      <c r="GW12" s="10"/>
+      <c r="GX12" s="10"/>
+      <c r="GY12" s="10"/>
+      <c r="GZ12" s="10"/>
+      <c r="HA12" s="10"/>
+      <c r="HB12" s="10"/>
+      <c r="HC12" s="10"/>
+      <c r="HD12" s="10"/>
+      <c r="HE12" s="10"/>
+      <c r="HF12" s="10"/>
+      <c r="HG12" s="10"/>
+      <c r="HH12" s="10"/>
+      <c r="HI12" s="10"/>
+      <c r="HJ12" s="10"/>
+      <c r="HK12" s="10"/>
+      <c r="HL12" s="10"/>
+      <c r="HM12" s="10"/>
+      <c r="HN12" s="10"/>
+      <c r="HO12" s="10"/>
+      <c r="HP12" s="10"/>
+      <c r="HQ12" s="10"/>
+      <c r="HR12" s="10"/>
+      <c r="HS12" s="10"/>
+      <c r="HT12" s="10"/>
+      <c r="HU12" s="10"/>
+      <c r="HV12" s="10"/>
+      <c r="HW12" s="10"/>
+      <c r="HX12" s="10"/>
+      <c r="HY12" s="10"/>
+      <c r="HZ12" s="10"/>
+      <c r="IA12" s="10"/>
+      <c r="IB12" s="10"/>
+      <c r="IC12" s="10"/>
+      <c r="ID12" s="10"/>
+      <c r="IE12" s="10"/>
+      <c r="IF12" s="10"/>
+      <c r="IG12" s="10"/>
+      <c r="IH12" s="10"/>
+      <c r="II12" s="10"/>
+      <c r="IJ12" s="10"/>
+      <c r="IK12" s="10"/>
+      <c r="IL12" s="10"/>
+      <c r="IM12" s="10"/>
+      <c r="IN12" s="10"/>
+      <c r="IO12" s="10"/>
+      <c r="IP12" s="10"/>
+      <c r="IQ12" s="10"/>
+      <c r="IR12" s="10"/>
+      <c r="IS12" s="10"/>
+      <c r="IT12" s="10"/>
+      <c r="IU12" s="10"/>
+      <c r="IV12" s="10"/>
+      <c r="IW12" s="10"/>
+      <c r="IX12" s="10"/>
+      <c r="IY12" s="10"/>
+      <c r="IZ12" s="10"/>
+      <c r="JA12" s="10"/>
+      <c r="JB12" s="10"/>
+      <c r="JC12" s="10"/>
+      <c r="JD12" s="10"/>
+      <c r="JE12" s="10"/>
+      <c r="JF12" s="10"/>
+      <c r="JG12" s="10"/>
+      <c r="JH12" s="10"/>
+      <c r="JI12" s="10"/>
+      <c r="JJ12" s="10"/>
+      <c r="JK12" s="10"/>
+      <c r="JL12" s="10"/>
+      <c r="JM12" s="10"/>
+      <c r="JN12" s="10"/>
+      <c r="JO12" s="10"/>
+      <c r="JP12" s="10"/>
+      <c r="JQ12" s="10"/>
+      <c r="JR12" s="10"/>
+      <c r="JS12" s="10"/>
+      <c r="JT12" s="10"/>
+      <c r="JU12" s="10"/>
+      <c r="JV12" s="10"/>
+      <c r="JW12" s="10"/>
+      <c r="JX12" s="10"/>
+      <c r="JY12" s="10"/>
+      <c r="JZ12" s="10"/>
+      <c r="KA12" s="10"/>
+      <c r="KB12" s="10"/>
+      <c r="KC12" s="10"/>
+      <c r="KD12" s="10"/>
+      <c r="KE12" s="10"/>
+    </row>
+    <row r="13" spans="1:291" s="3" customFormat="1">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10"/>
+      <c r="BL13" s="10"/>
+      <c r="BM13" s="10"/>
+      <c r="BN13" s="10"/>
+      <c r="BO13" s="10"/>
+      <c r="BP13" s="10"/>
+      <c r="BQ13" s="10"/>
+      <c r="BR13" s="10"/>
+      <c r="BS13" s="10"/>
+      <c r="BT13" s="10"/>
+      <c r="BU13" s="10"/>
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="10"/>
+      <c r="BX13" s="10"/>
+      <c r="BY13" s="10"/>
+      <c r="BZ13" s="10"/>
+      <c r="CA13" s="10"/>
+      <c r="CB13" s="10"/>
+      <c r="CC13" s="10"/>
+      <c r="CD13" s="10"/>
+      <c r="CE13" s="10"/>
+      <c r="CF13" s="10"/>
+      <c r="CG13" s="10"/>
+      <c r="CH13" s="10"/>
+      <c r="CI13" s="10"/>
+      <c r="CJ13" s="10"/>
+      <c r="CK13" s="10"/>
+      <c r="CL13" s="10"/>
+      <c r="CM13" s="10"/>
+      <c r="CN13" s="10"/>
+      <c r="CO13" s="10"/>
+      <c r="CP13" s="10"/>
+      <c r="CQ13" s="10"/>
+      <c r="CR13" s="10"/>
+      <c r="CS13" s="10"/>
+      <c r="CT13" s="10"/>
+      <c r="CU13" s="10"/>
+      <c r="CV13" s="10"/>
+      <c r="CW13" s="10"/>
+      <c r="CX13" s="10"/>
+      <c r="CY13" s="10"/>
+      <c r="CZ13" s="10"/>
+      <c r="DA13" s="10"/>
+      <c r="DB13" s="10"/>
+      <c r="DC13" s="10"/>
+      <c r="DD13" s="10"/>
+      <c r="DE13" s="10"/>
+      <c r="DF13" s="10"/>
+      <c r="DG13" s="10"/>
+      <c r="DH13" s="10"/>
+      <c r="DI13" s="10"/>
+      <c r="DJ13" s="10"/>
+      <c r="DK13" s="10"/>
+      <c r="DL13" s="10"/>
+      <c r="DM13" s="10"/>
+      <c r="DN13" s="10"/>
+      <c r="DO13" s="10"/>
+      <c r="DP13" s="10"/>
+      <c r="DQ13" s="10"/>
+      <c r="DR13" s="10"/>
+      <c r="DS13" s="10"/>
+      <c r="DT13" s="10"/>
+      <c r="DU13" s="10"/>
+      <c r="DV13" s="10"/>
+      <c r="DW13" s="10"/>
+      <c r="DX13" s="10"/>
+      <c r="DY13" s="10"/>
+      <c r="DZ13" s="10"/>
+      <c r="EA13" s="10"/>
+      <c r="EB13" s="10"/>
+      <c r="EC13" s="10"/>
+      <c r="ED13" s="10"/>
+      <c r="EE13" s="10"/>
+      <c r="EF13" s="10"/>
+      <c r="EG13" s="10"/>
+      <c r="EH13" s="10"/>
+      <c r="EI13" s="10"/>
+      <c r="EJ13" s="10"/>
+      <c r="EK13" s="10"/>
+      <c r="EL13" s="10"/>
+      <c r="EM13" s="10"/>
+      <c r="EN13" s="10"/>
+      <c r="EO13" s="10"/>
+      <c r="EP13" s="10"/>
+      <c r="EQ13" s="10"/>
+      <c r="ER13" s="10"/>
+      <c r="ES13" s="10"/>
+      <c r="ET13" s="10"/>
+      <c r="EU13" s="10"/>
+      <c r="EV13" s="10"/>
+      <c r="EW13" s="10"/>
+      <c r="EX13" s="10"/>
+      <c r="EY13" s="10"/>
+      <c r="EZ13" s="10"/>
+      <c r="FA13" s="10"/>
+      <c r="FB13" s="10"/>
+      <c r="FC13" s="10"/>
+      <c r="FD13" s="10"/>
+      <c r="FE13" s="10"/>
+      <c r="FF13" s="10"/>
+      <c r="FG13" s="10"/>
+      <c r="FH13" s="10"/>
+      <c r="FI13" s="10"/>
+      <c r="FJ13" s="10"/>
+      <c r="FK13" s="10"/>
+      <c r="FL13" s="10"/>
+      <c r="FM13" s="10"/>
+      <c r="FN13" s="10"/>
+      <c r="FO13" s="10"/>
+      <c r="FP13" s="10"/>
+      <c r="FQ13" s="10"/>
+      <c r="FR13" s="10"/>
+      <c r="FS13" s="10"/>
+      <c r="FT13" s="10"/>
+      <c r="FU13" s="10"/>
+      <c r="FV13" s="10"/>
+      <c r="FW13" s="10"/>
+      <c r="FX13" s="10"/>
+      <c r="FY13" s="10"/>
+      <c r="FZ13" s="10"/>
+      <c r="GA13" s="10"/>
+      <c r="GB13" s="10"/>
+      <c r="GC13" s="10"/>
+      <c r="GD13" s="10"/>
+      <c r="GE13" s="10"/>
+      <c r="GF13" s="10"/>
+      <c r="GG13" s="10"/>
+      <c r="GH13" s="10"/>
+      <c r="GI13" s="10"/>
+      <c r="GJ13" s="10"/>
+      <c r="GK13" s="10"/>
+      <c r="GL13" s="10"/>
+      <c r="GM13" s="10"/>
+      <c r="GN13" s="10"/>
+      <c r="GO13" s="10"/>
+      <c r="GP13" s="10"/>
+      <c r="GQ13" s="10"/>
+      <c r="GR13" s="10"/>
+      <c r="GS13" s="10"/>
+      <c r="GT13" s="10"/>
+      <c r="GU13" s="10"/>
+      <c r="GV13" s="10"/>
+      <c r="GW13" s="10"/>
+      <c r="GX13" s="10"/>
+      <c r="GY13" s="10"/>
+      <c r="GZ13" s="10"/>
+      <c r="HA13" s="10"/>
+      <c r="HB13" s="10"/>
+      <c r="HC13" s="10"/>
+      <c r="HD13" s="10"/>
+      <c r="HE13" s="10"/>
+      <c r="HF13" s="10"/>
+      <c r="HG13" s="10"/>
+      <c r="HH13" s="10"/>
+      <c r="HI13" s="10"/>
+      <c r="HJ13" s="10"/>
+      <c r="HK13" s="10"/>
+      <c r="HL13" s="10"/>
+      <c r="HM13" s="10"/>
+      <c r="HN13" s="10"/>
+      <c r="HO13" s="10"/>
+      <c r="HP13" s="10"/>
+      <c r="HQ13" s="10"/>
+      <c r="HR13" s="10"/>
+      <c r="HS13" s="10"/>
+      <c r="HT13" s="10"/>
+      <c r="HU13" s="10"/>
+      <c r="HV13" s="10"/>
+      <c r="HW13" s="10"/>
+      <c r="HX13" s="10"/>
+      <c r="HY13" s="10"/>
+      <c r="HZ13" s="10"/>
+      <c r="IA13" s="10"/>
+      <c r="IB13" s="10"/>
+      <c r="IC13" s="10"/>
+      <c r="ID13" s="10"/>
+      <c r="IE13" s="10"/>
+      <c r="IF13" s="10"/>
+      <c r="IG13" s="10"/>
+      <c r="IH13" s="10"/>
+      <c r="II13" s="10"/>
+      <c r="IJ13" s="10"/>
+      <c r="IK13" s="10"/>
+      <c r="IL13" s="10"/>
+      <c r="IM13" s="10"/>
+      <c r="IN13" s="10"/>
+      <c r="IO13" s="10"/>
+      <c r="IP13" s="10"/>
+      <c r="IQ13" s="10"/>
+      <c r="IR13" s="10"/>
+      <c r="IS13" s="10"/>
+      <c r="IT13" s="10"/>
+      <c r="IU13" s="10"/>
+      <c r="IV13" s="10"/>
+      <c r="IW13" s="10"/>
+      <c r="IX13" s="10"/>
+      <c r="IY13" s="10"/>
+      <c r="IZ13" s="10"/>
+      <c r="JA13" s="10"/>
+      <c r="JB13" s="10"/>
+      <c r="JC13" s="10"/>
+      <c r="JD13" s="10"/>
+      <c r="JE13" s="10"/>
+      <c r="JF13" s="10"/>
+      <c r="JG13" s="10"/>
+      <c r="JH13" s="10"/>
+      <c r="JI13" s="10"/>
+      <c r="JJ13" s="10"/>
+      <c r="JK13" s="10"/>
+      <c r="JL13" s="10"/>
+      <c r="JM13" s="10"/>
+      <c r="JN13" s="10"/>
+      <c r="JO13" s="10"/>
+      <c r="JP13" s="10"/>
+      <c r="JQ13" s="10"/>
+      <c r="JR13" s="10"/>
+      <c r="JS13" s="10"/>
+      <c r="JT13" s="10"/>
+      <c r="JU13" s="10"/>
+      <c r="JV13" s="10"/>
+      <c r="JW13" s="10"/>
+      <c r="JX13" s="10"/>
+      <c r="JY13" s="10"/>
+      <c r="JZ13" s="10"/>
+      <c r="KA13" s="10"/>
+      <c r="KB13" s="10"/>
+      <c r="KC13" s="10"/>
+      <c r="KD13" s="10"/>
+      <c r="KE13" s="10"/>
+    </row>
+    <row r="14" spans="1:291">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:291" s="3" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="10"/>
+      <c r="BL15" s="10"/>
+      <c r="BM15" s="10"/>
+      <c r="BN15" s="10"/>
+      <c r="BO15" s="10"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="10"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="10"/>
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="10"/>
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="10"/>
+      <c r="BX15" s="10"/>
+      <c r="BY15" s="10"/>
+      <c r="BZ15" s="10"/>
+      <c r="CA15" s="10"/>
+      <c r="CB15" s="10"/>
+      <c r="CC15" s="10"/>
+      <c r="CD15" s="10"/>
+      <c r="CE15" s="10"/>
+      <c r="CF15" s="10"/>
+      <c r="CG15" s="10"/>
+      <c r="CH15" s="10"/>
+      <c r="CI15" s="10"/>
+      <c r="CJ15" s="10"/>
+      <c r="CK15" s="10"/>
+      <c r="CL15" s="10"/>
+      <c r="CM15" s="10"/>
+      <c r="CN15" s="10"/>
+      <c r="CO15" s="10"/>
+      <c r="CP15" s="10"/>
+      <c r="CQ15" s="10"/>
+      <c r="CR15" s="10"/>
+      <c r="CS15" s="10"/>
+      <c r="CT15" s="10"/>
+      <c r="CU15" s="10"/>
+      <c r="CV15" s="10"/>
+      <c r="CW15" s="10"/>
+      <c r="CX15" s="10"/>
+      <c r="CY15" s="10"/>
+      <c r="CZ15" s="10"/>
+      <c r="DA15" s="10"/>
+      <c r="DB15" s="10"/>
+      <c r="DC15" s="10"/>
+      <c r="DD15" s="10"/>
+      <c r="DE15" s="10"/>
+      <c r="DF15" s="10"/>
+      <c r="DG15" s="10"/>
+      <c r="DH15" s="10"/>
+      <c r="DI15" s="10"/>
+      <c r="DJ15" s="10"/>
+      <c r="DK15" s="10"/>
+      <c r="DL15" s="10"/>
+      <c r="DM15" s="10"/>
+      <c r="DN15" s="10"/>
+      <c r="DO15" s="10"/>
+      <c r="DP15" s="10"/>
+      <c r="DQ15" s="10"/>
+      <c r="DR15" s="10"/>
+      <c r="DS15" s="10"/>
+      <c r="DT15" s="10"/>
+      <c r="DU15" s="10"/>
+      <c r="DV15" s="10"/>
+      <c r="DW15" s="10"/>
+      <c r="DX15" s="10"/>
+      <c r="DY15" s="10"/>
+      <c r="DZ15" s="10"/>
+      <c r="EA15" s="10"/>
+      <c r="EB15" s="10"/>
+      <c r="EC15" s="10"/>
+      <c r="ED15" s="10"/>
+      <c r="EE15" s="10"/>
+      <c r="EF15" s="10"/>
+      <c r="EG15" s="10"/>
+      <c r="EH15" s="10"/>
+      <c r="EI15" s="10"/>
+      <c r="EJ15" s="10"/>
+      <c r="EK15" s="10"/>
+      <c r="EL15" s="10"/>
+      <c r="EM15" s="10"/>
+      <c r="EN15" s="10"/>
+      <c r="EO15" s="10"/>
+      <c r="EP15" s="10"/>
+      <c r="EQ15" s="10"/>
+      <c r="ER15" s="10"/>
+      <c r="ES15" s="10"/>
+      <c r="ET15" s="10"/>
+      <c r="EU15" s="10"/>
+      <c r="EV15" s="10"/>
+      <c r="EW15" s="10"/>
+      <c r="EX15" s="10"/>
+      <c r="EY15" s="10"/>
+      <c r="EZ15" s="10"/>
+      <c r="FA15" s="10"/>
+      <c r="FB15" s="10"/>
+      <c r="FC15" s="10"/>
+      <c r="FD15" s="10"/>
+      <c r="FE15" s="10"/>
+      <c r="FF15" s="10"/>
+      <c r="FG15" s="10"/>
+      <c r="FH15" s="10"/>
+      <c r="FI15" s="10"/>
+      <c r="FJ15" s="10"/>
+      <c r="FK15" s="10"/>
+      <c r="FL15" s="10"/>
+      <c r="FM15" s="10"/>
+      <c r="FN15" s="10"/>
+      <c r="FO15" s="10"/>
+      <c r="FP15" s="10"/>
+      <c r="FQ15" s="10"/>
+      <c r="FR15" s="10"/>
+      <c r="FS15" s="10"/>
+      <c r="FT15" s="10"/>
+      <c r="FU15" s="10"/>
+      <c r="FV15" s="10"/>
+      <c r="FW15" s="10"/>
+      <c r="FX15" s="10"/>
+      <c r="FY15" s="10"/>
+      <c r="FZ15" s="10"/>
+      <c r="GA15" s="10"/>
+      <c r="GB15" s="10"/>
+      <c r="GC15" s="10"/>
+      <c r="GD15" s="10"/>
+      <c r="GE15" s="10"/>
+      <c r="GF15" s="10"/>
+      <c r="GG15" s="10"/>
+      <c r="GH15" s="10"/>
+      <c r="GI15" s="10"/>
+      <c r="GJ15" s="10"/>
+      <c r="GK15" s="10"/>
+      <c r="GL15" s="10"/>
+      <c r="GM15" s="10"/>
+      <c r="GN15" s="10"/>
+      <c r="GO15" s="10"/>
+      <c r="GP15" s="10"/>
+      <c r="GQ15" s="10"/>
+      <c r="GR15" s="10"/>
+      <c r="GS15" s="10"/>
+      <c r="GT15" s="10"/>
+      <c r="GU15" s="10"/>
+      <c r="GV15" s="10"/>
+      <c r="GW15" s="10"/>
+      <c r="GX15" s="10"/>
+      <c r="GY15" s="10"/>
+      <c r="GZ15" s="10"/>
+      <c r="HA15" s="10"/>
+      <c r="HB15" s="10"/>
+      <c r="HC15" s="10"/>
+      <c r="HD15" s="10"/>
+      <c r="HE15" s="10"/>
+      <c r="HF15" s="10"/>
+      <c r="HG15" s="10"/>
+      <c r="HH15" s="10"/>
+      <c r="HI15" s="10"/>
+      <c r="HJ15" s="10"/>
+      <c r="HK15" s="10"/>
+      <c r="HL15" s="10"/>
+      <c r="HM15" s="10"/>
+      <c r="HN15" s="10"/>
+      <c r="HO15" s="10"/>
+      <c r="HP15" s="10"/>
+      <c r="HQ15" s="10"/>
+      <c r="HR15" s="10"/>
+      <c r="HS15" s="10"/>
+      <c r="HT15" s="10"/>
+      <c r="HU15" s="10"/>
+      <c r="HV15" s="10"/>
+      <c r="HW15" s="10"/>
+      <c r="HX15" s="10"/>
+      <c r="HY15" s="10"/>
+      <c r="HZ15" s="10"/>
+      <c r="IA15" s="10"/>
+      <c r="IB15" s="10"/>
+      <c r="IC15" s="10"/>
+      <c r="ID15" s="10"/>
+      <c r="IE15" s="10"/>
+      <c r="IF15" s="10"/>
+      <c r="IG15" s="10"/>
+      <c r="IH15" s="10"/>
+      <c r="II15" s="10"/>
+      <c r="IJ15" s="10"/>
+      <c r="IK15" s="10"/>
+      <c r="IL15" s="10"/>
+      <c r="IM15" s="10"/>
+      <c r="IN15" s="10"/>
+      <c r="IO15" s="10"/>
+      <c r="IP15" s="10"/>
+      <c r="IQ15" s="10"/>
+      <c r="IR15" s="10"/>
+      <c r="IS15" s="10"/>
+      <c r="IT15" s="10"/>
+      <c r="IU15" s="10"/>
+      <c r="IV15" s="10"/>
+      <c r="IW15" s="10"/>
+      <c r="IX15" s="10"/>
+      <c r="IY15" s="10"/>
+      <c r="IZ15" s="10"/>
+      <c r="JA15" s="10"/>
+      <c r="JB15" s="10"/>
+      <c r="JC15" s="10"/>
+      <c r="JD15" s="10"/>
+      <c r="JE15" s="10"/>
+      <c r="JF15" s="10"/>
+      <c r="JG15" s="10"/>
+      <c r="JH15" s="10"/>
+      <c r="JI15" s="10"/>
+      <c r="JJ15" s="10"/>
+      <c r="JK15" s="10"/>
+      <c r="JL15" s="10"/>
+      <c r="JM15" s="10"/>
+      <c r="JN15" s="10"/>
+      <c r="JO15" s="10"/>
+      <c r="JP15" s="10"/>
+      <c r="JQ15" s="10"/>
+      <c r="JR15" s="10"/>
+      <c r="JS15" s="10"/>
+      <c r="JT15" s="10"/>
+      <c r="JU15" s="10"/>
+      <c r="JV15" s="10"/>
+      <c r="JW15" s="10"/>
+      <c r="JX15" s="10"/>
+      <c r="JY15" s="10"/>
+      <c r="JZ15" s="10"/>
+      <c r="KA15" s="10"/>
+      <c r="KB15" s="10"/>
+      <c r="KC15" s="10"/>
+      <c r="KD15" s="10"/>
+      <c r="KE15" s="10"/>
+    </row>
+    <row r="16" spans="1:291">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:291" s="3" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="10"/>
+      <c r="BM17" s="10"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="10"/>
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="10"/>
+      <c r="BV17" s="10"/>
+      <c r="BW17" s="10"/>
+      <c r="BX17" s="10"/>
+      <c r="BY17" s="10"/>
+      <c r="BZ17" s="10"/>
+      <c r="CA17" s="10"/>
+      <c r="CB17" s="10"/>
+      <c r="CC17" s="10"/>
+      <c r="CD17" s="10"/>
+      <c r="CE17" s="10"/>
+      <c r="CF17" s="10"/>
+      <c r="CG17" s="10"/>
+      <c r="CH17" s="10"/>
+      <c r="CI17" s="10"/>
+      <c r="CJ17" s="10"/>
+      <c r="CK17" s="10"/>
+      <c r="CL17" s="10"/>
+      <c r="CM17" s="10"/>
+      <c r="CN17" s="10"/>
+      <c r="CO17" s="10"/>
+      <c r="CP17" s="10"/>
+      <c r="CQ17" s="10"/>
+      <c r="CR17" s="10"/>
+      <c r="CS17" s="10"/>
+      <c r="CT17" s="10"/>
+      <c r="CU17" s="10"/>
+      <c r="CV17" s="10"/>
+      <c r="CW17" s="10"/>
+      <c r="CX17" s="10"/>
+      <c r="CY17" s="10"/>
+      <c r="CZ17" s="10"/>
+      <c r="DA17" s="10"/>
+      <c r="DB17" s="10"/>
+      <c r="DC17" s="10"/>
+      <c r="DD17" s="10"/>
+      <c r="DE17" s="10"/>
+      <c r="DF17" s="10"/>
+      <c r="DG17" s="10"/>
+      <c r="DH17" s="10"/>
+      <c r="DI17" s="10"/>
+      <c r="DJ17" s="10"/>
+      <c r="DK17" s="10"/>
+      <c r="DL17" s="10"/>
+      <c r="DM17" s="10"/>
+      <c r="DN17" s="10"/>
+      <c r="DO17" s="10"/>
+      <c r="DP17" s="10"/>
+      <c r="DQ17" s="10"/>
+      <c r="DR17" s="10"/>
+      <c r="DS17" s="10"/>
+      <c r="DT17" s="10"/>
+      <c r="DU17" s="10"/>
+      <c r="DV17" s="10"/>
+      <c r="DW17" s="10"/>
+      <c r="DX17" s="10"/>
+      <c r="DY17" s="10"/>
+      <c r="DZ17" s="10"/>
+      <c r="EA17" s="10"/>
+      <c r="EB17" s="10"/>
+      <c r="EC17" s="10"/>
+      <c r="ED17" s="10"/>
+      <c r="EE17" s="10"/>
+      <c r="EF17" s="10"/>
+      <c r="EG17" s="10"/>
+      <c r="EH17" s="10"/>
+      <c r="EI17" s="10"/>
+      <c r="EJ17" s="10"/>
+      <c r="EK17" s="10"/>
+      <c r="EL17" s="10"/>
+      <c r="EM17" s="10"/>
+      <c r="EN17" s="10"/>
+      <c r="EO17" s="10"/>
+      <c r="EP17" s="10"/>
+      <c r="EQ17" s="10"/>
+      <c r="ER17" s="10"/>
+      <c r="ES17" s="10"/>
+      <c r="ET17" s="10"/>
+      <c r="EU17" s="10"/>
+      <c r="EV17" s="10"/>
+      <c r="EW17" s="10"/>
+      <c r="EX17" s="10"/>
+      <c r="EY17" s="10"/>
+      <c r="EZ17" s="10"/>
+      <c r="FA17" s="10"/>
+      <c r="FB17" s="10"/>
+      <c r="FC17" s="10"/>
+      <c r="FD17" s="10"/>
+      <c r="FE17" s="10"/>
+      <c r="FF17" s="10"/>
+      <c r="FG17" s="10"/>
+      <c r="FH17" s="10"/>
+      <c r="FI17" s="10"/>
+      <c r="FJ17" s="10"/>
+      <c r="FK17" s="10"/>
+      <c r="FL17" s="10"/>
+      <c r="FM17" s="10"/>
+      <c r="FN17" s="10"/>
+      <c r="FO17" s="10"/>
+      <c r="FP17" s="10"/>
+      <c r="FQ17" s="10"/>
+      <c r="FR17" s="10"/>
+      <c r="FS17" s="10"/>
+      <c r="FT17" s="10"/>
+      <c r="FU17" s="10"/>
+      <c r="FV17" s="10"/>
+      <c r="FW17" s="10"/>
+      <c r="FX17" s="10"/>
+      <c r="FY17" s="10"/>
+      <c r="FZ17" s="10"/>
+      <c r="GA17" s="10"/>
+      <c r="GB17" s="10"/>
+      <c r="GC17" s="10"/>
+      <c r="GD17" s="10"/>
+      <c r="GE17" s="10"/>
+      <c r="GF17" s="10"/>
+      <c r="GG17" s="10"/>
+      <c r="GH17" s="10"/>
+      <c r="GI17" s="10"/>
+      <c r="GJ17" s="10"/>
+      <c r="GK17" s="10"/>
+      <c r="GL17" s="10"/>
+      <c r="GM17" s="10"/>
+      <c r="GN17" s="10"/>
+      <c r="GO17" s="10"/>
+      <c r="GP17" s="10"/>
+      <c r="GQ17" s="10"/>
+      <c r="GR17" s="10"/>
+      <c r="GS17" s="10"/>
+      <c r="GT17" s="10"/>
+      <c r="GU17" s="10"/>
+      <c r="GV17" s="10"/>
+      <c r="GW17" s="10"/>
+      <c r="GX17" s="10"/>
+      <c r="GY17" s="10"/>
+      <c r="GZ17" s="10"/>
+      <c r="HA17" s="10"/>
+      <c r="HB17" s="10"/>
+      <c r="HC17" s="10"/>
+      <c r="HD17" s="10"/>
+      <c r="HE17" s="10"/>
+      <c r="HF17" s="10"/>
+      <c r="HG17" s="10"/>
+      <c r="HH17" s="10"/>
+      <c r="HI17" s="10"/>
+      <c r="HJ17" s="10"/>
+      <c r="HK17" s="10"/>
+      <c r="HL17" s="10"/>
+      <c r="HM17" s="10"/>
+      <c r="HN17" s="10"/>
+      <c r="HO17" s="10"/>
+      <c r="HP17" s="10"/>
+      <c r="HQ17" s="10"/>
+      <c r="HR17" s="10"/>
+      <c r="HS17" s="10"/>
+      <c r="HT17" s="10"/>
+      <c r="HU17" s="10"/>
+      <c r="HV17" s="10"/>
+      <c r="HW17" s="10"/>
+      <c r="HX17" s="10"/>
+      <c r="HY17" s="10"/>
+      <c r="HZ17" s="10"/>
+      <c r="IA17" s="10"/>
+      <c r="IB17" s="10"/>
+      <c r="IC17" s="10"/>
+      <c r="ID17" s="10"/>
+      <c r="IE17" s="10"/>
+      <c r="IF17" s="10"/>
+      <c r="IG17" s="10"/>
+      <c r="IH17" s="10"/>
+      <c r="II17" s="10"/>
+      <c r="IJ17" s="10"/>
+      <c r="IK17" s="10"/>
+      <c r="IL17" s="10"/>
+      <c r="IM17" s="10"/>
+      <c r="IN17" s="10"/>
+      <c r="IO17" s="10"/>
+      <c r="IP17" s="10"/>
+      <c r="IQ17" s="10"/>
+      <c r="IR17" s="10"/>
+      <c r="IS17" s="10"/>
+      <c r="IT17" s="10"/>
+      <c r="IU17" s="10"/>
+      <c r="IV17" s="10"/>
+      <c r="IW17" s="10"/>
+      <c r="IX17" s="10"/>
+      <c r="IY17" s="10"/>
+      <c r="IZ17" s="10"/>
+      <c r="JA17" s="10"/>
+      <c r="JB17" s="10"/>
+      <c r="JC17" s="10"/>
+      <c r="JD17" s="10"/>
+      <c r="JE17" s="10"/>
+      <c r="JF17" s="10"/>
+      <c r="JG17" s="10"/>
+      <c r="JH17" s="10"/>
+      <c r="JI17" s="10"/>
+      <c r="JJ17" s="10"/>
+      <c r="JK17" s="10"/>
+      <c r="JL17" s="10"/>
+      <c r="JM17" s="10"/>
+      <c r="JN17" s="10"/>
+      <c r="JO17" s="10"/>
+      <c r="JP17" s="10"/>
+      <c r="JQ17" s="10"/>
+      <c r="JR17" s="10"/>
+      <c r="JS17" s="10"/>
+      <c r="JT17" s="10"/>
+      <c r="JU17" s="10"/>
+      <c r="JV17" s="10"/>
+      <c r="JW17" s="10"/>
+      <c r="JX17" s="10"/>
+      <c r="JY17" s="10"/>
+      <c r="JZ17" s="10"/>
+      <c r="KA17" s="10"/>
+      <c r="KB17" s="10"/>
+      <c r="KC17" s="10"/>
+      <c r="KD17" s="10"/>
+      <c r="KE17" s="10"/>
+    </row>
+    <row r="18" spans="1:291">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:291" s="3" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+      <c r="BG19" s="10"/>
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="10"/>
+      <c r="BK19" s="10"/>
+      <c r="BL19" s="10"/>
+      <c r="BM19" s="10"/>
+      <c r="BN19" s="10"/>
+      <c r="BO19" s="10"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="10"/>
+      <c r="BR19" s="10"/>
+      <c r="BS19" s="10"/>
+      <c r="BT19" s="10"/>
+      <c r="BU19" s="10"/>
+      <c r="BV19" s="10"/>
+      <c r="BW19" s="10"/>
+      <c r="BX19" s="10"/>
+      <c r="BY19" s="10"/>
+      <c r="BZ19" s="10"/>
+      <c r="CA19" s="10"/>
+      <c r="CB19" s="10"/>
+      <c r="CC19" s="10"/>
+      <c r="CD19" s="10"/>
+      <c r="CE19" s="10"/>
+      <c r="CF19" s="10"/>
+      <c r="CG19" s="10"/>
+      <c r="CH19" s="10"/>
+      <c r="CI19" s="10"/>
+      <c r="CJ19" s="10"/>
+      <c r="CK19" s="10"/>
+      <c r="CL19" s="10"/>
+      <c r="CM19" s="10"/>
+      <c r="CN19" s="10"/>
+      <c r="CO19" s="10"/>
+      <c r="CP19" s="10"/>
+      <c r="CQ19" s="10"/>
+      <c r="CR19" s="10"/>
+      <c r="CS19" s="10"/>
+      <c r="CT19" s="10"/>
+      <c r="CU19" s="10"/>
+      <c r="CV19" s="10"/>
+      <c r="CW19" s="10"/>
+      <c r="CX19" s="10"/>
+      <c r="CY19" s="10"/>
+      <c r="CZ19" s="10"/>
+      <c r="DA19" s="10"/>
+      <c r="DB19" s="10"/>
+      <c r="DC19" s="10"/>
+      <c r="DD19" s="10"/>
+      <c r="DE19" s="10"/>
+      <c r="DF19" s="10"/>
+      <c r="DG19" s="10"/>
+      <c r="DH19" s="10"/>
+      <c r="DI19" s="10"/>
+      <c r="DJ19" s="10"/>
+      <c r="DK19" s="10"/>
+      <c r="DL19" s="10"/>
+      <c r="DM19" s="10"/>
+      <c r="DN19" s="10"/>
+      <c r="DO19" s="10"/>
+      <c r="DP19" s="10"/>
+      <c r="DQ19" s="10"/>
+      <c r="DR19" s="10"/>
+      <c r="DS19" s="10"/>
+      <c r="DT19" s="10"/>
+      <c r="DU19" s="10"/>
+      <c r="DV19" s="10"/>
+      <c r="DW19" s="10"/>
+      <c r="DX19" s="10"/>
+      <c r="DY19" s="10"/>
+      <c r="DZ19" s="10"/>
+      <c r="EA19" s="10"/>
+      <c r="EB19" s="10"/>
+      <c r="EC19" s="10"/>
+      <c r="ED19" s="10"/>
+      <c r="EE19" s="10"/>
+      <c r="EF19" s="10"/>
+      <c r="EG19" s="10"/>
+      <c r="EH19" s="10"/>
+      <c r="EI19" s="10"/>
+      <c r="EJ19" s="10"/>
+      <c r="EK19" s="10"/>
+      <c r="EL19" s="10"/>
+      <c r="EM19" s="10"/>
+      <c r="EN19" s="10"/>
+      <c r="EO19" s="10"/>
+      <c r="EP19" s="10"/>
+      <c r="EQ19" s="10"/>
+      <c r="ER19" s="10"/>
+      <c r="ES19" s="10"/>
+      <c r="ET19" s="10"/>
+      <c r="EU19" s="10"/>
+      <c r="EV19" s="10"/>
+      <c r="EW19" s="10"/>
+      <c r="EX19" s="10"/>
+      <c r="EY19" s="10"/>
+      <c r="EZ19" s="10"/>
+      <c r="FA19" s="10"/>
+      <c r="FB19" s="10"/>
+      <c r="FC19" s="10"/>
+      <c r="FD19" s="10"/>
+      <c r="FE19" s="10"/>
+      <c r="FF19" s="10"/>
+      <c r="FG19" s="10"/>
+      <c r="FH19" s="10"/>
+      <c r="FI19" s="10"/>
+      <c r="FJ19" s="10"/>
+      <c r="FK19" s="10"/>
+      <c r="FL19" s="10"/>
+      <c r="FM19" s="10"/>
+      <c r="FN19" s="10"/>
+      <c r="FO19" s="10"/>
+      <c r="FP19" s="10"/>
+      <c r="FQ19" s="10"/>
+      <c r="FR19" s="10"/>
+      <c r="FS19" s="10"/>
+      <c r="FT19" s="10"/>
+      <c r="FU19" s="10"/>
+      <c r="FV19" s="10"/>
+      <c r="FW19" s="10"/>
+      <c r="FX19" s="10"/>
+      <c r="FY19" s="10"/>
+      <c r="FZ19" s="10"/>
+      <c r="GA19" s="10"/>
+      <c r="GB19" s="10"/>
+      <c r="GC19" s="10"/>
+      <c r="GD19" s="10"/>
+      <c r="GE19" s="10"/>
+      <c r="GF19" s="10"/>
+      <c r="GG19" s="10"/>
+      <c r="GH19" s="10"/>
+      <c r="GI19" s="10"/>
+      <c r="GJ19" s="10"/>
+      <c r="GK19" s="10"/>
+      <c r="GL19" s="10"/>
+      <c r="GM19" s="10"/>
+      <c r="GN19" s="10"/>
+      <c r="GO19" s="10"/>
+      <c r="GP19" s="10"/>
+      <c r="GQ19" s="10"/>
+      <c r="GR19" s="10"/>
+      <c r="GS19" s="10"/>
+      <c r="GT19" s="10"/>
+      <c r="GU19" s="10"/>
+      <c r="GV19" s="10"/>
+      <c r="GW19" s="10"/>
+      <c r="GX19" s="10"/>
+      <c r="GY19" s="10"/>
+      <c r="GZ19" s="10"/>
+      <c r="HA19" s="10"/>
+      <c r="HB19" s="10"/>
+      <c r="HC19" s="10"/>
+      <c r="HD19" s="10"/>
+      <c r="HE19" s="10"/>
+      <c r="HF19" s="10"/>
+      <c r="HG19" s="10"/>
+      <c r="HH19" s="10"/>
+      <c r="HI19" s="10"/>
+      <c r="HJ19" s="10"/>
+      <c r="HK19" s="10"/>
+      <c r="HL19" s="10"/>
+      <c r="HM19" s="10"/>
+      <c r="HN19" s="10"/>
+      <c r="HO19" s="10"/>
+      <c r="HP19" s="10"/>
+      <c r="HQ19" s="10"/>
+      <c r="HR19" s="10"/>
+      <c r="HS19" s="10"/>
+      <c r="HT19" s="10"/>
+      <c r="HU19" s="10"/>
+      <c r="HV19" s="10"/>
+      <c r="HW19" s="10"/>
+      <c r="HX19" s="10"/>
+      <c r="HY19" s="10"/>
+      <c r="HZ19" s="10"/>
+      <c r="IA19" s="10"/>
+      <c r="IB19" s="10"/>
+      <c r="IC19" s="10"/>
+      <c r="ID19" s="10"/>
+      <c r="IE19" s="10"/>
+      <c r="IF19" s="10"/>
+      <c r="IG19" s="10"/>
+      <c r="IH19" s="10"/>
+      <c r="II19" s="10"/>
+      <c r="IJ19" s="10"/>
+      <c r="IK19" s="10"/>
+      <c r="IL19" s="10"/>
+      <c r="IM19" s="10"/>
+      <c r="IN19" s="10"/>
+      <c r="IO19" s="10"/>
+      <c r="IP19" s="10"/>
+      <c r="IQ19" s="10"/>
+      <c r="IR19" s="10"/>
+      <c r="IS19" s="10"/>
+      <c r="IT19" s="10"/>
+      <c r="IU19" s="10"/>
+      <c r="IV19" s="10"/>
+      <c r="IW19" s="10"/>
+      <c r="IX19" s="10"/>
+      <c r="IY19" s="10"/>
+      <c r="IZ19" s="10"/>
+      <c r="JA19" s="10"/>
+      <c r="JB19" s="10"/>
+      <c r="JC19" s="10"/>
+      <c r="JD19" s="10"/>
+      <c r="JE19" s="10"/>
+      <c r="JF19" s="10"/>
+      <c r="JG19" s="10"/>
+      <c r="JH19" s="10"/>
+      <c r="JI19" s="10"/>
+      <c r="JJ19" s="10"/>
+      <c r="JK19" s="10"/>
+      <c r="JL19" s="10"/>
+      <c r="JM19" s="10"/>
+      <c r="JN19" s="10"/>
+      <c r="JO19" s="10"/>
+      <c r="JP19" s="10"/>
+      <c r="JQ19" s="10"/>
+      <c r="JR19" s="10"/>
+      <c r="JS19" s="10"/>
+      <c r="JT19" s="10"/>
+      <c r="JU19" s="10"/>
+      <c r="JV19" s="10"/>
+      <c r="JW19" s="10"/>
+      <c r="JX19" s="10"/>
+      <c r="JY19" s="10"/>
+      <c r="JZ19" s="10"/>
+      <c r="KA19" s="10"/>
+      <c r="KB19" s="10"/>
+      <c r="KC19" s="10"/>
+      <c r="KD19" s="10"/>
+      <c r="KE19" s="10"/>
+    </row>
+    <row r="20" spans="1:291">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:291" s="3" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+      <c r="BK21" s="10"/>
+      <c r="BL21" s="10"/>
+      <c r="BM21" s="10"/>
+      <c r="BN21" s="10"/>
+      <c r="BO21" s="10"/>
+      <c r="BP21" s="10"/>
+      <c r="BQ21" s="10"/>
+      <c r="BR21" s="10"/>
+      <c r="BS21" s="10"/>
+      <c r="BT21" s="10"/>
+      <c r="BU21" s="10"/>
+      <c r="BV21" s="10"/>
+      <c r="BW21" s="10"/>
+      <c r="BX21" s="10"/>
+      <c r="BY21" s="10"/>
+      <c r="BZ21" s="10"/>
+      <c r="CA21" s="10"/>
+      <c r="CB21" s="10"/>
+      <c r="CC21" s="10"/>
+      <c r="CD21" s="10"/>
+      <c r="CE21" s="10"/>
+      <c r="CF21" s="10"/>
+      <c r="CG21" s="10"/>
+      <c r="CH21" s="10"/>
+      <c r="CI21" s="10"/>
+      <c r="CJ21" s="10"/>
+      <c r="CK21" s="10"/>
+      <c r="CL21" s="10"/>
+      <c r="CM21" s="10"/>
+      <c r="CN21" s="10"/>
+      <c r="CO21" s="10"/>
+      <c r="CP21" s="10"/>
+      <c r="CQ21" s="10"/>
+      <c r="CR21" s="10"/>
+      <c r="CS21" s="10"/>
+      <c r="CT21" s="10"/>
+      <c r="CU21" s="10"/>
+      <c r="CV21" s="10"/>
+      <c r="CW21" s="10"/>
+      <c r="CX21" s="10"/>
+      <c r="CY21" s="10"/>
+      <c r="CZ21" s="10"/>
+      <c r="DA21" s="10"/>
+      <c r="DB21" s="10"/>
+      <c r="DC21" s="10"/>
+      <c r="DD21" s="10"/>
+      <c r="DE21" s="10"/>
+      <c r="DF21" s="10"/>
+      <c r="DG21" s="10"/>
+      <c r="DH21" s="10"/>
+      <c r="DI21" s="10"/>
+      <c r="DJ21" s="10"/>
+      <c r="DK21" s="10"/>
+      <c r="DL21" s="10"/>
+      <c r="DM21" s="10"/>
+      <c r="DN21" s="10"/>
+      <c r="DO21" s="10"/>
+      <c r="DP21" s="10"/>
+      <c r="DQ21" s="10"/>
+      <c r="DR21" s="10"/>
+      <c r="DS21" s="10"/>
+      <c r="DT21" s="10"/>
+      <c r="DU21" s="10"/>
+      <c r="DV21" s="10"/>
+      <c r="DW21" s="10"/>
+      <c r="DX21" s="10"/>
+      <c r="DY21" s="10"/>
+      <c r="DZ21" s="10"/>
+      <c r="EA21" s="10"/>
+      <c r="EB21" s="10"/>
+      <c r="EC21" s="10"/>
+      <c r="ED21" s="10"/>
+      <c r="EE21" s="10"/>
+      <c r="EF21" s="10"/>
+      <c r="EG21" s="10"/>
+      <c r="EH21" s="10"/>
+      <c r="EI21" s="10"/>
+      <c r="EJ21" s="10"/>
+      <c r="EK21" s="10"/>
+      <c r="EL21" s="10"/>
+      <c r="EM21" s="10"/>
+      <c r="EN21" s="10"/>
+      <c r="EO21" s="10"/>
+      <c r="EP21" s="10"/>
+      <c r="EQ21" s="10"/>
+      <c r="ER21" s="10"/>
+      <c r="ES21" s="10"/>
+      <c r="ET21" s="10"/>
+      <c r="EU21" s="10"/>
+      <c r="EV21" s="10"/>
+      <c r="EW21" s="10"/>
+      <c r="EX21" s="10"/>
+      <c r="EY21" s="10"/>
+      <c r="EZ21" s="10"/>
+      <c r="FA21" s="10"/>
+      <c r="FB21" s="10"/>
+      <c r="FC21" s="10"/>
+      <c r="FD21" s="10"/>
+      <c r="FE21" s="10"/>
+      <c r="FF21" s="10"/>
+      <c r="FG21" s="10"/>
+      <c r="FH21" s="10"/>
+      <c r="FI21" s="10"/>
+      <c r="FJ21" s="10"/>
+      <c r="FK21" s="10"/>
+      <c r="FL21" s="10"/>
+      <c r="FM21" s="10"/>
+      <c r="FN21" s="10"/>
+      <c r="FO21" s="10"/>
+      <c r="FP21" s="10"/>
+      <c r="FQ21" s="10"/>
+      <c r="FR21" s="10"/>
+      <c r="FS21" s="10"/>
+      <c r="FT21" s="10"/>
+      <c r="FU21" s="10"/>
+      <c r="FV21" s="10"/>
+      <c r="FW21" s="10"/>
+      <c r="FX21" s="10"/>
+      <c r="FY21" s="10"/>
+      <c r="FZ21" s="10"/>
+      <c r="GA21" s="10"/>
+      <c r="GB21" s="10"/>
+      <c r="GC21" s="10"/>
+      <c r="GD21" s="10"/>
+      <c r="GE21" s="10"/>
+      <c r="GF21" s="10"/>
+      <c r="GG21" s="10"/>
+      <c r="GH21" s="10"/>
+      <c r="GI21" s="10"/>
+      <c r="GJ21" s="10"/>
+      <c r="GK21" s="10"/>
+      <c r="GL21" s="10"/>
+      <c r="GM21" s="10"/>
+      <c r="GN21" s="10"/>
+      <c r="GO21" s="10"/>
+      <c r="GP21" s="10"/>
+      <c r="GQ21" s="10"/>
+      <c r="GR21" s="10"/>
+      <c r="GS21" s="10"/>
+      <c r="GT21" s="10"/>
+      <c r="GU21" s="10"/>
+      <c r="GV21" s="10"/>
+      <c r="GW21" s="10"/>
+      <c r="GX21" s="10"/>
+      <c r="GY21" s="10"/>
+      <c r="GZ21" s="10"/>
+      <c r="HA21" s="10"/>
+      <c r="HB21" s="10"/>
+      <c r="HC21" s="10"/>
+      <c r="HD21" s="10"/>
+      <c r="HE21" s="10"/>
+      <c r="HF21" s="10"/>
+      <c r="HG21" s="10"/>
+      <c r="HH21" s="10"/>
+      <c r="HI21" s="10"/>
+      <c r="HJ21" s="10"/>
+      <c r="HK21" s="10"/>
+      <c r="HL21" s="10"/>
+      <c r="HM21" s="10"/>
+      <c r="HN21" s="10"/>
+      <c r="HO21" s="10"/>
+      <c r="HP21" s="10"/>
+      <c r="HQ21" s="10"/>
+      <c r="HR21" s="10"/>
+      <c r="HS21" s="10"/>
+      <c r="HT21" s="10"/>
+      <c r="HU21" s="10"/>
+      <c r="HV21" s="10"/>
+      <c r="HW21" s="10"/>
+      <c r="HX21" s="10"/>
+      <c r="HY21" s="10"/>
+      <c r="HZ21" s="10"/>
+      <c r="IA21" s="10"/>
+      <c r="IB21" s="10"/>
+      <c r="IC21" s="10"/>
+      <c r="ID21" s="10"/>
+      <c r="IE21" s="10"/>
+      <c r="IF21" s="10"/>
+      <c r="IG21" s="10"/>
+      <c r="IH21" s="10"/>
+      <c r="II21" s="10"/>
+      <c r="IJ21" s="10"/>
+      <c r="IK21" s="10"/>
+      <c r="IL21" s="10"/>
+      <c r="IM21" s="10"/>
+      <c r="IN21" s="10"/>
+      <c r="IO21" s="10"/>
+      <c r="IP21" s="10"/>
+      <c r="IQ21" s="10"/>
+      <c r="IR21" s="10"/>
+      <c r="IS21" s="10"/>
+      <c r="IT21" s="10"/>
+      <c r="IU21" s="10"/>
+      <c r="IV21" s="10"/>
+      <c r="IW21" s="10"/>
+      <c r="IX21" s="10"/>
+      <c r="IY21" s="10"/>
+      <c r="IZ21" s="10"/>
+      <c r="JA21" s="10"/>
+      <c r="JB21" s="10"/>
+      <c r="JC21" s="10"/>
+      <c r="JD21" s="10"/>
+      <c r="JE21" s="10"/>
+      <c r="JF21" s="10"/>
+      <c r="JG21" s="10"/>
+      <c r="JH21" s="10"/>
+      <c r="JI21" s="10"/>
+      <c r="JJ21" s="10"/>
+      <c r="JK21" s="10"/>
+      <c r="JL21" s="10"/>
+      <c r="JM21" s="10"/>
+      <c r="JN21" s="10"/>
+      <c r="JO21" s="10"/>
+      <c r="JP21" s="10"/>
+      <c r="JQ21" s="10"/>
+      <c r="JR21" s="10"/>
+      <c r="JS21" s="10"/>
+      <c r="JT21" s="10"/>
+      <c r="JU21" s="10"/>
+      <c r="JV21" s="10"/>
+      <c r="JW21" s="10"/>
+      <c r="JX21" s="10"/>
+      <c r="JY21" s="10"/>
+      <c r="JZ21" s="10"/>
+      <c r="KA21" s="10"/>
+      <c r="KB21" s="10"/>
+      <c r="KC21" s="10"/>
+      <c r="KD21" s="10"/>
+      <c r="KE21" s="10"/>
+    </row>
+    <row r="22" spans="1:291">
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:291" s="3" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10"/>
+      <c r="BL23" s="10"/>
+      <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
+      <c r="BO23" s="10"/>
+      <c r="BP23" s="10"/>
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="10"/>
+      <c r="BT23" s="10"/>
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
+      <c r="BW23" s="10"/>
+      <c r="BX23" s="10"/>
+      <c r="BY23" s="10"/>
+      <c r="BZ23" s="10"/>
+      <c r="CA23" s="10"/>
+      <c r="CB23" s="10"/>
+      <c r="CC23" s="10"/>
+      <c r="CD23" s="10"/>
+      <c r="CE23" s="10"/>
+      <c r="CF23" s="10"/>
+      <c r="CG23" s="10"/>
+      <c r="CH23" s="10"/>
+      <c r="CI23" s="10"/>
+      <c r="CJ23" s="10"/>
+      <c r="CK23" s="10"/>
+      <c r="CL23" s="10"/>
+      <c r="CM23" s="10"/>
+      <c r="CN23" s="10"/>
+      <c r="CO23" s="10"/>
+      <c r="CP23" s="10"/>
+      <c r="CQ23" s="10"/>
+      <c r="CR23" s="10"/>
+      <c r="CS23" s="10"/>
+      <c r="CT23" s="10"/>
+      <c r="CU23" s="10"/>
+      <c r="CV23" s="10"/>
+      <c r="CW23" s="10"/>
+      <c r="CX23" s="10"/>
+      <c r="CY23" s="10"/>
+      <c r="CZ23" s="10"/>
+      <c r="DA23" s="10"/>
+      <c r="DB23" s="10"/>
+      <c r="DC23" s="10"/>
+      <c r="DD23" s="10"/>
+      <c r="DE23" s="10"/>
+      <c r="DF23" s="10"/>
+      <c r="DG23" s="10"/>
+      <c r="DH23" s="10"/>
+      <c r="DI23" s="10"/>
+      <c r="DJ23" s="10"/>
+      <c r="DK23" s="10"/>
+      <c r="DL23" s="10"/>
+      <c r="DM23" s="10"/>
+      <c r="DN23" s="10"/>
+      <c r="DO23" s="10"/>
+      <c r="DP23" s="10"/>
+      <c r="DQ23" s="10"/>
+      <c r="DR23" s="10"/>
+      <c r="DS23" s="10"/>
+      <c r="DT23" s="10"/>
+      <c r="DU23" s="10"/>
+      <c r="DV23" s="10"/>
+      <c r="DW23" s="10"/>
+      <c r="DX23" s="10"/>
+      <c r="DY23" s="10"/>
+      <c r="DZ23" s="10"/>
+      <c r="EA23" s="10"/>
+      <c r="EB23" s="10"/>
+      <c r="EC23" s="10"/>
+      <c r="ED23" s="10"/>
+      <c r="EE23" s="10"/>
+      <c r="EF23" s="10"/>
+      <c r="EG23" s="10"/>
+      <c r="EH23" s="10"/>
+      <c r="EI23" s="10"/>
+      <c r="EJ23" s="10"/>
+      <c r="EK23" s="10"/>
+      <c r="EL23" s="10"/>
+      <c r="EM23" s="10"/>
+      <c r="EN23" s="10"/>
+      <c r="EO23" s="10"/>
+      <c r="EP23" s="10"/>
+      <c r="EQ23" s="10"/>
+      <c r="ER23" s="10"/>
+      <c r="ES23" s="10"/>
+      <c r="ET23" s="10"/>
+      <c r="EU23" s="10"/>
+      <c r="EV23" s="10"/>
+      <c r="EW23" s="10"/>
+      <c r="EX23" s="10"/>
+      <c r="EY23" s="10"/>
+      <c r="EZ23" s="10"/>
+      <c r="FA23" s="10"/>
+      <c r="FB23" s="10"/>
+      <c r="FC23" s="10"/>
+      <c r="FD23" s="10"/>
+      <c r="FE23" s="10"/>
+      <c r="FF23" s="10"/>
+      <c r="FG23" s="10"/>
+      <c r="FH23" s="10"/>
+      <c r="FI23" s="10"/>
+      <c r="FJ23" s="10"/>
+      <c r="FK23" s="10"/>
+      <c r="FL23" s="10"/>
+      <c r="FM23" s="10"/>
+      <c r="FN23" s="10"/>
+      <c r="FO23" s="10"/>
+      <c r="FP23" s="10"/>
+      <c r="FQ23" s="10"/>
+      <c r="FR23" s="10"/>
+      <c r="FS23" s="10"/>
+      <c r="FT23" s="10"/>
+      <c r="FU23" s="10"/>
+      <c r="FV23" s="10"/>
+      <c r="FW23" s="10"/>
+      <c r="FX23" s="10"/>
+      <c r="FY23" s="10"/>
+      <c r="FZ23" s="10"/>
+      <c r="GA23" s="10"/>
+      <c r="GB23" s="10"/>
+      <c r="GC23" s="10"/>
+      <c r="GD23" s="10"/>
+      <c r="GE23" s="10"/>
+      <c r="GF23" s="10"/>
+      <c r="GG23" s="10"/>
+      <c r="GH23" s="10"/>
+      <c r="GI23" s="10"/>
+      <c r="GJ23" s="10"/>
+      <c r="GK23" s="10"/>
+      <c r="GL23" s="10"/>
+      <c r="GM23" s="10"/>
+      <c r="GN23" s="10"/>
+      <c r="GO23" s="10"/>
+      <c r="GP23" s="10"/>
+      <c r="GQ23" s="10"/>
+      <c r="GR23" s="10"/>
+      <c r="GS23" s="10"/>
+      <c r="GT23" s="10"/>
+      <c r="GU23" s="10"/>
+      <c r="GV23" s="10"/>
+      <c r="GW23" s="10"/>
+      <c r="GX23" s="10"/>
+      <c r="GY23" s="10"/>
+      <c r="GZ23" s="10"/>
+      <c r="HA23" s="10"/>
+      <c r="HB23" s="10"/>
+      <c r="HC23" s="10"/>
+      <c r="HD23" s="10"/>
+      <c r="HE23" s="10"/>
+      <c r="HF23" s="10"/>
+      <c r="HG23" s="10"/>
+      <c r="HH23" s="10"/>
+      <c r="HI23" s="10"/>
+      <c r="HJ23" s="10"/>
+      <c r="HK23" s="10"/>
+      <c r="HL23" s="10"/>
+      <c r="HM23" s="10"/>
+      <c r="HN23" s="10"/>
+      <c r="HO23" s="10"/>
+      <c r="HP23" s="10"/>
+      <c r="HQ23" s="10"/>
+      <c r="HR23" s="10"/>
+      <c r="HS23" s="10"/>
+      <c r="HT23" s="10"/>
+      <c r="HU23" s="10"/>
+      <c r="HV23" s="10"/>
+      <c r="HW23" s="10"/>
+      <c r="HX23" s="10"/>
+      <c r="HY23" s="10"/>
+      <c r="HZ23" s="10"/>
+      <c r="IA23" s="10"/>
+      <c r="IB23" s="10"/>
+      <c r="IC23" s="10"/>
+      <c r="ID23" s="10"/>
+      <c r="IE23" s="10"/>
+      <c r="IF23" s="10"/>
+      <c r="IG23" s="10"/>
+      <c r="IH23" s="10"/>
+      <c r="II23" s="10"/>
+      <c r="IJ23" s="10"/>
+      <c r="IK23" s="10"/>
+      <c r="IL23" s="10"/>
+      <c r="IM23" s="10"/>
+      <c r="IN23" s="10"/>
+      <c r="IO23" s="10"/>
+      <c r="IP23" s="10"/>
+      <c r="IQ23" s="10"/>
+      <c r="IR23" s="10"/>
+      <c r="IS23" s="10"/>
+      <c r="IT23" s="10"/>
+      <c r="IU23" s="10"/>
+      <c r="IV23" s="10"/>
+      <c r="IW23" s="10"/>
+      <c r="IX23" s="10"/>
+      <c r="IY23" s="10"/>
+      <c r="IZ23" s="10"/>
+      <c r="JA23" s="10"/>
+      <c r="JB23" s="10"/>
+      <c r="JC23" s="10"/>
+      <c r="JD23" s="10"/>
+      <c r="JE23" s="10"/>
+      <c r="JF23" s="10"/>
+      <c r="JG23" s="10"/>
+      <c r="JH23" s="10"/>
+      <c r="JI23" s="10"/>
+      <c r="JJ23" s="10"/>
+      <c r="JK23" s="10"/>
+      <c r="JL23" s="10"/>
+      <c r="JM23" s="10"/>
+      <c r="JN23" s="10"/>
+      <c r="JO23" s="10"/>
+      <c r="JP23" s="10"/>
+      <c r="JQ23" s="10"/>
+      <c r="JR23" s="10"/>
+      <c r="JS23" s="10"/>
+      <c r="JT23" s="10"/>
+      <c r="JU23" s="10"/>
+      <c r="JV23" s="10"/>
+      <c r="JW23" s="10"/>
+      <c r="JX23" s="10"/>
+      <c r="JY23" s="10"/>
+      <c r="JZ23" s="10"/>
+      <c r="KA23" s="10"/>
+      <c r="KB23" s="10"/>
+      <c r="KC23" s="10"/>
+      <c r="KD23" s="10"/>
+      <c r="KE23" s="10"/>
+    </row>
+    <row r="24" spans="1:291">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:291">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:291">
+      <c r="A26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:291">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:291">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:291">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:291" s="5" customFormat="1">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="10"/>
+      <c r="BS30" s="10"/>
+      <c r="BT30" s="10"/>
+      <c r="BU30" s="10"/>
+      <c r="BV30" s="10"/>
+      <c r="BW30" s="10"/>
+      <c r="BX30" s="10"/>
+      <c r="BY30" s="10"/>
+      <c r="BZ30" s="10"/>
+      <c r="CA30" s="10"/>
+      <c r="CB30" s="10"/>
+      <c r="CC30" s="10"/>
+      <c r="CD30" s="10"/>
+      <c r="CE30" s="10"/>
+      <c r="CF30" s="10"/>
+      <c r="CG30" s="10"/>
+      <c r="CH30" s="10"/>
+      <c r="CI30" s="10"/>
+      <c r="CJ30" s="10"/>
+      <c r="CK30" s="10"/>
+      <c r="CL30" s="10"/>
+      <c r="CM30" s="10"/>
+      <c r="CN30" s="10"/>
+      <c r="CO30" s="10"/>
+      <c r="CP30" s="10"/>
+      <c r="CQ30" s="10"/>
+      <c r="CR30" s="10"/>
+      <c r="CS30" s="10"/>
+      <c r="CT30" s="10"/>
+      <c r="CU30" s="10"/>
+      <c r="CV30" s="10"/>
+      <c r="CW30" s="10"/>
+      <c r="CX30" s="10"/>
+      <c r="CY30" s="10"/>
+      <c r="CZ30" s="10"/>
+      <c r="DA30" s="10"/>
+      <c r="DB30" s="10"/>
+      <c r="DC30" s="10"/>
+      <c r="DD30" s="10"/>
+      <c r="DE30" s="10"/>
+      <c r="DF30" s="10"/>
+      <c r="DG30" s="10"/>
+      <c r="DH30" s="10"/>
+      <c r="DI30" s="10"/>
+      <c r="DJ30" s="10"/>
+      <c r="DK30" s="10"/>
+      <c r="DL30" s="10"/>
+      <c r="DM30" s="10"/>
+      <c r="DN30" s="10"/>
+      <c r="DO30" s="10"/>
+      <c r="DP30" s="10"/>
+      <c r="DQ30" s="10"/>
+      <c r="DR30" s="10"/>
+      <c r="DS30" s="10"/>
+      <c r="DT30" s="10"/>
+      <c r="DU30" s="10"/>
+      <c r="DV30" s="10"/>
+      <c r="DW30" s="10"/>
+      <c r="DX30" s="10"/>
+      <c r="DY30" s="10"/>
+      <c r="DZ30" s="10"/>
+      <c r="EA30" s="10"/>
+      <c r="EB30" s="10"/>
+      <c r="EC30" s="10"/>
+      <c r="ED30" s="10"/>
+      <c r="EE30" s="10"/>
+      <c r="EF30" s="10"/>
+      <c r="EG30" s="10"/>
+      <c r="EH30" s="10"/>
+      <c r="EI30" s="10"/>
+      <c r="EJ30" s="10"/>
+      <c r="EK30" s="10"/>
+      <c r="EL30" s="10"/>
+      <c r="EM30" s="10"/>
+      <c r="EN30" s="10"/>
+      <c r="EO30" s="10"/>
+      <c r="EP30" s="10"/>
+      <c r="EQ30" s="10"/>
+      <c r="ER30" s="10"/>
+      <c r="ES30" s="10"/>
+      <c r="ET30" s="10"/>
+      <c r="EU30" s="10"/>
+      <c r="EV30" s="10"/>
+      <c r="EW30" s="10"/>
+      <c r="EX30" s="10"/>
+      <c r="EY30" s="10"/>
+      <c r="EZ30" s="10"/>
+      <c r="FA30" s="10"/>
+      <c r="FB30" s="10"/>
+      <c r="FC30" s="10"/>
+      <c r="FD30" s="10"/>
+      <c r="FE30" s="10"/>
+      <c r="FF30" s="10"/>
+      <c r="FG30" s="10"/>
+      <c r="FH30" s="10"/>
+      <c r="FI30" s="10"/>
+      <c r="FJ30" s="10"/>
+      <c r="FK30" s="10"/>
+      <c r="FL30" s="10"/>
+      <c r="FM30" s="10"/>
+      <c r="FN30" s="10"/>
+      <c r="FO30" s="10"/>
+      <c r="FP30" s="10"/>
+      <c r="FQ30" s="10"/>
+      <c r="FR30" s="10"/>
+      <c r="FS30" s="10"/>
+      <c r="FT30" s="10"/>
+      <c r="FU30" s="10"/>
+      <c r="FV30" s="10"/>
+      <c r="FW30" s="10"/>
+      <c r="FX30" s="10"/>
+      <c r="FY30" s="10"/>
+      <c r="FZ30" s="10"/>
+      <c r="GA30" s="10"/>
+      <c r="GB30" s="10"/>
+      <c r="GC30" s="10"/>
+      <c r="GD30" s="10"/>
+      <c r="GE30" s="10"/>
+      <c r="GF30" s="10"/>
+      <c r="GG30" s="10"/>
+      <c r="GH30" s="10"/>
+      <c r="GI30" s="10"/>
+      <c r="GJ30" s="10"/>
+      <c r="GK30" s="10"/>
+      <c r="GL30" s="10"/>
+      <c r="GM30" s="10"/>
+      <c r="GN30" s="10"/>
+      <c r="GO30" s="10"/>
+      <c r="GP30" s="10"/>
+      <c r="GQ30" s="10"/>
+      <c r="GR30" s="10"/>
+      <c r="GS30" s="10"/>
+      <c r="GT30" s="10"/>
+      <c r="GU30" s="10"/>
+      <c r="GV30" s="10"/>
+      <c r="GW30" s="10"/>
+      <c r="GX30" s="10"/>
+      <c r="GY30" s="10"/>
+      <c r="GZ30" s="10"/>
+      <c r="HA30" s="10"/>
+      <c r="HB30" s="10"/>
+      <c r="HC30" s="10"/>
+      <c r="HD30" s="10"/>
+      <c r="HE30" s="10"/>
+      <c r="HF30" s="10"/>
+      <c r="HG30" s="10"/>
+      <c r="HH30" s="10"/>
+      <c r="HI30" s="10"/>
+      <c r="HJ30" s="10"/>
+      <c r="HK30" s="10"/>
+      <c r="HL30" s="10"/>
+      <c r="HM30" s="10"/>
+      <c r="HN30" s="10"/>
+      <c r="HO30" s="10"/>
+      <c r="HP30" s="10"/>
+      <c r="HQ30" s="10"/>
+      <c r="HR30" s="10"/>
+      <c r="HS30" s="10"/>
+      <c r="HT30" s="10"/>
+      <c r="HU30" s="10"/>
+      <c r="HV30" s="10"/>
+      <c r="HW30" s="10"/>
+      <c r="HX30" s="10"/>
+      <c r="HY30" s="10"/>
+      <c r="HZ30" s="10"/>
+      <c r="IA30" s="10"/>
+      <c r="IB30" s="10"/>
+      <c r="IC30" s="10"/>
+      <c r="ID30" s="10"/>
+      <c r="IE30" s="10"/>
+      <c r="IF30" s="10"/>
+      <c r="IG30" s="10"/>
+      <c r="IH30" s="10"/>
+      <c r="II30" s="10"/>
+      <c r="IJ30" s="10"/>
+      <c r="IK30" s="10"/>
+      <c r="IL30" s="10"/>
+      <c r="IM30" s="10"/>
+      <c r="IN30" s="10"/>
+      <c r="IO30" s="10"/>
+      <c r="IP30" s="10"/>
+      <c r="IQ30" s="10"/>
+      <c r="IR30" s="10"/>
+      <c r="IS30" s="10"/>
+      <c r="IT30" s="10"/>
+      <c r="IU30" s="10"/>
+      <c r="IV30" s="10"/>
+      <c r="IW30" s="10"/>
+      <c r="IX30" s="10"/>
+      <c r="IY30" s="10"/>
+      <c r="IZ30" s="10"/>
+      <c r="JA30" s="10"/>
+      <c r="JB30" s="10"/>
+      <c r="JC30" s="10"/>
+      <c r="JD30" s="10"/>
+      <c r="JE30" s="10"/>
+      <c r="JF30" s="10"/>
+      <c r="JG30" s="10"/>
+      <c r="JH30" s="10"/>
+      <c r="JI30" s="10"/>
+      <c r="JJ30" s="10"/>
+      <c r="JK30" s="10"/>
+      <c r="JL30" s="10"/>
+      <c r="JM30" s="10"/>
+      <c r="JN30" s="10"/>
+      <c r="JO30" s="10"/>
+      <c r="JP30" s="10"/>
+      <c r="JQ30" s="10"/>
+      <c r="JR30" s="10"/>
+      <c r="JS30" s="10"/>
+      <c r="JT30" s="10"/>
+      <c r="JU30" s="10"/>
+      <c r="JV30" s="10"/>
+      <c r="JW30" s="10"/>
+      <c r="JX30" s="10"/>
+      <c r="JY30" s="10"/>
+      <c r="JZ30" s="10"/>
+      <c r="KA30" s="10"/>
+      <c r="KB30" s="10"/>
+      <c r="KC30" s="10"/>
+      <c r="KD30" s="10"/>
+      <c r="KE30" s="10"/>
+    </row>
+    <row r="31" spans="1:291">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:291">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:291">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:291" s="5" customFormat="1">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
+      <c r="BY34" s="10"/>
+      <c r="BZ34" s="10"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="10"/>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="10"/>
+      <c r="CE34" s="10"/>
+      <c r="CF34" s="10"/>
+      <c r="CG34" s="10"/>
+      <c r="CH34" s="10"/>
+      <c r="CI34" s="10"/>
+      <c r="CJ34" s="10"/>
+      <c r="CK34" s="10"/>
+      <c r="CL34" s="10"/>
+      <c r="CM34" s="10"/>
+      <c r="CN34" s="10"/>
+      <c r="CO34" s="10"/>
+      <c r="CP34" s="10"/>
+      <c r="CQ34" s="10"/>
+      <c r="CR34" s="10"/>
+      <c r="CS34" s="10"/>
+      <c r="CT34" s="10"/>
+      <c r="CU34" s="10"/>
+      <c r="CV34" s="10"/>
+      <c r="CW34" s="10"/>
+      <c r="CX34" s="10"/>
+      <c r="CY34" s="10"/>
+      <c r="CZ34" s="10"/>
+      <c r="DA34" s="10"/>
+      <c r="DB34" s="10"/>
+      <c r="DC34" s="10"/>
+      <c r="DD34" s="10"/>
+      <c r="DE34" s="10"/>
+      <c r="DF34" s="10"/>
+      <c r="DG34" s="10"/>
+      <c r="DH34" s="10"/>
+      <c r="DI34" s="10"/>
+      <c r="DJ34" s="10"/>
+      <c r="DK34" s="10"/>
+      <c r="DL34" s="10"/>
+      <c r="DM34" s="10"/>
+      <c r="DN34" s="10"/>
+      <c r="DO34" s="10"/>
+      <c r="DP34" s="10"/>
+      <c r="DQ34" s="10"/>
+      <c r="DR34" s="10"/>
+      <c r="DS34" s="10"/>
+      <c r="DT34" s="10"/>
+      <c r="DU34" s="10"/>
+      <c r="DV34" s="10"/>
+      <c r="DW34" s="10"/>
+      <c r="DX34" s="10"/>
+      <c r="DY34" s="10"/>
+      <c r="DZ34" s="10"/>
+      <c r="EA34" s="10"/>
+      <c r="EB34" s="10"/>
+      <c r="EC34" s="10"/>
+      <c r="ED34" s="10"/>
+      <c r="EE34" s="10"/>
+      <c r="EF34" s="10"/>
+      <c r="EG34" s="10"/>
+      <c r="EH34" s="10"/>
+      <c r="EI34" s="10"/>
+      <c r="EJ34" s="10"/>
+      <c r="EK34" s="10"/>
+      <c r="EL34" s="10"/>
+      <c r="EM34" s="10"/>
+      <c r="EN34" s="10"/>
+      <c r="EO34" s="10"/>
+      <c r="EP34" s="10"/>
+      <c r="EQ34" s="10"/>
+      <c r="ER34" s="10"/>
+      <c r="ES34" s="10"/>
+      <c r="ET34" s="10"/>
+      <c r="EU34" s="10"/>
+      <c r="EV34" s="10"/>
+      <c r="EW34" s="10"/>
+      <c r="EX34" s="10"/>
+      <c r="EY34" s="10"/>
+      <c r="EZ34" s="10"/>
+      <c r="FA34" s="10"/>
+      <c r="FB34" s="10"/>
+      <c r="FC34" s="10"/>
+      <c r="FD34" s="10"/>
+      <c r="FE34" s="10"/>
+      <c r="FF34" s="10"/>
+      <c r="FG34" s="10"/>
+      <c r="FH34" s="10"/>
+      <c r="FI34" s="10"/>
+      <c r="FJ34" s="10"/>
+      <c r="FK34" s="10"/>
+      <c r="FL34" s="10"/>
+      <c r="FM34" s="10"/>
+      <c r="FN34" s="10"/>
+      <c r="FO34" s="10"/>
+      <c r="FP34" s="10"/>
+      <c r="FQ34" s="10"/>
+      <c r="FR34" s="10"/>
+      <c r="FS34" s="10"/>
+      <c r="FT34" s="10"/>
+      <c r="FU34" s="10"/>
+      <c r="FV34" s="10"/>
+      <c r="FW34" s="10"/>
+      <c r="FX34" s="10"/>
+      <c r="FY34" s="10"/>
+      <c r="FZ34" s="10"/>
+      <c r="GA34" s="10"/>
+      <c r="GB34" s="10"/>
+      <c r="GC34" s="10"/>
+      <c r="GD34" s="10"/>
+      <c r="GE34" s="10"/>
+      <c r="GF34" s="10"/>
+      <c r="GG34" s="10"/>
+      <c r="GH34" s="10"/>
+      <c r="GI34" s="10"/>
+      <c r="GJ34" s="10"/>
+      <c r="GK34" s="10"/>
+      <c r="GL34" s="10"/>
+      <c r="GM34" s="10"/>
+      <c r="GN34" s="10"/>
+      <c r="GO34" s="10"/>
+      <c r="GP34" s="10"/>
+      <c r="GQ34" s="10"/>
+      <c r="GR34" s="10"/>
+      <c r="GS34" s="10"/>
+      <c r="GT34" s="10"/>
+      <c r="GU34" s="10"/>
+      <c r="GV34" s="10"/>
+      <c r="GW34" s="10"/>
+      <c r="GX34" s="10"/>
+      <c r="GY34" s="10"/>
+      <c r="GZ34" s="10"/>
+      <c r="HA34" s="10"/>
+      <c r="HB34" s="10"/>
+      <c r="HC34" s="10"/>
+      <c r="HD34" s="10"/>
+      <c r="HE34" s="10"/>
+      <c r="HF34" s="10"/>
+      <c r="HG34" s="10"/>
+      <c r="HH34" s="10"/>
+      <c r="HI34" s="10"/>
+      <c r="HJ34" s="10"/>
+      <c r="HK34" s="10"/>
+      <c r="HL34" s="10"/>
+      <c r="HM34" s="10"/>
+      <c r="HN34" s="10"/>
+      <c r="HO34" s="10"/>
+      <c r="HP34" s="10"/>
+      <c r="HQ34" s="10"/>
+      <c r="HR34" s="10"/>
+      <c r="HS34" s="10"/>
+      <c r="HT34" s="10"/>
+      <c r="HU34" s="10"/>
+      <c r="HV34" s="10"/>
+      <c r="HW34" s="10"/>
+      <c r="HX34" s="10"/>
+      <c r="HY34" s="10"/>
+      <c r="HZ34" s="10"/>
+      <c r="IA34" s="10"/>
+      <c r="IB34" s="10"/>
+      <c r="IC34" s="10"/>
+      <c r="ID34" s="10"/>
+      <c r="IE34" s="10"/>
+      <c r="IF34" s="10"/>
+      <c r="IG34" s="10"/>
+      <c r="IH34" s="10"/>
+      <c r="II34" s="10"/>
+      <c r="IJ34" s="10"/>
+      <c r="IK34" s="10"/>
+      <c r="IL34" s="10"/>
+      <c r="IM34" s="10"/>
+      <c r="IN34" s="10"/>
+      <c r="IO34" s="10"/>
+      <c r="IP34" s="10"/>
+      <c r="IQ34" s="10"/>
+      <c r="IR34" s="10"/>
+      <c r="IS34" s="10"/>
+      <c r="IT34" s="10"/>
+      <c r="IU34" s="10"/>
+      <c r="IV34" s="10"/>
+      <c r="IW34" s="10"/>
+      <c r="IX34" s="10"/>
+      <c r="IY34" s="10"/>
+      <c r="IZ34" s="10"/>
+      <c r="JA34" s="10"/>
+      <c r="JB34" s="10"/>
+      <c r="JC34" s="10"/>
+      <c r="JD34" s="10"/>
+      <c r="JE34" s="10"/>
+      <c r="JF34" s="10"/>
+      <c r="JG34" s="10"/>
+      <c r="JH34" s="10"/>
+      <c r="JI34" s="10"/>
+      <c r="JJ34" s="10"/>
+      <c r="JK34" s="10"/>
+      <c r="JL34" s="10"/>
+      <c r="JM34" s="10"/>
+      <c r="JN34" s="10"/>
+      <c r="JO34" s="10"/>
+      <c r="JP34" s="10"/>
+      <c r="JQ34" s="10"/>
+      <c r="JR34" s="10"/>
+      <c r="JS34" s="10"/>
+      <c r="JT34" s="10"/>
+      <c r="JU34" s="10"/>
+      <c r="JV34" s="10"/>
+      <c r="JW34" s="10"/>
+      <c r="JX34" s="10"/>
+      <c r="JY34" s="10"/>
+      <c r="JZ34" s="10"/>
+      <c r="KA34" s="10"/>
+      <c r="KB34" s="10"/>
+      <c r="KC34" s="10"/>
+      <c r="KD34" s="10"/>
+      <c r="KE34" s="10"/>
+    </row>
+    <row r="35" spans="1:291">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:291">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:291">
+      <c r="A37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:291">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:291">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:291" s="3" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10"/>
+      <c r="AQ40" s="10"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="10"/>
+      <c r="BA40" s="10"/>
+      <c r="BB40" s="10"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="10"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="10"/>
+      <c r="BH40" s="10"/>
+      <c r="BI40" s="10"/>
+      <c r="BJ40" s="10"/>
+      <c r="BK40" s="10"/>
+      <c r="BL40" s="10"/>
+      <c r="BM40" s="10"/>
+      <c r="BN40" s="10"/>
+      <c r="BO40" s="10"/>
+      <c r="BP40" s="10"/>
+      <c r="BQ40" s="10"/>
+      <c r="BR40" s="10"/>
+      <c r="BS40" s="10"/>
+      <c r="BT40" s="10"/>
+      <c r="BU40" s="10"/>
+      <c r="BV40" s="10"/>
+      <c r="BW40" s="10"/>
+      <c r="BX40" s="10"/>
+      <c r="BY40" s="10"/>
+      <c r="BZ40" s="10"/>
+      <c r="CA40" s="10"/>
+      <c r="CB40" s="10"/>
+      <c r="CC40" s="10"/>
+      <c r="CD40" s="10"/>
+      <c r="CE40" s="10"/>
+      <c r="CF40" s="10"/>
+      <c r="CG40" s="10"/>
+      <c r="CH40" s="10"/>
+      <c r="CI40" s="10"/>
+      <c r="CJ40" s="10"/>
+      <c r="CK40" s="10"/>
+      <c r="CL40" s="10"/>
+      <c r="CM40" s="10"/>
+      <c r="CN40" s="10"/>
+      <c r="CO40" s="10"/>
+      <c r="CP40" s="10"/>
+      <c r="CQ40" s="10"/>
+      <c r="CR40" s="10"/>
+      <c r="CS40" s="10"/>
+      <c r="CT40" s="10"/>
+      <c r="CU40" s="10"/>
+      <c r="CV40" s="10"/>
+      <c r="CW40" s="10"/>
+      <c r="CX40" s="10"/>
+      <c r="CY40" s="10"/>
+      <c r="CZ40" s="10"/>
+      <c r="DA40" s="10"/>
+      <c r="DB40" s="10"/>
+      <c r="DC40" s="10"/>
+      <c r="DD40" s="10"/>
+      <c r="DE40" s="10"/>
+      <c r="DF40" s="10"/>
+      <c r="DG40" s="10"/>
+      <c r="DH40" s="10"/>
+      <c r="DI40" s="10"/>
+      <c r="DJ40" s="10"/>
+      <c r="DK40" s="10"/>
+      <c r="DL40" s="10"/>
+      <c r="DM40" s="10"/>
+      <c r="DN40" s="10"/>
+      <c r="DO40" s="10"/>
+      <c r="DP40" s="10"/>
+      <c r="DQ40" s="10"/>
+      <c r="DR40" s="10"/>
+      <c r="DS40" s="10"/>
+      <c r="DT40" s="10"/>
+      <c r="DU40" s="10"/>
+      <c r="DV40" s="10"/>
+      <c r="DW40" s="10"/>
+      <c r="DX40" s="10"/>
+      <c r="DY40" s="10"/>
+      <c r="DZ40" s="10"/>
+      <c r="EA40" s="10"/>
+      <c r="EB40" s="10"/>
+      <c r="EC40" s="10"/>
+      <c r="ED40" s="10"/>
+      <c r="EE40" s="10"/>
+      <c r="EF40" s="10"/>
+      <c r="EG40" s="10"/>
+      <c r="EH40" s="10"/>
+      <c r="EI40" s="10"/>
+      <c r="EJ40" s="10"/>
+      <c r="EK40" s="10"/>
+      <c r="EL40" s="10"/>
+      <c r="EM40" s="10"/>
+      <c r="EN40" s="10"/>
+      <c r="EO40" s="10"/>
+      <c r="EP40" s="10"/>
+      <c r="EQ40" s="10"/>
+      <c r="ER40" s="10"/>
+      <c r="ES40" s="10"/>
+      <c r="ET40" s="10"/>
+      <c r="EU40" s="10"/>
+      <c r="EV40" s="10"/>
+      <c r="EW40" s="10"/>
+      <c r="EX40" s="10"/>
+      <c r="EY40" s="10"/>
+      <c r="EZ40" s="10"/>
+      <c r="FA40" s="10"/>
+      <c r="FB40" s="10"/>
+      <c r="FC40" s="10"/>
+      <c r="FD40" s="10"/>
+      <c r="FE40" s="10"/>
+      <c r="FF40" s="10"/>
+      <c r="FG40" s="10"/>
+      <c r="FH40" s="10"/>
+      <c r="FI40" s="10"/>
+      <c r="FJ40" s="10"/>
+      <c r="FK40" s="10"/>
+      <c r="FL40" s="10"/>
+      <c r="FM40" s="10"/>
+      <c r="FN40" s="10"/>
+      <c r="FO40" s="10"/>
+      <c r="FP40" s="10"/>
+      <c r="FQ40" s="10"/>
+      <c r="FR40" s="10"/>
+      <c r="FS40" s="10"/>
+      <c r="FT40" s="10"/>
+      <c r="FU40" s="10"/>
+      <c r="FV40" s="10"/>
+      <c r="FW40" s="10"/>
+      <c r="FX40" s="10"/>
+      <c r="FY40" s="10"/>
+      <c r="FZ40" s="10"/>
+      <c r="GA40" s="10"/>
+      <c r="GB40" s="10"/>
+      <c r="GC40" s="10"/>
+      <c r="GD40" s="10"/>
+      <c r="GE40" s="10"/>
+      <c r="GF40" s="10"/>
+      <c r="GG40" s="10"/>
+      <c r="GH40" s="10"/>
+      <c r="GI40" s="10"/>
+      <c r="GJ40" s="10"/>
+      <c r="GK40" s="10"/>
+      <c r="GL40" s="10"/>
+      <c r="GM40" s="10"/>
+      <c r="GN40" s="10"/>
+      <c r="GO40" s="10"/>
+      <c r="GP40" s="10"/>
+      <c r="GQ40" s="10"/>
+      <c r="GR40" s="10"/>
+      <c r="GS40" s="10"/>
+      <c r="GT40" s="10"/>
+      <c r="GU40" s="10"/>
+      <c r="GV40" s="10"/>
+      <c r="GW40" s="10"/>
+      <c r="GX40" s="10"/>
+      <c r="GY40" s="10"/>
+      <c r="GZ40" s="10"/>
+      <c r="HA40" s="10"/>
+      <c r="HB40" s="10"/>
+      <c r="HC40" s="10"/>
+      <c r="HD40" s="10"/>
+      <c r="HE40" s="10"/>
+      <c r="HF40" s="10"/>
+      <c r="HG40" s="10"/>
+      <c r="HH40" s="10"/>
+      <c r="HI40" s="10"/>
+      <c r="HJ40" s="10"/>
+      <c r="HK40" s="10"/>
+      <c r="HL40" s="10"/>
+      <c r="HM40" s="10"/>
+      <c r="HN40" s="10"/>
+      <c r="HO40" s="10"/>
+      <c r="HP40" s="10"/>
+      <c r="HQ40" s="10"/>
+      <c r="HR40" s="10"/>
+      <c r="HS40" s="10"/>
+      <c r="HT40" s="10"/>
+      <c r="HU40" s="10"/>
+      <c r="HV40" s="10"/>
+      <c r="HW40" s="10"/>
+      <c r="HX40" s="10"/>
+      <c r="HY40" s="10"/>
+      <c r="HZ40" s="10"/>
+      <c r="IA40" s="10"/>
+      <c r="IB40" s="10"/>
+      <c r="IC40" s="10"/>
+      <c r="ID40" s="10"/>
+      <c r="IE40" s="10"/>
+      <c r="IF40" s="10"/>
+      <c r="IG40" s="10"/>
+      <c r="IH40" s="10"/>
+      <c r="II40" s="10"/>
+      <c r="IJ40" s="10"/>
+      <c r="IK40" s="10"/>
+      <c r="IL40" s="10"/>
+      <c r="IM40" s="10"/>
+      <c r="IN40" s="10"/>
+      <c r="IO40" s="10"/>
+      <c r="IP40" s="10"/>
+      <c r="IQ40" s="10"/>
+      <c r="IR40" s="10"/>
+      <c r="IS40" s="10"/>
+      <c r="IT40" s="10"/>
+      <c r="IU40" s="10"/>
+      <c r="IV40" s="10"/>
+      <c r="IW40" s="10"/>
+      <c r="IX40" s="10"/>
+      <c r="IY40" s="10"/>
+      <c r="IZ40" s="10"/>
+      <c r="JA40" s="10"/>
+      <c r="JB40" s="10"/>
+      <c r="JC40" s="10"/>
+      <c r="JD40" s="10"/>
+      <c r="JE40" s="10"/>
+      <c r="JF40" s="10"/>
+      <c r="JG40" s="10"/>
+      <c r="JH40" s="10"/>
+      <c r="JI40" s="10"/>
+      <c r="JJ40" s="10"/>
+      <c r="JK40" s="10"/>
+      <c r="JL40" s="10"/>
+      <c r="JM40" s="10"/>
+      <c r="JN40" s="10"/>
+      <c r="JO40" s="10"/>
+      <c r="JP40" s="10"/>
+      <c r="JQ40" s="10"/>
+      <c r="JR40" s="10"/>
+      <c r="JS40" s="10"/>
+      <c r="JT40" s="10"/>
+      <c r="JU40" s="10"/>
+      <c r="JV40" s="10"/>
+      <c r="JW40" s="10"/>
+      <c r="JX40" s="10"/>
+      <c r="JY40" s="10"/>
+      <c r="JZ40" s="10"/>
+      <c r="KA40" s="10"/>
+      <c r="KB40" s="10"/>
+      <c r="KC40" s="10"/>
+      <c r="KD40" s="10"/>
+      <c r="KE40" s="10"/>
+    </row>
+    <row r="41" spans="1:291">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:291">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:291">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:291" s="3" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="10"/>
+      <c r="AV44" s="10"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="10"/>
+      <c r="AZ44" s="10"/>
+      <c r="BA44" s="10"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="10"/>
+      <c r="BF44" s="10"/>
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="10"/>
+      <c r="BK44" s="10"/>
+      <c r="BL44" s="10"/>
+      <c r="BM44" s="10"/>
+      <c r="BN44" s="10"/>
+      <c r="BO44" s="10"/>
+      <c r="BP44" s="10"/>
+      <c r="BQ44" s="10"/>
+      <c r="BR44" s="10"/>
+      <c r="BS44" s="10"/>
+      <c r="BT44" s="10"/>
+      <c r="BU44" s="10"/>
+      <c r="BV44" s="10"/>
+      <c r="BW44" s="10"/>
+      <c r="BX44" s="10"/>
+      <c r="BY44" s="10"/>
+      <c r="BZ44" s="10"/>
+      <c r="CA44" s="10"/>
+      <c r="CB44" s="10"/>
+      <c r="CC44" s="10"/>
+      <c r="CD44" s="10"/>
+      <c r="CE44" s="10"/>
+      <c r="CF44" s="10"/>
+      <c r="CG44" s="10"/>
+      <c r="CH44" s="10"/>
+      <c r="CI44" s="10"/>
+      <c r="CJ44" s="10"/>
+      <c r="CK44" s="10"/>
+      <c r="CL44" s="10"/>
+      <c r="CM44" s="10"/>
+      <c r="CN44" s="10"/>
+      <c r="CO44" s="10"/>
+      <c r="CP44" s="10"/>
+      <c r="CQ44" s="10"/>
+      <c r="CR44" s="10"/>
+      <c r="CS44" s="10"/>
+      <c r="CT44" s="10"/>
+      <c r="CU44" s="10"/>
+      <c r="CV44" s="10"/>
+      <c r="CW44" s="10"/>
+      <c r="CX44" s="10"/>
+      <c r="CY44" s="10"/>
+      <c r="CZ44" s="10"/>
+      <c r="DA44" s="10"/>
+      <c r="DB44" s="10"/>
+      <c r="DC44" s="10"/>
+      <c r="DD44" s="10"/>
+      <c r="DE44" s="10"/>
+      <c r="DF44" s="10"/>
+      <c r="DG44" s="10"/>
+      <c r="DH44" s="10"/>
+      <c r="DI44" s="10"/>
+      <c r="DJ44" s="10"/>
+      <c r="DK44" s="10"/>
+      <c r="DL44" s="10"/>
+      <c r="DM44" s="10"/>
+      <c r="DN44" s="10"/>
+      <c r="DO44" s="10"/>
+      <c r="DP44" s="10"/>
+      <c r="DQ44" s="10"/>
+      <c r="DR44" s="10"/>
+      <c r="DS44" s="10"/>
+      <c r="DT44" s="10"/>
+      <c r="DU44" s="10"/>
+      <c r="DV44" s="10"/>
+      <c r="DW44" s="10"/>
+      <c r="DX44" s="10"/>
+      <c r="DY44" s="10"/>
+      <c r="DZ44" s="10"/>
+      <c r="EA44" s="10"/>
+      <c r="EB44" s="10"/>
+      <c r="EC44" s="10"/>
+      <c r="ED44" s="10"/>
+      <c r="EE44" s="10"/>
+      <c r="EF44" s="10"/>
+      <c r="EG44" s="10"/>
+      <c r="EH44" s="10"/>
+      <c r="EI44" s="10"/>
+      <c r="EJ44" s="10"/>
+      <c r="EK44" s="10"/>
+      <c r="EL44" s="10"/>
+      <c r="EM44" s="10"/>
+      <c r="EN44" s="10"/>
+      <c r="EO44" s="10"/>
+      <c r="EP44" s="10"/>
+      <c r="EQ44" s="10"/>
+      <c r="ER44" s="10"/>
+      <c r="ES44" s="10"/>
+      <c r="ET44" s="10"/>
+      <c r="EU44" s="10"/>
+      <c r="EV44" s="10"/>
+      <c r="EW44" s="10"/>
+      <c r="EX44" s="10"/>
+      <c r="EY44" s="10"/>
+      <c r="EZ44" s="10"/>
+      <c r="FA44" s="10"/>
+      <c r="FB44" s="10"/>
+      <c r="FC44" s="10"/>
+      <c r="FD44" s="10"/>
+      <c r="FE44" s="10"/>
+      <c r="FF44" s="10"/>
+      <c r="FG44" s="10"/>
+      <c r="FH44" s="10"/>
+      <c r="FI44" s="10"/>
+      <c r="FJ44" s="10"/>
+      <c r="FK44" s="10"/>
+      <c r="FL44" s="10"/>
+      <c r="FM44" s="10"/>
+      <c r="FN44" s="10"/>
+      <c r="FO44" s="10"/>
+      <c r="FP44" s="10"/>
+      <c r="FQ44" s="10"/>
+      <c r="FR44" s="10"/>
+      <c r="FS44" s="10"/>
+      <c r="FT44" s="10"/>
+      <c r="FU44" s="10"/>
+      <c r="FV44" s="10"/>
+      <c r="FW44" s="10"/>
+      <c r="FX44" s="10"/>
+      <c r="FY44" s="10"/>
+      <c r="FZ44" s="10"/>
+      <c r="GA44" s="10"/>
+      <c r="GB44" s="10"/>
+      <c r="GC44" s="10"/>
+      <c r="GD44" s="10"/>
+      <c r="GE44" s="10"/>
+      <c r="GF44" s="10"/>
+      <c r="GG44" s="10"/>
+      <c r="GH44" s="10"/>
+      <c r="GI44" s="10"/>
+      <c r="GJ44" s="10"/>
+      <c r="GK44" s="10"/>
+      <c r="GL44" s="10"/>
+      <c r="GM44" s="10"/>
+      <c r="GN44" s="10"/>
+      <c r="GO44" s="10"/>
+      <c r="GP44" s="10"/>
+      <c r="GQ44" s="10"/>
+      <c r="GR44" s="10"/>
+      <c r="GS44" s="10"/>
+      <c r="GT44" s="10"/>
+      <c r="GU44" s="10"/>
+      <c r="GV44" s="10"/>
+      <c r="GW44" s="10"/>
+      <c r="GX44" s="10"/>
+      <c r="GY44" s="10"/>
+      <c r="GZ44" s="10"/>
+      <c r="HA44" s="10"/>
+      <c r="HB44" s="10"/>
+      <c r="HC44" s="10"/>
+      <c r="HD44" s="10"/>
+      <c r="HE44" s="10"/>
+      <c r="HF44" s="10"/>
+      <c r="HG44" s="10"/>
+      <c r="HH44" s="10"/>
+      <c r="HI44" s="10"/>
+      <c r="HJ44" s="10"/>
+      <c r="HK44" s="10"/>
+      <c r="HL44" s="10"/>
+      <c r="HM44" s="10"/>
+      <c r="HN44" s="10"/>
+      <c r="HO44" s="10"/>
+      <c r="HP44" s="10"/>
+      <c r="HQ44" s="10"/>
+      <c r="HR44" s="10"/>
+      <c r="HS44" s="10"/>
+      <c r="HT44" s="10"/>
+      <c r="HU44" s="10"/>
+      <c r="HV44" s="10"/>
+      <c r="HW44" s="10"/>
+      <c r="HX44" s="10"/>
+      <c r="HY44" s="10"/>
+      <c r="HZ44" s="10"/>
+      <c r="IA44" s="10"/>
+      <c r="IB44" s="10"/>
+      <c r="IC44" s="10"/>
+      <c r="ID44" s="10"/>
+      <c r="IE44" s="10"/>
+      <c r="IF44" s="10"/>
+      <c r="IG44" s="10"/>
+      <c r="IH44" s="10"/>
+      <c r="II44" s="10"/>
+      <c r="IJ44" s="10"/>
+      <c r="IK44" s="10"/>
+      <c r="IL44" s="10"/>
+      <c r="IM44" s="10"/>
+      <c r="IN44" s="10"/>
+      <c r="IO44" s="10"/>
+      <c r="IP44" s="10"/>
+      <c r="IQ44" s="10"/>
+      <c r="IR44" s="10"/>
+      <c r="IS44" s="10"/>
+      <c r="IT44" s="10"/>
+      <c r="IU44" s="10"/>
+      <c r="IV44" s="10"/>
+      <c r="IW44" s="10"/>
+      <c r="IX44" s="10"/>
+      <c r="IY44" s="10"/>
+      <c r="IZ44" s="10"/>
+      <c r="JA44" s="10"/>
+      <c r="JB44" s="10"/>
+      <c r="JC44" s="10"/>
+      <c r="JD44" s="10"/>
+      <c r="JE44" s="10"/>
+      <c r="JF44" s="10"/>
+      <c r="JG44" s="10"/>
+      <c r="JH44" s="10"/>
+      <c r="JI44" s="10"/>
+      <c r="JJ44" s="10"/>
+      <c r="JK44" s="10"/>
+      <c r="JL44" s="10"/>
+      <c r="JM44" s="10"/>
+      <c r="JN44" s="10"/>
+      <c r="JO44" s="10"/>
+      <c r="JP44" s="10"/>
+      <c r="JQ44" s="10"/>
+      <c r="JR44" s="10"/>
+      <c r="JS44" s="10"/>
+      <c r="JT44" s="10"/>
+      <c r="JU44" s="10"/>
+      <c r="JV44" s="10"/>
+      <c r="JW44" s="10"/>
+      <c r="JX44" s="10"/>
+      <c r="JY44" s="10"/>
+      <c r="JZ44" s="10"/>
+      <c r="KA44" s="10"/>
+      <c r="KB44" s="10"/>
+      <c r="KC44" s="10"/>
+      <c r="KD44" s="10"/>
+      <c r="KE44" s="10"/>
+    </row>
+    <row r="45" spans="1:291">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:291">
+      <c r="A46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:291">
+      <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:291">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:291">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:291" s="6" customFormat="1">
+      <c r="A50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="10"/>
+      <c r="BA50" s="10"/>
+      <c r="BB50" s="10"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="10"/>
+      <c r="BF50" s="10"/>
+      <c r="BG50" s="10"/>
+      <c r="BH50" s="10"/>
+      <c r="BI50" s="10"/>
+      <c r="BJ50" s="10"/>
+      <c r="BK50" s="10"/>
+      <c r="BL50" s="10"/>
+      <c r="BM50" s="10"/>
+      <c r="BN50" s="10"/>
+      <c r="BO50" s="10"/>
+      <c r="BP50" s="10"/>
+      <c r="BQ50" s="10"/>
+      <c r="BR50" s="10"/>
+      <c r="BS50" s="10"/>
+      <c r="BT50" s="10"/>
+      <c r="BU50" s="10"/>
+      <c r="BV50" s="10"/>
+      <c r="BW50" s="10"/>
+      <c r="BX50" s="10"/>
+      <c r="BY50" s="10"/>
+      <c r="BZ50" s="10"/>
+      <c r="CA50" s="10"/>
+      <c r="CB50" s="10"/>
+      <c r="CC50" s="10"/>
+      <c r="CD50" s="10"/>
+      <c r="CE50" s="10"/>
+      <c r="CF50" s="10"/>
+      <c r="CG50" s="10"/>
+      <c r="CH50" s="10"/>
+      <c r="CI50" s="10"/>
+      <c r="CJ50" s="10"/>
+      <c r="CK50" s="10"/>
+      <c r="CL50" s="10"/>
+      <c r="CM50" s="10"/>
+      <c r="CN50" s="10"/>
+      <c r="CO50" s="10"/>
+      <c r="CP50" s="10"/>
+      <c r="CQ50" s="10"/>
+      <c r="CR50" s="10"/>
+      <c r="CS50" s="10"/>
+      <c r="CT50" s="10"/>
+      <c r="CU50" s="10"/>
+      <c r="CV50" s="10"/>
+      <c r="CW50" s="10"/>
+      <c r="CX50" s="10"/>
+      <c r="CY50" s="10"/>
+      <c r="CZ50" s="10"/>
+      <c r="DA50" s="10"/>
+      <c r="DB50" s="10"/>
+      <c r="DC50" s="10"/>
+      <c r="DD50" s="10"/>
+      <c r="DE50" s="10"/>
+      <c r="DF50" s="10"/>
+      <c r="DG50" s="10"/>
+      <c r="DH50" s="10"/>
+      <c r="DI50" s="10"/>
+      <c r="DJ50" s="10"/>
+      <c r="DK50" s="10"/>
+      <c r="DL50" s="10"/>
+      <c r="DM50" s="10"/>
+      <c r="DN50" s="10"/>
+      <c r="DO50" s="10"/>
+      <c r="DP50" s="10"/>
+      <c r="DQ50" s="10"/>
+      <c r="DR50" s="10"/>
+      <c r="DS50" s="10"/>
+      <c r="DT50" s="10"/>
+      <c r="DU50" s="10"/>
+      <c r="DV50" s="10"/>
+      <c r="DW50" s="10"/>
+      <c r="DX50" s="10"/>
+      <c r="DY50" s="10"/>
+      <c r="DZ50" s="10"/>
+      <c r="EA50" s="10"/>
+      <c r="EB50" s="10"/>
+      <c r="EC50" s="10"/>
+      <c r="ED50" s="10"/>
+      <c r="EE50" s="10"/>
+      <c r="EF50" s="10"/>
+      <c r="EG50" s="10"/>
+      <c r="EH50" s="10"/>
+      <c r="EI50" s="10"/>
+      <c r="EJ50" s="10"/>
+      <c r="EK50" s="10"/>
+      <c r="EL50" s="10"/>
+      <c r="EM50" s="10"/>
+      <c r="EN50" s="10"/>
+      <c r="EO50" s="10"/>
+      <c r="EP50" s="10"/>
+      <c r="EQ50" s="10"/>
+      <c r="ER50" s="10"/>
+      <c r="ES50" s="10"/>
+      <c r="ET50" s="10"/>
+      <c r="EU50" s="10"/>
+      <c r="EV50" s="10"/>
+      <c r="EW50" s="10"/>
+      <c r="EX50" s="10"/>
+      <c r="EY50" s="10"/>
+      <c r="EZ50" s="10"/>
+      <c r="FA50" s="10"/>
+      <c r="FB50" s="10"/>
+      <c r="FC50" s="10"/>
+      <c r="FD50" s="10"/>
+      <c r="FE50" s="10"/>
+      <c r="FF50" s="10"/>
+      <c r="FG50" s="10"/>
+      <c r="FH50" s="10"/>
+      <c r="FI50" s="10"/>
+      <c r="FJ50" s="10"/>
+      <c r="FK50" s="10"/>
+      <c r="FL50" s="10"/>
+      <c r="FM50" s="10"/>
+      <c r="FN50" s="10"/>
+      <c r="FO50" s="10"/>
+      <c r="FP50" s="10"/>
+      <c r="FQ50" s="10"/>
+      <c r="FR50" s="10"/>
+      <c r="FS50" s="10"/>
+      <c r="FT50" s="10"/>
+      <c r="FU50" s="10"/>
+      <c r="FV50" s="10"/>
+      <c r="FW50" s="10"/>
+      <c r="FX50" s="10"/>
+      <c r="FY50" s="10"/>
+      <c r="FZ50" s="10"/>
+      <c r="GA50" s="10"/>
+      <c r="GB50" s="10"/>
+      <c r="GC50" s="10"/>
+      <c r="GD50" s="10"/>
+      <c r="GE50" s="10"/>
+      <c r="GF50" s="10"/>
+      <c r="GG50" s="10"/>
+      <c r="GH50" s="10"/>
+      <c r="GI50" s="10"/>
+      <c r="GJ50" s="10"/>
+      <c r="GK50" s="10"/>
+      <c r="GL50" s="10"/>
+      <c r="GM50" s="10"/>
+      <c r="GN50" s="10"/>
+      <c r="GO50" s="10"/>
+      <c r="GP50" s="10"/>
+      <c r="GQ50" s="10"/>
+      <c r="GR50" s="10"/>
+      <c r="GS50" s="10"/>
+      <c r="GT50" s="10"/>
+      <c r="GU50" s="10"/>
+      <c r="GV50" s="10"/>
+      <c r="GW50" s="10"/>
+      <c r="GX50" s="10"/>
+      <c r="GY50" s="10"/>
+      <c r="GZ50" s="10"/>
+      <c r="HA50" s="10"/>
+      <c r="HB50" s="10"/>
+      <c r="HC50" s="10"/>
+      <c r="HD50" s="10"/>
+      <c r="HE50" s="10"/>
+      <c r="HF50" s="10"/>
+      <c r="HG50" s="10"/>
+      <c r="HH50" s="10"/>
+      <c r="HI50" s="10"/>
+      <c r="HJ50" s="10"/>
+      <c r="HK50" s="10"/>
+      <c r="HL50" s="10"/>
+      <c r="HM50" s="10"/>
+      <c r="HN50" s="10"/>
+      <c r="HO50" s="10"/>
+      <c r="HP50" s="10"/>
+      <c r="HQ50" s="10"/>
+      <c r="HR50" s="10"/>
+      <c r="HS50" s="10"/>
+      <c r="HT50" s="10"/>
+      <c r="HU50" s="10"/>
+      <c r="HV50" s="10"/>
+      <c r="HW50" s="10"/>
+      <c r="HX50" s="10"/>
+      <c r="HY50" s="10"/>
+      <c r="HZ50" s="10"/>
+      <c r="IA50" s="10"/>
+      <c r="IB50" s="10"/>
+      <c r="IC50" s="10"/>
+      <c r="ID50" s="10"/>
+      <c r="IE50" s="10"/>
+      <c r="IF50" s="10"/>
+      <c r="IG50" s="10"/>
+      <c r="IH50" s="10"/>
+      <c r="II50" s="10"/>
+      <c r="IJ50" s="10"/>
+      <c r="IK50" s="10"/>
+      <c r="IL50" s="10"/>
+      <c r="IM50" s="10"/>
+      <c r="IN50" s="10"/>
+      <c r="IO50" s="10"/>
+      <c r="IP50" s="10"/>
+      <c r="IQ50" s="10"/>
+      <c r="IR50" s="10"/>
+      <c r="IS50" s="10"/>
+      <c r="IT50" s="10"/>
+      <c r="IU50" s="10"/>
+      <c r="IV50" s="10"/>
+      <c r="IW50" s="10"/>
+      <c r="IX50" s="10"/>
+      <c r="IY50" s="10"/>
+      <c r="IZ50" s="10"/>
+      <c r="JA50" s="10"/>
+      <c r="JB50" s="10"/>
+      <c r="JC50" s="10"/>
+      <c r="JD50" s="10"/>
+      <c r="JE50" s="10"/>
+      <c r="JF50" s="10"/>
+      <c r="JG50" s="10"/>
+      <c r="JH50" s="10"/>
+      <c r="JI50" s="10"/>
+      <c r="JJ50" s="10"/>
+      <c r="JK50" s="10"/>
+      <c r="JL50" s="10"/>
+      <c r="JM50" s="10"/>
+      <c r="JN50" s="10"/>
+      <c r="JO50" s="10"/>
+      <c r="JP50" s="10"/>
+      <c r="JQ50" s="10"/>
+      <c r="JR50" s="10"/>
+      <c r="JS50" s="10"/>
+      <c r="JT50" s="10"/>
+      <c r="JU50" s="10"/>
+      <c r="JV50" s="10"/>
+      <c r="JW50" s="10"/>
+      <c r="JX50" s="10"/>
+      <c r="JY50" s="10"/>
+      <c r="JZ50" s="10"/>
+      <c r="KA50" s="10"/>
+      <c r="KB50" s="10"/>
+      <c r="KC50" s="10"/>
+      <c r="KD50" s="10"/>
+      <c r="KE50" s="10"/>
+    </row>
+    <row r="51" spans="1:291">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:291" s="6" customFormat="1">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="10"/>
+      <c r="AR52" s="10"/>
+      <c r="AS52" s="10"/>
+      <c r="AT52" s="10"/>
+      <c r="AU52" s="10"/>
+      <c r="AV52" s="10"/>
+      <c r="AW52" s="10"/>
+      <c r="AX52" s="10"/>
+      <c r="AY52" s="10"/>
+      <c r="AZ52" s="10"/>
+      <c r="BA52" s="10"/>
+      <c r="BB52" s="10"/>
+      <c r="BC52" s="10"/>
+      <c r="BD52" s="10"/>
+      <c r="BE52" s="10"/>
+      <c r="BF52" s="10"/>
+      <c r="BG52" s="10"/>
+      <c r="BH52" s="10"/>
+      <c r="BI52" s="10"/>
+      <c r="BJ52" s="10"/>
+      <c r="BK52" s="10"/>
+      <c r="BL52" s="10"/>
+      <c r="BM52" s="10"/>
+      <c r="BN52" s="10"/>
+      <c r="BO52" s="10"/>
+      <c r="BP52" s="10"/>
+      <c r="BQ52" s="10"/>
+      <c r="BR52" s="10"/>
+      <c r="BS52" s="10"/>
+      <c r="BT52" s="10"/>
+      <c r="BU52" s="10"/>
+      <c r="BV52" s="10"/>
+      <c r="BW52" s="10"/>
+      <c r="BX52" s="10"/>
+      <c r="BY52" s="10"/>
+      <c r="BZ52" s="10"/>
+      <c r="CA52" s="10"/>
+      <c r="CB52" s="10"/>
+      <c r="CC52" s="10"/>
+      <c r="CD52" s="10"/>
+      <c r="CE52" s="10"/>
+      <c r="CF52" s="10"/>
+      <c r="CG52" s="10"/>
+      <c r="CH52" s="10"/>
+      <c r="CI52" s="10"/>
+      <c r="CJ52" s="10"/>
+      <c r="CK52" s="10"/>
+      <c r="CL52" s="10"/>
+      <c r="CM52" s="10"/>
+      <c r="CN52" s="10"/>
+      <c r="CO52" s="10"/>
+      <c r="CP52" s="10"/>
+      <c r="CQ52" s="10"/>
+      <c r="CR52" s="10"/>
+      <c r="CS52" s="10"/>
+      <c r="CT52" s="10"/>
+      <c r="CU52" s="10"/>
+      <c r="CV52" s="10"/>
+      <c r="CW52" s="10"/>
+      <c r="CX52" s="10"/>
+      <c r="CY52" s="10"/>
+      <c r="CZ52" s="10"/>
+      <c r="DA52" s="10"/>
+      <c r="DB52" s="10"/>
+      <c r="DC52" s="10"/>
+      <c r="DD52" s="10"/>
+      <c r="DE52" s="10"/>
+      <c r="DF52" s="10"/>
+      <c r="DG52" s="10"/>
+      <c r="DH52" s="10"/>
+      <c r="DI52" s="10"/>
+      <c r="DJ52" s="10"/>
+      <c r="DK52" s="10"/>
+      <c r="DL52" s="10"/>
+      <c r="DM52" s="10"/>
+      <c r="DN52" s="10"/>
+      <c r="DO52" s="10"/>
+      <c r="DP52" s="10"/>
+      <c r="DQ52" s="10"/>
+      <c r="DR52" s="10"/>
+      <c r="DS52" s="10"/>
+      <c r="DT52" s="10"/>
+      <c r="DU52" s="10"/>
+      <c r="DV52" s="10"/>
+      <c r="DW52" s="10"/>
+      <c r="DX52" s="10"/>
+      <c r="DY52" s="10"/>
+      <c r="DZ52" s="10"/>
+      <c r="EA52" s="10"/>
+      <c r="EB52" s="10"/>
+      <c r="EC52" s="10"/>
+      <c r="ED52" s="10"/>
+      <c r="EE52" s="10"/>
+      <c r="EF52" s="10"/>
+      <c r="EG52" s="10"/>
+      <c r="EH52" s="10"/>
+      <c r="EI52" s="10"/>
+      <c r="EJ52" s="10"/>
+      <c r="EK52" s="10"/>
+      <c r="EL52" s="10"/>
+      <c r="EM52" s="10"/>
+      <c r="EN52" s="10"/>
+      <c r="EO52" s="10"/>
+      <c r="EP52" s="10"/>
+      <c r="EQ52" s="10"/>
+      <c r="ER52" s="10"/>
+      <c r="ES52" s="10"/>
+      <c r="ET52" s="10"/>
+      <c r="EU52" s="10"/>
+      <c r="EV52" s="10"/>
+      <c r="EW52" s="10"/>
+      <c r="EX52" s="10"/>
+      <c r="EY52" s="10"/>
+      <c r="EZ52" s="10"/>
+      <c r="FA52" s="10"/>
+      <c r="FB52" s="10"/>
+      <c r="FC52" s="10"/>
+      <c r="FD52" s="10"/>
+      <c r="FE52" s="10"/>
+      <c r="FF52" s="10"/>
+      <c r="FG52" s="10"/>
+      <c r="FH52" s="10"/>
+      <c r="FI52" s="10"/>
+      <c r="FJ52" s="10"/>
+      <c r="FK52" s="10"/>
+      <c r="FL52" s="10"/>
+      <c r="FM52" s="10"/>
+      <c r="FN52" s="10"/>
+      <c r="FO52" s="10"/>
+      <c r="FP52" s="10"/>
+      <c r="FQ52" s="10"/>
+      <c r="FR52" s="10"/>
+      <c r="FS52" s="10"/>
+      <c r="FT52" s="10"/>
+      <c r="FU52" s="10"/>
+      <c r="FV52" s="10"/>
+      <c r="FW52" s="10"/>
+      <c r="FX52" s="10"/>
+      <c r="FY52" s="10"/>
+      <c r="FZ52" s="10"/>
+      <c r="GA52" s="10"/>
+      <c r="GB52" s="10"/>
+      <c r="GC52" s="10"/>
+      <c r="GD52" s="10"/>
+      <c r="GE52" s="10"/>
+      <c r="GF52" s="10"/>
+      <c r="GG52" s="10"/>
+      <c r="GH52" s="10"/>
+      <c r="GI52" s="10"/>
+      <c r="GJ52" s="10"/>
+      <c r="GK52" s="10"/>
+      <c r="GL52" s="10"/>
+      <c r="GM52" s="10"/>
+      <c r="GN52" s="10"/>
+      <c r="GO52" s="10"/>
+      <c r="GP52" s="10"/>
+      <c r="GQ52" s="10"/>
+      <c r="GR52" s="10"/>
+      <c r="GS52" s="10"/>
+      <c r="GT52" s="10"/>
+      <c r="GU52" s="10"/>
+      <c r="GV52" s="10"/>
+      <c r="GW52" s="10"/>
+      <c r="GX52" s="10"/>
+      <c r="GY52" s="10"/>
+      <c r="GZ52" s="10"/>
+      <c r="HA52" s="10"/>
+      <c r="HB52" s="10"/>
+      <c r="HC52" s="10"/>
+      <c r="HD52" s="10"/>
+      <c r="HE52" s="10"/>
+      <c r="HF52" s="10"/>
+      <c r="HG52" s="10"/>
+      <c r="HH52" s="10"/>
+      <c r="HI52" s="10"/>
+      <c r="HJ52" s="10"/>
+      <c r="HK52" s="10"/>
+      <c r="HL52" s="10"/>
+      <c r="HM52" s="10"/>
+      <c r="HN52" s="10"/>
+      <c r="HO52" s="10"/>
+      <c r="HP52" s="10"/>
+      <c r="HQ52" s="10"/>
+      <c r="HR52" s="10"/>
+      <c r="HS52" s="10"/>
+      <c r="HT52" s="10"/>
+      <c r="HU52" s="10"/>
+      <c r="HV52" s="10"/>
+      <c r="HW52" s="10"/>
+      <c r="HX52" s="10"/>
+      <c r="HY52" s="10"/>
+      <c r="HZ52" s="10"/>
+      <c r="IA52" s="10"/>
+      <c r="IB52" s="10"/>
+      <c r="IC52" s="10"/>
+      <c r="ID52" s="10"/>
+      <c r="IE52" s="10"/>
+      <c r="IF52" s="10"/>
+      <c r="IG52" s="10"/>
+      <c r="IH52" s="10"/>
+      <c r="II52" s="10"/>
+      <c r="IJ52" s="10"/>
+      <c r="IK52" s="10"/>
+      <c r="IL52" s="10"/>
+      <c r="IM52" s="10"/>
+      <c r="IN52" s="10"/>
+      <c r="IO52" s="10"/>
+      <c r="IP52" s="10"/>
+      <c r="IQ52" s="10"/>
+      <c r="IR52" s="10"/>
+      <c r="IS52" s="10"/>
+      <c r="IT52" s="10"/>
+      <c r="IU52" s="10"/>
+      <c r="IV52" s="10"/>
+      <c r="IW52" s="10"/>
+      <c r="IX52" s="10"/>
+      <c r="IY52" s="10"/>
+      <c r="IZ52" s="10"/>
+      <c r="JA52" s="10"/>
+      <c r="JB52" s="10"/>
+      <c r="JC52" s="10"/>
+      <c r="JD52" s="10"/>
+      <c r="JE52" s="10"/>
+      <c r="JF52" s="10"/>
+      <c r="JG52" s="10"/>
+      <c r="JH52" s="10"/>
+      <c r="JI52" s="10"/>
+      <c r="JJ52" s="10"/>
+      <c r="JK52" s="10"/>
+      <c r="JL52" s="10"/>
+      <c r="JM52" s="10"/>
+      <c r="JN52" s="10"/>
+      <c r="JO52" s="10"/>
+      <c r="JP52" s="10"/>
+      <c r="JQ52" s="10"/>
+      <c r="JR52" s="10"/>
+      <c r="JS52" s="10"/>
+      <c r="JT52" s="10"/>
+      <c r="JU52" s="10"/>
+      <c r="JV52" s="10"/>
+      <c r="JW52" s="10"/>
+      <c r="JX52" s="10"/>
+      <c r="JY52" s="10"/>
+      <c r="JZ52" s="10"/>
+      <c r="KA52" s="10"/>
+      <c r="KB52" s="10"/>
+      <c r="KC52" s="10"/>
+      <c r="KD52" s="10"/>
+      <c r="KE52" s="10"/>
+    </row>
+    <row r="53" spans="1:291">
+      <c r="A53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:291">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:291">
+      <c r="A55" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:291">
+      <c r="A56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:291">
+      <c r="A57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:291">
+      <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:291">
+      <c r="A59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:291" s="5" customFormat="1">
+      <c r="A60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="10"/>
+      <c r="AS60" s="10"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10"/>
+      <c r="AV60" s="10"/>
+      <c r="AW60" s="10"/>
+      <c r="AX60" s="10"/>
+      <c r="AY60" s="10"/>
+      <c r="AZ60" s="10"/>
+      <c r="BA60" s="10"/>
+      <c r="BB60" s="10"/>
+      <c r="BC60" s="10"/>
+      <c r="BD60" s="10"/>
+      <c r="BE60" s="10"/>
+      <c r="BF60" s="10"/>
+      <c r="BG60" s="10"/>
+      <c r="BH60" s="10"/>
+      <c r="BI60" s="10"/>
+      <c r="BJ60" s="10"/>
+      <c r="BK60" s="10"/>
+      <c r="BL60" s="10"/>
+      <c r="BM60" s="10"/>
+      <c r="BN60" s="10"/>
+      <c r="BO60" s="10"/>
+      <c r="BP60" s="10"/>
+      <c r="BQ60" s="10"/>
+      <c r="BR60" s="10"/>
+      <c r="BS60" s="10"/>
+      <c r="BT60" s="10"/>
+      <c r="BU60" s="10"/>
+      <c r="BV60" s="10"/>
+      <c r="BW60" s="10"/>
+      <c r="BX60" s="10"/>
+      <c r="BY60" s="10"/>
+      <c r="BZ60" s="10"/>
+      <c r="CA60" s="10"/>
+      <c r="CB60" s="10"/>
+      <c r="CC60" s="10"/>
+      <c r="CD60" s="10"/>
+      <c r="CE60" s="10"/>
+      <c r="CF60" s="10"/>
+      <c r="CG60" s="10"/>
+      <c r="CH60" s="10"/>
+      <c r="CI60" s="10"/>
+      <c r="CJ60" s="10"/>
+      <c r="CK60" s="10"/>
+      <c r="CL60" s="10"/>
+      <c r="CM60" s="10"/>
+      <c r="CN60" s="10"/>
+      <c r="CO60" s="10"/>
+      <c r="CP60" s="10"/>
+      <c r="CQ60" s="10"/>
+      <c r="CR60" s="10"/>
+      <c r="CS60" s="10"/>
+      <c r="CT60" s="10"/>
+      <c r="CU60" s="10"/>
+      <c r="CV60" s="10"/>
+      <c r="CW60" s="10"/>
+      <c r="CX60" s="10"/>
+      <c r="CY60" s="10"/>
+      <c r="CZ60" s="10"/>
+      <c r="DA60" s="10"/>
+      <c r="DB60" s="10"/>
+      <c r="DC60" s="10"/>
+      <c r="DD60" s="10"/>
+      <c r="DE60" s="10"/>
+      <c r="DF60" s="10"/>
+      <c r="DG60" s="10"/>
+      <c r="DH60" s="10"/>
+      <c r="DI60" s="10"/>
+      <c r="DJ60" s="10"/>
+      <c r="DK60" s="10"/>
+      <c r="DL60" s="10"/>
+      <c r="DM60" s="10"/>
+      <c r="DN60" s="10"/>
+      <c r="DO60" s="10"/>
+      <c r="DP60" s="10"/>
+      <c r="DQ60" s="10"/>
+      <c r="DR60" s="10"/>
+      <c r="DS60" s="10"/>
+      <c r="DT60" s="10"/>
+      <c r="DU60" s="10"/>
+      <c r="DV60" s="10"/>
+      <c r="DW60" s="10"/>
+      <c r="DX60" s="10"/>
+      <c r="DY60" s="10"/>
+      <c r="DZ60" s="10"/>
+      <c r="EA60" s="10"/>
+      <c r="EB60" s="10"/>
+      <c r="EC60" s="10"/>
+      <c r="ED60" s="10"/>
+      <c r="EE60" s="10"/>
+      <c r="EF60" s="10"/>
+      <c r="EG60" s="10"/>
+      <c r="EH60" s="10"/>
+      <c r="EI60" s="10"/>
+      <c r="EJ60" s="10"/>
+      <c r="EK60" s="10"/>
+      <c r="EL60" s="10"/>
+      <c r="EM60" s="10"/>
+      <c r="EN60" s="10"/>
+      <c r="EO60" s="10"/>
+      <c r="EP60" s="10"/>
+      <c r="EQ60" s="10"/>
+      <c r="ER60" s="10"/>
+      <c r="ES60" s="10"/>
+      <c r="ET60" s="10"/>
+      <c r="EU60" s="10"/>
+      <c r="EV60" s="10"/>
+      <c r="EW60" s="10"/>
+      <c r="EX60" s="10"/>
+      <c r="EY60" s="10"/>
+      <c r="EZ60" s="10"/>
+      <c r="FA60" s="10"/>
+      <c r="FB60" s="10"/>
+      <c r="FC60" s="10"/>
+      <c r="FD60" s="10"/>
+      <c r="FE60" s="10"/>
+      <c r="FF60" s="10"/>
+      <c r="FG60" s="10"/>
+      <c r="FH60" s="10"/>
+      <c r="FI60" s="10"/>
+      <c r="FJ60" s="10"/>
+      <c r="FK60" s="10"/>
+      <c r="FL60" s="10"/>
+      <c r="FM60" s="10"/>
+      <c r="FN60" s="10"/>
+      <c r="FO60" s="10"/>
+      <c r="FP60" s="10"/>
+      <c r="FQ60" s="10"/>
+      <c r="FR60" s="10"/>
+      <c r="FS60" s="10"/>
+      <c r="FT60" s="10"/>
+      <c r="FU60" s="10"/>
+      <c r="FV60" s="10"/>
+      <c r="FW60" s="10"/>
+      <c r="FX60" s="10"/>
+      <c r="FY60" s="10"/>
+      <c r="FZ60" s="10"/>
+      <c r="GA60" s="10"/>
+      <c r="GB60" s="10"/>
+      <c r="GC60" s="10"/>
+      <c r="GD60" s="10"/>
+      <c r="GE60" s="10"/>
+      <c r="GF60" s="10"/>
+      <c r="GG60" s="10"/>
+      <c r="GH60" s="10"/>
+      <c r="GI60" s="10"/>
+      <c r="GJ60" s="10"/>
+      <c r="GK60" s="10"/>
+      <c r="GL60" s="10"/>
+      <c r="GM60" s="10"/>
+      <c r="GN60" s="10"/>
+      <c r="GO60" s="10"/>
+      <c r="GP60" s="10"/>
+      <c r="GQ60" s="10"/>
+      <c r="GR60" s="10"/>
+      <c r="GS60" s="10"/>
+      <c r="GT60" s="10"/>
+      <c r="GU60" s="10"/>
+      <c r="GV60" s="10"/>
+      <c r="GW60" s="10"/>
+      <c r="GX60" s="10"/>
+      <c r="GY60" s="10"/>
+      <c r="GZ60" s="10"/>
+      <c r="HA60" s="10"/>
+      <c r="HB60" s="10"/>
+      <c r="HC60" s="10"/>
+      <c r="HD60" s="10"/>
+      <c r="HE60" s="10"/>
+      <c r="HF60" s="10"/>
+      <c r="HG60" s="10"/>
+      <c r="HH60" s="10"/>
+      <c r="HI60" s="10"/>
+      <c r="HJ60" s="10"/>
+      <c r="HK60" s="10"/>
+      <c r="HL60" s="10"/>
+      <c r="HM60" s="10"/>
+      <c r="HN60" s="10"/>
+      <c r="HO60" s="10"/>
+      <c r="HP60" s="10"/>
+      <c r="HQ60" s="10"/>
+      <c r="HR60" s="10"/>
+      <c r="HS60" s="10"/>
+      <c r="HT60" s="10"/>
+      <c r="HU60" s="10"/>
+      <c r="HV60" s="10"/>
+      <c r="HW60" s="10"/>
+      <c r="HX60" s="10"/>
+      <c r="HY60" s="10"/>
+      <c r="HZ60" s="10"/>
+      <c r="IA60" s="10"/>
+      <c r="IB60" s="10"/>
+      <c r="IC60" s="10"/>
+      <c r="ID60" s="10"/>
+      <c r="IE60" s="10"/>
+      <c r="IF60" s="10"/>
+      <c r="IG60" s="10"/>
+      <c r="IH60" s="10"/>
+      <c r="II60" s="10"/>
+      <c r="IJ60" s="10"/>
+      <c r="IK60" s="10"/>
+      <c r="IL60" s="10"/>
+      <c r="IM60" s="10"/>
+      <c r="IN60" s="10"/>
+      <c r="IO60" s="10"/>
+      <c r="IP60" s="10"/>
+      <c r="IQ60" s="10"/>
+      <c r="IR60" s="10"/>
+      <c r="IS60" s="10"/>
+      <c r="IT60" s="10"/>
+      <c r="IU60" s="10"/>
+      <c r="IV60" s="10"/>
+      <c r="IW60" s="10"/>
+      <c r="IX60" s="10"/>
+      <c r="IY60" s="10"/>
+      <c r="IZ60" s="10"/>
+      <c r="JA60" s="10"/>
+      <c r="JB60" s="10"/>
+      <c r="JC60" s="10"/>
+      <c r="JD60" s="10"/>
+      <c r="JE60" s="10"/>
+      <c r="JF60" s="10"/>
+      <c r="JG60" s="10"/>
+      <c r="JH60" s="10"/>
+      <c r="JI60" s="10"/>
+      <c r="JJ60" s="10"/>
+      <c r="JK60" s="10"/>
+      <c r="JL60" s="10"/>
+      <c r="JM60" s="10"/>
+      <c r="JN60" s="10"/>
+      <c r="JO60" s="10"/>
+      <c r="JP60" s="10"/>
+      <c r="JQ60" s="10"/>
+      <c r="JR60" s="10"/>
+      <c r="JS60" s="10"/>
+      <c r="JT60" s="10"/>
+      <c r="JU60" s="10"/>
+      <c r="JV60" s="10"/>
+      <c r="JW60" s="10"/>
+      <c r="JX60" s="10"/>
+      <c r="JY60" s="10"/>
+      <c r="JZ60" s="10"/>
+      <c r="KA60" s="10"/>
+      <c r="KB60" s="10"/>
+      <c r="KC60" s="10"/>
+      <c r="KD60" s="10"/>
+      <c r="KE60" s="10"/>
+    </row>
+    <row r="61" spans="1:291">
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:291">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:291">
+      <c r="A63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:291">
+      <c r="A64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:291" s="5" customFormat="1">
+      <c r="A65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="10"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="10"/>
+      <c r="AQ65" s="10"/>
+      <c r="AR65" s="10"/>
+      <c r="AS65" s="10"/>
+      <c r="AT65" s="10"/>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="10"/>
+      <c r="AW65" s="10"/>
+      <c r="AX65" s="10"/>
+      <c r="AY65" s="10"/>
+      <c r="AZ65" s="10"/>
+      <c r="BA65" s="10"/>
+      <c r="BB65" s="10"/>
+      <c r="BC65" s="10"/>
+      <c r="BD65" s="10"/>
+      <c r="BE65" s="10"/>
+      <c r="BF65" s="10"/>
+      <c r="BG65" s="10"/>
+      <c r="BH65" s="10"/>
+      <c r="BI65" s="10"/>
+      <c r="BJ65" s="10"/>
+      <c r="BK65" s="10"/>
+      <c r="BL65" s="10"/>
+      <c r="BM65" s="10"/>
+      <c r="BN65" s="10"/>
+      <c r="BO65" s="10"/>
+      <c r="BP65" s="10"/>
+      <c r="BQ65" s="10"/>
+      <c r="BR65" s="10"/>
+      <c r="BS65" s="10"/>
+      <c r="BT65" s="10"/>
+      <c r="BU65" s="10"/>
+      <c r="BV65" s="10"/>
+      <c r="BW65" s="10"/>
+      <c r="BX65" s="10"/>
+      <c r="BY65" s="10"/>
+      <c r="BZ65" s="10"/>
+      <c r="CA65" s="10"/>
+      <c r="CB65" s="10"/>
+      <c r="CC65" s="10"/>
+      <c r="CD65" s="10"/>
+      <c r="CE65" s="10"/>
+      <c r="CF65" s="10"/>
+      <c r="CG65" s="10"/>
+      <c r="CH65" s="10"/>
+      <c r="CI65" s="10"/>
+      <c r="CJ65" s="10"/>
+      <c r="CK65" s="10"/>
+      <c r="CL65" s="10"/>
+      <c r="CM65" s="10"/>
+      <c r="CN65" s="10"/>
+      <c r="CO65" s="10"/>
+      <c r="CP65" s="10"/>
+      <c r="CQ65" s="10"/>
+      <c r="CR65" s="10"/>
+      <c r="CS65" s="10"/>
+      <c r="CT65" s="10"/>
+      <c r="CU65" s="10"/>
+      <c r="CV65" s="10"/>
+      <c r="CW65" s="10"/>
+      <c r="CX65" s="10"/>
+      <c r="CY65" s="10"/>
+      <c r="CZ65" s="10"/>
+      <c r="DA65" s="10"/>
+      <c r="DB65" s="10"/>
+      <c r="DC65" s="10"/>
+      <c r="DD65" s="10"/>
+      <c r="DE65" s="10"/>
+      <c r="DF65" s="10"/>
+      <c r="DG65" s="10"/>
+      <c r="DH65" s="10"/>
+      <c r="DI65" s="10"/>
+      <c r="DJ65" s="10"/>
+      <c r="DK65" s="10"/>
+      <c r="DL65" s="10"/>
+      <c r="DM65" s="10"/>
+      <c r="DN65" s="10"/>
+      <c r="DO65" s="10"/>
+      <c r="DP65" s="10"/>
+      <c r="DQ65" s="10"/>
+      <c r="DR65" s="10"/>
+      <c r="DS65" s="10"/>
+      <c r="DT65" s="10"/>
+      <c r="DU65" s="10"/>
+      <c r="DV65" s="10"/>
+      <c r="DW65" s="10"/>
+      <c r="DX65" s="10"/>
+      <c r="DY65" s="10"/>
+      <c r="DZ65" s="10"/>
+      <c r="EA65" s="10"/>
+      <c r="EB65" s="10"/>
+      <c r="EC65" s="10"/>
+      <c r="ED65" s="10"/>
+      <c r="EE65" s="10"/>
+      <c r="EF65" s="10"/>
+      <c r="EG65" s="10"/>
+      <c r="EH65" s="10"/>
+      <c r="EI65" s="10"/>
+      <c r="EJ65" s="10"/>
+      <c r="EK65" s="10"/>
+      <c r="EL65" s="10"/>
+      <c r="EM65" s="10"/>
+      <c r="EN65" s="10"/>
+      <c r="EO65" s="10"/>
+      <c r="EP65" s="10"/>
+      <c r="EQ65" s="10"/>
+      <c r="ER65" s="10"/>
+      <c r="ES65" s="10"/>
+      <c r="ET65" s="10"/>
+      <c r="EU65" s="10"/>
+      <c r="EV65" s="10"/>
+      <c r="EW65" s="10"/>
+      <c r="EX65" s="10"/>
+      <c r="EY65" s="10"/>
+      <c r="EZ65" s="10"/>
+      <c r="FA65" s="10"/>
+      <c r="FB65" s="10"/>
+      <c r="FC65" s="10"/>
+      <c r="FD65" s="10"/>
+      <c r="FE65" s="10"/>
+      <c r="FF65" s="10"/>
+      <c r="FG65" s="10"/>
+      <c r="FH65" s="10"/>
+      <c r="FI65" s="10"/>
+      <c r="FJ65" s="10"/>
+      <c r="FK65" s="10"/>
+      <c r="FL65" s="10"/>
+      <c r="FM65" s="10"/>
+      <c r="FN65" s="10"/>
+      <c r="FO65" s="10"/>
+      <c r="FP65" s="10"/>
+      <c r="FQ65" s="10"/>
+      <c r="FR65" s="10"/>
+      <c r="FS65" s="10"/>
+      <c r="FT65" s="10"/>
+      <c r="FU65" s="10"/>
+      <c r="FV65" s="10"/>
+      <c r="FW65" s="10"/>
+      <c r="FX65" s="10"/>
+      <c r="FY65" s="10"/>
+      <c r="FZ65" s="10"/>
+      <c r="GA65" s="10"/>
+      <c r="GB65" s="10"/>
+      <c r="GC65" s="10"/>
+      <c r="GD65" s="10"/>
+      <c r="GE65" s="10"/>
+      <c r="GF65" s="10"/>
+      <c r="GG65" s="10"/>
+      <c r="GH65" s="10"/>
+      <c r="GI65" s="10"/>
+      <c r="GJ65" s="10"/>
+      <c r="GK65" s="10"/>
+      <c r="GL65" s="10"/>
+      <c r="GM65" s="10"/>
+      <c r="GN65" s="10"/>
+      <c r="GO65" s="10"/>
+      <c r="GP65" s="10"/>
+      <c r="GQ65" s="10"/>
+      <c r="GR65" s="10"/>
+      <c r="GS65" s="10"/>
+      <c r="GT65" s="10"/>
+      <c r="GU65" s="10"/>
+      <c r="GV65" s="10"/>
+      <c r="GW65" s="10"/>
+      <c r="GX65" s="10"/>
+      <c r="GY65" s="10"/>
+      <c r="GZ65" s="10"/>
+      <c r="HA65" s="10"/>
+      <c r="HB65" s="10"/>
+      <c r="HC65" s="10"/>
+      <c r="HD65" s="10"/>
+      <c r="HE65" s="10"/>
+      <c r="HF65" s="10"/>
+      <c r="HG65" s="10"/>
+      <c r="HH65" s="10"/>
+      <c r="HI65" s="10"/>
+      <c r="HJ65" s="10"/>
+      <c r="HK65" s="10"/>
+      <c r="HL65" s="10"/>
+      <c r="HM65" s="10"/>
+      <c r="HN65" s="10"/>
+      <c r="HO65" s="10"/>
+      <c r="HP65" s="10"/>
+      <c r="HQ65" s="10"/>
+      <c r="HR65" s="10"/>
+      <c r="HS65" s="10"/>
+      <c r="HT65" s="10"/>
+      <c r="HU65" s="10"/>
+      <c r="HV65" s="10"/>
+      <c r="HW65" s="10"/>
+      <c r="HX65" s="10"/>
+      <c r="HY65" s="10"/>
+      <c r="HZ65" s="10"/>
+      <c r="IA65" s="10"/>
+      <c r="IB65" s="10"/>
+      <c r="IC65" s="10"/>
+      <c r="ID65" s="10"/>
+      <c r="IE65" s="10"/>
+      <c r="IF65" s="10"/>
+      <c r="IG65" s="10"/>
+      <c r="IH65" s="10"/>
+      <c r="II65" s="10"/>
+      <c r="IJ65" s="10"/>
+      <c r="IK65" s="10"/>
+      <c r="IL65" s="10"/>
+      <c r="IM65" s="10"/>
+      <c r="IN65" s="10"/>
+      <c r="IO65" s="10"/>
+      <c r="IP65" s="10"/>
+      <c r="IQ65" s="10"/>
+      <c r="IR65" s="10"/>
+      <c r="IS65" s="10"/>
+      <c r="IT65" s="10"/>
+      <c r="IU65" s="10"/>
+      <c r="IV65" s="10"/>
+      <c r="IW65" s="10"/>
+      <c r="IX65" s="10"/>
+      <c r="IY65" s="10"/>
+      <c r="IZ65" s="10"/>
+      <c r="JA65" s="10"/>
+      <c r="JB65" s="10"/>
+      <c r="JC65" s="10"/>
+      <c r="JD65" s="10"/>
+      <c r="JE65" s="10"/>
+      <c r="JF65" s="10"/>
+      <c r="JG65" s="10"/>
+      <c r="JH65" s="10"/>
+      <c r="JI65" s="10"/>
+      <c r="JJ65" s="10"/>
+      <c r="JK65" s="10"/>
+      <c r="JL65" s="10"/>
+      <c r="JM65" s="10"/>
+      <c r="JN65" s="10"/>
+      <c r="JO65" s="10"/>
+      <c r="JP65" s="10"/>
+      <c r="JQ65" s="10"/>
+      <c r="JR65" s="10"/>
+      <c r="JS65" s="10"/>
+      <c r="JT65" s="10"/>
+      <c r="JU65" s="10"/>
+      <c r="JV65" s="10"/>
+      <c r="JW65" s="10"/>
+      <c r="JX65" s="10"/>
+      <c r="JY65" s="10"/>
+      <c r="JZ65" s="10"/>
+      <c r="KA65" s="10"/>
+      <c r="KB65" s="10"/>
+      <c r="KC65" s="10"/>
+      <c r="KD65" s="10"/>
+      <c r="KE65" s="10"/>
+    </row>
+    <row r="66" spans="1:291">
+      <c r="A66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:291">
+      <c r="A67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:291">
+      <c r="A68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:291">
+      <c r="A69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:291" s="5" customFormat="1">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="10"/>
+      <c r="AP70" s="10"/>
+      <c r="AQ70" s="10"/>
+      <c r="AR70" s="10"/>
+      <c r="AS70" s="10"/>
+      <c r="AT70" s="10"/>
+      <c r="AU70" s="10"/>
+      <c r="AV70" s="10"/>
+      <c r="AW70" s="10"/>
+      <c r="AX70" s="10"/>
+      <c r="AY70" s="10"/>
+      <c r="AZ70" s="10"/>
+      <c r="BA70" s="10"/>
+      <c r="BB70" s="10"/>
+      <c r="BC70" s="10"/>
+      <c r="BD70" s="10"/>
+      <c r="BE70" s="10"/>
+      <c r="BF70" s="10"/>
+      <c r="BG70" s="10"/>
+      <c r="BH70" s="10"/>
+      <c r="BI70" s="10"/>
+      <c r="BJ70" s="10"/>
+      <c r="BK70" s="10"/>
+      <c r="BL70" s="10"/>
+      <c r="BM70" s="10"/>
+      <c r="BN70" s="10"/>
+      <c r="BO70" s="10"/>
+      <c r="BP70" s="10"/>
+      <c r="BQ70" s="10"/>
+      <c r="BR70" s="10"/>
+      <c r="BS70" s="10"/>
+      <c r="BT70" s="10"/>
+      <c r="BU70" s="10"/>
+      <c r="BV70" s="10"/>
+      <c r="BW70" s="10"/>
+      <c r="BX70" s="10"/>
+      <c r="BY70" s="10"/>
+      <c r="BZ70" s="10"/>
+      <c r="CA70" s="10"/>
+      <c r="CB70" s="10"/>
+      <c r="CC70" s="10"/>
+      <c r="CD70" s="10"/>
+      <c r="CE70" s="10"/>
+      <c r="CF70" s="10"/>
+      <c r="CG70" s="10"/>
+      <c r="CH70" s="10"/>
+      <c r="CI70" s="10"/>
+      <c r="CJ70" s="10"/>
+      <c r="CK70" s="10"/>
+      <c r="CL70" s="10"/>
+      <c r="CM70" s="10"/>
+      <c r="CN70" s="10"/>
+      <c r="CO70" s="10"/>
+      <c r="CP70" s="10"/>
+      <c r="CQ70" s="10"/>
+      <c r="CR70" s="10"/>
+      <c r="CS70" s="10"/>
+      <c r="CT70" s="10"/>
+      <c r="CU70" s="10"/>
+      <c r="CV70" s="10"/>
+      <c r="CW70" s="10"/>
+      <c r="CX70" s="10"/>
+      <c r="CY70" s="10"/>
+      <c r="CZ70" s="10"/>
+      <c r="DA70" s="10"/>
+      <c r="DB70" s="10"/>
+      <c r="DC70" s="10"/>
+      <c r="DD70" s="10"/>
+      <c r="DE70" s="10"/>
+      <c r="DF70" s="10"/>
+      <c r="DG70" s="10"/>
+      <c r="DH70" s="10"/>
+      <c r="DI70" s="10"/>
+      <c r="DJ70" s="10"/>
+      <c r="DK70" s="10"/>
+      <c r="DL70" s="10"/>
+      <c r="DM70" s="10"/>
+      <c r="DN70" s="10"/>
+      <c r="DO70" s="10"/>
+      <c r="DP70" s="10"/>
+      <c r="DQ70" s="10"/>
+      <c r="DR70" s="10"/>
+      <c r="DS70" s="10"/>
+      <c r="DT70" s="10"/>
+      <c r="DU70" s="10"/>
+      <c r="DV70" s="10"/>
+      <c r="DW70" s="10"/>
+      <c r="DX70" s="10"/>
+      <c r="DY70" s="10"/>
+      <c r="DZ70" s="10"/>
+      <c r="EA70" s="10"/>
+      <c r="EB70" s="10"/>
+      <c r="EC70" s="10"/>
+      <c r="ED70" s="10"/>
+      <c r="EE70" s="10"/>
+      <c r="EF70" s="10"/>
+      <c r="EG70" s="10"/>
+      <c r="EH70" s="10"/>
+      <c r="EI70" s="10"/>
+      <c r="EJ70" s="10"/>
+      <c r="EK70" s="10"/>
+      <c r="EL70" s="10"/>
+      <c r="EM70" s="10"/>
+      <c r="EN70" s="10"/>
+      <c r="EO70" s="10"/>
+      <c r="EP70" s="10"/>
+      <c r="EQ70" s="10"/>
+      <c r="ER70" s="10"/>
+      <c r="ES70" s="10"/>
+      <c r="ET70" s="10"/>
+      <c r="EU70" s="10"/>
+      <c r="EV70" s="10"/>
+      <c r="EW70" s="10"/>
+      <c r="EX70" s="10"/>
+      <c r="EY70" s="10"/>
+      <c r="EZ70" s="10"/>
+      <c r="FA70" s="10"/>
+      <c r="FB70" s="10"/>
+      <c r="FC70" s="10"/>
+      <c r="FD70" s="10"/>
+      <c r="FE70" s="10"/>
+      <c r="FF70" s="10"/>
+      <c r="FG70" s="10"/>
+      <c r="FH70" s="10"/>
+      <c r="FI70" s="10"/>
+      <c r="FJ70" s="10"/>
+      <c r="FK70" s="10"/>
+      <c r="FL70" s="10"/>
+      <c r="FM70" s="10"/>
+      <c r="FN70" s="10"/>
+      <c r="FO70" s="10"/>
+      <c r="FP70" s="10"/>
+      <c r="FQ70" s="10"/>
+      <c r="FR70" s="10"/>
+      <c r="FS70" s="10"/>
+      <c r="FT70" s="10"/>
+      <c r="FU70" s="10"/>
+      <c r="FV70" s="10"/>
+      <c r="FW70" s="10"/>
+      <c r="FX70" s="10"/>
+      <c r="FY70" s="10"/>
+      <c r="FZ70" s="10"/>
+      <c r="GA70" s="10"/>
+      <c r="GB70" s="10"/>
+      <c r="GC70" s="10"/>
+      <c r="GD70" s="10"/>
+      <c r="GE70" s="10"/>
+      <c r="GF70" s="10"/>
+      <c r="GG70" s="10"/>
+      <c r="GH70" s="10"/>
+      <c r="GI70" s="10"/>
+      <c r="GJ70" s="10"/>
+      <c r="GK70" s="10"/>
+      <c r="GL70" s="10"/>
+      <c r="GM70" s="10"/>
+      <c r="GN70" s="10"/>
+      <c r="GO70" s="10"/>
+      <c r="GP70" s="10"/>
+      <c r="GQ70" s="10"/>
+      <c r="GR70" s="10"/>
+      <c r="GS70" s="10"/>
+      <c r="GT70" s="10"/>
+      <c r="GU70" s="10"/>
+      <c r="GV70" s="10"/>
+      <c r="GW70" s="10"/>
+      <c r="GX70" s="10"/>
+      <c r="GY70" s="10"/>
+      <c r="GZ70" s="10"/>
+      <c r="HA70" s="10"/>
+      <c r="HB70" s="10"/>
+      <c r="HC70" s="10"/>
+      <c r="HD70" s="10"/>
+      <c r="HE70" s="10"/>
+      <c r="HF70" s="10"/>
+      <c r="HG70" s="10"/>
+      <c r="HH70" s="10"/>
+      <c r="HI70" s="10"/>
+      <c r="HJ70" s="10"/>
+      <c r="HK70" s="10"/>
+      <c r="HL70" s="10"/>
+      <c r="HM70" s="10"/>
+      <c r="HN70" s="10"/>
+      <c r="HO70" s="10"/>
+      <c r="HP70" s="10"/>
+      <c r="HQ70" s="10"/>
+      <c r="HR70" s="10"/>
+      <c r="HS70" s="10"/>
+      <c r="HT70" s="10"/>
+      <c r="HU70" s="10"/>
+      <c r="HV70" s="10"/>
+      <c r="HW70" s="10"/>
+      <c r="HX70" s="10"/>
+      <c r="HY70" s="10"/>
+      <c r="HZ70" s="10"/>
+      <c r="IA70" s="10"/>
+      <c r="IB70" s="10"/>
+      <c r="IC70" s="10"/>
+      <c r="ID70" s="10"/>
+      <c r="IE70" s="10"/>
+      <c r="IF70" s="10"/>
+      <c r="IG70" s="10"/>
+      <c r="IH70" s="10"/>
+      <c r="II70" s="10"/>
+      <c r="IJ70" s="10"/>
+      <c r="IK70" s="10"/>
+      <c r="IL70" s="10"/>
+      <c r="IM70" s="10"/>
+      <c r="IN70" s="10"/>
+      <c r="IO70" s="10"/>
+      <c r="IP70" s="10"/>
+      <c r="IQ70" s="10"/>
+      <c r="IR70" s="10"/>
+      <c r="IS70" s="10"/>
+      <c r="IT70" s="10"/>
+      <c r="IU70" s="10"/>
+      <c r="IV70" s="10"/>
+      <c r="IW70" s="10"/>
+      <c r="IX70" s="10"/>
+      <c r="IY70" s="10"/>
+      <c r="IZ70" s="10"/>
+      <c r="JA70" s="10"/>
+      <c r="JB70" s="10"/>
+      <c r="JC70" s="10"/>
+      <c r="JD70" s="10"/>
+      <c r="JE70" s="10"/>
+      <c r="JF70" s="10"/>
+      <c r="JG70" s="10"/>
+      <c r="JH70" s="10"/>
+      <c r="JI70" s="10"/>
+      <c r="JJ70" s="10"/>
+      <c r="JK70" s="10"/>
+      <c r="JL70" s="10"/>
+      <c r="JM70" s="10"/>
+      <c r="JN70" s="10"/>
+      <c r="JO70" s="10"/>
+      <c r="JP70" s="10"/>
+      <c r="JQ70" s="10"/>
+      <c r="JR70" s="10"/>
+      <c r="JS70" s="10"/>
+      <c r="JT70" s="10"/>
+      <c r="JU70" s="10"/>
+      <c r="JV70" s="10"/>
+      <c r="JW70" s="10"/>
+      <c r="JX70" s="10"/>
+      <c r="JY70" s="10"/>
+      <c r="JZ70" s="10"/>
+      <c r="KA70" s="10"/>
+      <c r="KB70" s="10"/>
+      <c r="KC70" s="10"/>
+      <c r="KD70" s="10"/>
+      <c r="KE70" s="10"/>
+    </row>
+    <row r="71" spans="1:291" s="5" customFormat="1">
+      <c r="A71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="10"/>
+      <c r="AS71" s="10"/>
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="10"/>
+      <c r="AW71" s="10"/>
+      <c r="AX71" s="10"/>
+      <c r="AY71" s="10"/>
+      <c r="AZ71" s="10"/>
+      <c r="BA71" s="10"/>
+      <c r="BB71" s="10"/>
+      <c r="BC71" s="10"/>
+      <c r="BD71" s="10"/>
+      <c r="BE71" s="10"/>
+      <c r="BF71" s="10"/>
+      <c r="BG71" s="10"/>
+      <c r="BH71" s="10"/>
+      <c r="BI71" s="10"/>
+      <c r="BJ71" s="10"/>
+      <c r="BK71" s="10"/>
+      <c r="BL71" s="10"/>
+      <c r="BM71" s="10"/>
+      <c r="BN71" s="10"/>
+      <c r="BO71" s="10"/>
+      <c r="BP71" s="10"/>
+      <c r="BQ71" s="10"/>
+      <c r="BR71" s="10"/>
+      <c r="BS71" s="10"/>
+      <c r="BT71" s="10"/>
+      <c r="BU71" s="10"/>
+      <c r="BV71" s="10"/>
+      <c r="BW71" s="10"/>
+      <c r="BX71" s="10"/>
+      <c r="BY71" s="10"/>
+      <c r="BZ71" s="10"/>
+      <c r="CA71" s="10"/>
+      <c r="CB71" s="10"/>
+      <c r="CC71" s="10"/>
+      <c r="CD71" s="10"/>
+      <c r="CE71" s="10"/>
+      <c r="CF71" s="10"/>
+      <c r="CG71" s="10"/>
+      <c r="CH71" s="10"/>
+      <c r="CI71" s="10"/>
+      <c r="CJ71" s="10"/>
+      <c r="CK71" s="10"/>
+      <c r="CL71" s="10"/>
+      <c r="CM71" s="10"/>
+      <c r="CN71" s="10"/>
+      <c r="CO71" s="10"/>
+      <c r="CP71" s="10"/>
+      <c r="CQ71" s="10"/>
+      <c r="CR71" s="10"/>
+      <c r="CS71" s="10"/>
+      <c r="CT71" s="10"/>
+      <c r="CU71" s="10"/>
+      <c r="CV71" s="10"/>
+      <c r="CW71" s="10"/>
+      <c r="CX71" s="10"/>
+      <c r="CY71" s="10"/>
+      <c r="CZ71" s="10"/>
+      <c r="DA71" s="10"/>
+      <c r="DB71" s="10"/>
+      <c r="DC71" s="10"/>
+      <c r="DD71" s="10"/>
+      <c r="DE71" s="10"/>
+      <c r="DF71" s="10"/>
+      <c r="DG71" s="10"/>
+      <c r="DH71" s="10"/>
+      <c r="DI71" s="10"/>
+      <c r="DJ71" s="10"/>
+      <c r="DK71" s="10"/>
+      <c r="DL71" s="10"/>
+      <c r="DM71" s="10"/>
+      <c r="DN71" s="10"/>
+      <c r="DO71" s="10"/>
+      <c r="DP71" s="10"/>
+      <c r="DQ71" s="10"/>
+      <c r="DR71" s="10"/>
+      <c r="DS71" s="10"/>
+      <c r="DT71" s="10"/>
+      <c r="DU71" s="10"/>
+      <c r="DV71" s="10"/>
+      <c r="DW71" s="10"/>
+      <c r="DX71" s="10"/>
+      <c r="DY71" s="10"/>
+      <c r="DZ71" s="10"/>
+      <c r="EA71" s="10"/>
+      <c r="EB71" s="10"/>
+      <c r="EC71" s="10"/>
+      <c r="ED71" s="10"/>
+      <c r="EE71" s="10"/>
+      <c r="EF71" s="10"/>
+      <c r="EG71" s="10"/>
+      <c r="EH71" s="10"/>
+      <c r="EI71" s="10"/>
+      <c r="EJ71" s="10"/>
+      <c r="EK71" s="10"/>
+      <c r="EL71" s="10"/>
+      <c r="EM71" s="10"/>
+      <c r="EN71" s="10"/>
+      <c r="EO71" s="10"/>
+      <c r="EP71" s="10"/>
+      <c r="EQ71" s="10"/>
+      <c r="ER71" s="10"/>
+      <c r="ES71" s="10"/>
+      <c r="ET71" s="10"/>
+      <c r="EU71" s="10"/>
+      <c r="EV71" s="10"/>
+      <c r="EW71" s="10"/>
+      <c r="EX71" s="10"/>
+      <c r="EY71" s="10"/>
+      <c r="EZ71" s="10"/>
+      <c r="FA71" s="10"/>
+      <c r="FB71" s="10"/>
+      <c r="FC71" s="10"/>
+      <c r="FD71" s="10"/>
+      <c r="FE71" s="10"/>
+      <c r="FF71" s="10"/>
+      <c r="FG71" s="10"/>
+      <c r="FH71" s="10"/>
+      <c r="FI71" s="10"/>
+      <c r="FJ71" s="10"/>
+      <c r="FK71" s="10"/>
+      <c r="FL71" s="10"/>
+      <c r="FM71" s="10"/>
+      <c r="FN71" s="10"/>
+      <c r="FO71" s="10"/>
+      <c r="FP71" s="10"/>
+      <c r="FQ71" s="10"/>
+      <c r="FR71" s="10"/>
+      <c r="FS71" s="10"/>
+      <c r="FT71" s="10"/>
+      <c r="FU71" s="10"/>
+      <c r="FV71" s="10"/>
+      <c r="FW71" s="10"/>
+      <c r="FX71" s="10"/>
+      <c r="FY71" s="10"/>
+      <c r="FZ71" s="10"/>
+      <c r="GA71" s="10"/>
+      <c r="GB71" s="10"/>
+      <c r="GC71" s="10"/>
+      <c r="GD71" s="10"/>
+      <c r="GE71" s="10"/>
+      <c r="GF71" s="10"/>
+      <c r="GG71" s="10"/>
+      <c r="GH71" s="10"/>
+      <c r="GI71" s="10"/>
+      <c r="GJ71" s="10"/>
+      <c r="GK71" s="10"/>
+      <c r="GL71" s="10"/>
+      <c r="GM71" s="10"/>
+      <c r="GN71" s="10"/>
+      <c r="GO71" s="10"/>
+      <c r="GP71" s="10"/>
+      <c r="GQ71" s="10"/>
+      <c r="GR71" s="10"/>
+      <c r="GS71" s="10"/>
+      <c r="GT71" s="10"/>
+      <c r="GU71" s="10"/>
+      <c r="GV71" s="10"/>
+      <c r="GW71" s="10"/>
+      <c r="GX71" s="10"/>
+      <c r="GY71" s="10"/>
+      <c r="GZ71" s="10"/>
+      <c r="HA71" s="10"/>
+      <c r="HB71" s="10"/>
+      <c r="HC71" s="10"/>
+      <c r="HD71" s="10"/>
+      <c r="HE71" s="10"/>
+      <c r="HF71" s="10"/>
+      <c r="HG71" s="10"/>
+      <c r="HH71" s="10"/>
+      <c r="HI71" s="10"/>
+      <c r="HJ71" s="10"/>
+      <c r="HK71" s="10"/>
+      <c r="HL71" s="10"/>
+      <c r="HM71" s="10"/>
+      <c r="HN71" s="10"/>
+      <c r="HO71" s="10"/>
+      <c r="HP71" s="10"/>
+      <c r="HQ71" s="10"/>
+      <c r="HR71" s="10"/>
+      <c r="HS71" s="10"/>
+      <c r="HT71" s="10"/>
+      <c r="HU71" s="10"/>
+      <c r="HV71" s="10"/>
+      <c r="HW71" s="10"/>
+      <c r="HX71" s="10"/>
+      <c r="HY71" s="10"/>
+      <c r="HZ71" s="10"/>
+      <c r="IA71" s="10"/>
+      <c r="IB71" s="10"/>
+      <c r="IC71" s="10"/>
+      <c r="ID71" s="10"/>
+      <c r="IE71" s="10"/>
+      <c r="IF71" s="10"/>
+      <c r="IG71" s="10"/>
+      <c r="IH71" s="10"/>
+      <c r="II71" s="10"/>
+      <c r="IJ71" s="10"/>
+      <c r="IK71" s="10"/>
+      <c r="IL71" s="10"/>
+      <c r="IM71" s="10"/>
+      <c r="IN71" s="10"/>
+      <c r="IO71" s="10"/>
+      <c r="IP71" s="10"/>
+      <c r="IQ71" s="10"/>
+      <c r="IR71" s="10"/>
+      <c r="IS71" s="10"/>
+      <c r="IT71" s="10"/>
+      <c r="IU71" s="10"/>
+      <c r="IV71" s="10"/>
+      <c r="IW71" s="10"/>
+      <c r="IX71" s="10"/>
+      <c r="IY71" s="10"/>
+      <c r="IZ71" s="10"/>
+      <c r="JA71" s="10"/>
+      <c r="JB71" s="10"/>
+      <c r="JC71" s="10"/>
+      <c r="JD71" s="10"/>
+      <c r="JE71" s="10"/>
+      <c r="JF71" s="10"/>
+      <c r="JG71" s="10"/>
+      <c r="JH71" s="10"/>
+      <c r="JI71" s="10"/>
+      <c r="JJ71" s="10"/>
+      <c r="JK71" s="10"/>
+      <c r="JL71" s="10"/>
+      <c r="JM71" s="10"/>
+      <c r="JN71" s="10"/>
+      <c r="JO71" s="10"/>
+      <c r="JP71" s="10"/>
+      <c r="JQ71" s="10"/>
+      <c r="JR71" s="10"/>
+      <c r="JS71" s="10"/>
+      <c r="JT71" s="10"/>
+      <c r="JU71" s="10"/>
+      <c r="JV71" s="10"/>
+      <c r="JW71" s="10"/>
+      <c r="JX71" s="10"/>
+      <c r="JY71" s="10"/>
+      <c r="JZ71" s="10"/>
+      <c r="KA71" s="10"/>
+      <c r="KB71" s="10"/>
+      <c r="KC71" s="10"/>
+      <c r="KD71" s="10"/>
+      <c r="KE71" s="10"/>
+    </row>
+    <row r="72" spans="1:291">
+      <c r="A72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:291">
+      <c r="A73" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:291">
+      <c r="A74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:291" s="3" customFormat="1">
+      <c r="A75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="10"/>
+      <c r="AO75" s="10"/>
+      <c r="AP75" s="10"/>
+      <c r="AQ75" s="10"/>
+      <c r="AR75" s="10"/>
+      <c r="AS75" s="10"/>
+      <c r="AT75" s="10"/>
+      <c r="AU75" s="10"/>
+      <c r="AV75" s="10"/>
+      <c r="AW75" s="10"/>
+      <c r="AX75" s="10"/>
+      <c r="AY75" s="10"/>
+      <c r="AZ75" s="10"/>
+      <c r="BA75" s="10"/>
+      <c r="BB75" s="10"/>
+      <c r="BC75" s="10"/>
+      <c r="BD75" s="10"/>
+      <c r="BE75" s="10"/>
+      <c r="BF75" s="10"/>
+      <c r="BG75" s="10"/>
+      <c r="BH75" s="10"/>
+      <c r="BI75" s="10"/>
+      <c r="BJ75" s="10"/>
+      <c r="BK75" s="10"/>
+      <c r="BL75" s="10"/>
+      <c r="BM75" s="10"/>
+      <c r="BN75" s="10"/>
+      <c r="BO75" s="10"/>
+      <c r="BP75" s="10"/>
+      <c r="BQ75" s="10"/>
+      <c r="BR75" s="10"/>
+      <c r="BS75" s="10"/>
+      <c r="BT75" s="10"/>
+      <c r="BU75" s="10"/>
+      <c r="BV75" s="10"/>
+      <c r="BW75" s="10"/>
+      <c r="BX75" s="10"/>
+      <c r="BY75" s="10"/>
+      <c r="BZ75" s="10"/>
+      <c r="CA75" s="10"/>
+      <c r="CB75" s="10"/>
+      <c r="CC75" s="10"/>
+      <c r="CD75" s="10"/>
+      <c r="CE75" s="10"/>
+      <c r="CF75" s="10"/>
+      <c r="CG75" s="10"/>
+      <c r="CH75" s="10"/>
+      <c r="CI75" s="10"/>
+      <c r="CJ75" s="10"/>
+      <c r="CK75" s="10"/>
+      <c r="CL75" s="10"/>
+      <c r="CM75" s="10"/>
+      <c r="CN75" s="10"/>
+      <c r="CO75" s="10"/>
+      <c r="CP75" s="10"/>
+      <c r="CQ75" s="10"/>
+      <c r="CR75" s="10"/>
+      <c r="CS75" s="10"/>
+      <c r="CT75" s="10"/>
+      <c r="CU75" s="10"/>
+      <c r="CV75" s="10"/>
+      <c r="CW75" s="10"/>
+      <c r="CX75" s="10"/>
+      <c r="CY75" s="10"/>
+      <c r="CZ75" s="10"/>
+      <c r="DA75" s="10"/>
+      <c r="DB75" s="10"/>
+      <c r="DC75" s="10"/>
+      <c r="DD75" s="10"/>
+      <c r="DE75" s="10"/>
+      <c r="DF75" s="10"/>
+      <c r="DG75" s="10"/>
+      <c r="DH75" s="10"/>
+      <c r="DI75" s="10"/>
+      <c r="DJ75" s="10"/>
+      <c r="DK75" s="10"/>
+      <c r="DL75" s="10"/>
+      <c r="DM75" s="10"/>
+      <c r="DN75" s="10"/>
+      <c r="DO75" s="10"/>
+      <c r="DP75" s="10"/>
+      <c r="DQ75" s="10"/>
+      <c r="DR75" s="10"/>
+      <c r="DS75" s="10"/>
+      <c r="DT75" s="10"/>
+      <c r="DU75" s="10"/>
+      <c r="DV75" s="10"/>
+      <c r="DW75" s="10"/>
+      <c r="DX75" s="10"/>
+      <c r="DY75" s="10"/>
+      <c r="DZ75" s="10"/>
+      <c r="EA75" s="10"/>
+      <c r="EB75" s="10"/>
+      <c r="EC75" s="10"/>
+      <c r="ED75" s="10"/>
+      <c r="EE75" s="10"/>
+      <c r="EF75" s="10"/>
+      <c r="EG75" s="10"/>
+      <c r="EH75" s="10"/>
+      <c r="EI75" s="10"/>
+      <c r="EJ75" s="10"/>
+      <c r="EK75" s="10"/>
+      <c r="EL75" s="10"/>
+      <c r="EM75" s="10"/>
+      <c r="EN75" s="10"/>
+      <c r="EO75" s="10"/>
+      <c r="EP75" s="10"/>
+      <c r="EQ75" s="10"/>
+      <c r="ER75" s="10"/>
+      <c r="ES75" s="10"/>
+      <c r="ET75" s="10"/>
+      <c r="EU75" s="10"/>
+      <c r="EV75" s="10"/>
+      <c r="EW75" s="10"/>
+      <c r="EX75" s="10"/>
+      <c r="EY75" s="10"/>
+      <c r="EZ75" s="10"/>
+      <c r="FA75" s="10"/>
+      <c r="FB75" s="10"/>
+      <c r="FC75" s="10"/>
+      <c r="FD75" s="10"/>
+      <c r="FE75" s="10"/>
+      <c r="FF75" s="10"/>
+      <c r="FG75" s="10"/>
+      <c r="FH75" s="10"/>
+      <c r="FI75" s="10"/>
+      <c r="FJ75" s="10"/>
+      <c r="FK75" s="10"/>
+      <c r="FL75" s="10"/>
+      <c r="FM75" s="10"/>
+      <c r="FN75" s="10"/>
+      <c r="FO75" s="10"/>
+      <c r="FP75" s="10"/>
+      <c r="FQ75" s="10"/>
+      <c r="FR75" s="10"/>
+      <c r="FS75" s="10"/>
+      <c r="FT75" s="10"/>
+      <c r="FU75" s="10"/>
+      <c r="FV75" s="10"/>
+      <c r="FW75" s="10"/>
+      <c r="FX75" s="10"/>
+      <c r="FY75" s="10"/>
+      <c r="FZ75" s="10"/>
+      <c r="GA75" s="10"/>
+      <c r="GB75" s="10"/>
+      <c r="GC75" s="10"/>
+      <c r="GD75" s="10"/>
+      <c r="GE75" s="10"/>
+      <c r="GF75" s="10"/>
+      <c r="GG75" s="10"/>
+      <c r="GH75" s="10"/>
+      <c r="GI75" s="10"/>
+      <c r="GJ75" s="10"/>
+      <c r="GK75" s="10"/>
+      <c r="GL75" s="10"/>
+      <c r="GM75" s="10"/>
+      <c r="GN75" s="10"/>
+      <c r="GO75" s="10"/>
+      <c r="GP75" s="10"/>
+      <c r="GQ75" s="10"/>
+      <c r="GR75" s="10"/>
+      <c r="GS75" s="10"/>
+      <c r="GT75" s="10"/>
+      <c r="GU75" s="10"/>
+      <c r="GV75" s="10"/>
+      <c r="GW75" s="10"/>
+      <c r="GX75" s="10"/>
+      <c r="GY75" s="10"/>
+      <c r="GZ75" s="10"/>
+      <c r="HA75" s="10"/>
+      <c r="HB75" s="10"/>
+      <c r="HC75" s="10"/>
+      <c r="HD75" s="10"/>
+      <c r="HE75" s="10"/>
+      <c r="HF75" s="10"/>
+      <c r="HG75" s="10"/>
+      <c r="HH75" s="10"/>
+      <c r="HI75" s="10"/>
+      <c r="HJ75" s="10"/>
+      <c r="HK75" s="10"/>
+      <c r="HL75" s="10"/>
+      <c r="HM75" s="10"/>
+      <c r="HN75" s="10"/>
+      <c r="HO75" s="10"/>
+      <c r="HP75" s="10"/>
+      <c r="HQ75" s="10"/>
+      <c r="HR75" s="10"/>
+      <c r="HS75" s="10"/>
+      <c r="HT75" s="10"/>
+      <c r="HU75" s="10"/>
+      <c r="HV75" s="10"/>
+      <c r="HW75" s="10"/>
+      <c r="HX75" s="10"/>
+      <c r="HY75" s="10"/>
+      <c r="HZ75" s="10"/>
+      <c r="IA75" s="10"/>
+      <c r="IB75" s="10"/>
+      <c r="IC75" s="10"/>
+      <c r="ID75" s="10"/>
+      <c r="IE75" s="10"/>
+      <c r="IF75" s="10"/>
+      <c r="IG75" s="10"/>
+      <c r="IH75" s="10"/>
+      <c r="II75" s="10"/>
+      <c r="IJ75" s="10"/>
+      <c r="IK75" s="10"/>
+      <c r="IL75" s="10"/>
+      <c r="IM75" s="10"/>
+      <c r="IN75" s="10"/>
+      <c r="IO75" s="10"/>
+      <c r="IP75" s="10"/>
+      <c r="IQ75" s="10"/>
+      <c r="IR75" s="10"/>
+      <c r="IS75" s="10"/>
+      <c r="IT75" s="10"/>
+      <c r="IU75" s="10"/>
+      <c r="IV75" s="10"/>
+      <c r="IW75" s="10"/>
+      <c r="IX75" s="10"/>
+      <c r="IY75" s="10"/>
+      <c r="IZ75" s="10"/>
+      <c r="JA75" s="10"/>
+      <c r="JB75" s="10"/>
+      <c r="JC75" s="10"/>
+      <c r="JD75" s="10"/>
+      <c r="JE75" s="10"/>
+      <c r="JF75" s="10"/>
+      <c r="JG75" s="10"/>
+      <c r="JH75" s="10"/>
+      <c r="JI75" s="10"/>
+      <c r="JJ75" s="10"/>
+      <c r="JK75" s="10"/>
+      <c r="JL75" s="10"/>
+      <c r="JM75" s="10"/>
+      <c r="JN75" s="10"/>
+      <c r="JO75" s="10"/>
+      <c r="JP75" s="10"/>
+      <c r="JQ75" s="10"/>
+      <c r="JR75" s="10"/>
+      <c r="JS75" s="10"/>
+      <c r="JT75" s="10"/>
+      <c r="JU75" s="10"/>
+      <c r="JV75" s="10"/>
+      <c r="JW75" s="10"/>
+      <c r="JX75" s="10"/>
+      <c r="JY75" s="10"/>
+      <c r="JZ75" s="10"/>
+      <c r="KA75" s="10"/>
+      <c r="KB75" s="10"/>
+      <c r="KC75" s="10"/>
+      <c r="KD75" s="10"/>
+      <c r="KE75" s="10"/>
+    </row>
+    <row r="76" spans="1:291">
+      <c r="A76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:291">
+      <c r="A77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:291">
+      <c r="A78" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:291">
+      <c r="A79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:291">
+      <c r="A80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:291">
+      <c r="A81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:291">
+      <c r="A82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:291">
+      <c r="A83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:291" s="5" customFormat="1">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="10"/>
+      <c r="AH84" s="10"/>
+      <c r="AI84" s="10"/>
+      <c r="AJ84" s="10"/>
+      <c r="AK84" s="10"/>
+      <c r="AL84" s="10"/>
+      <c r="AM84" s="10"/>
+      <c r="AN84" s="10"/>
+      <c r="AO84" s="10"/>
+      <c r="AP84" s="10"/>
+      <c r="AQ84" s="10"/>
+      <c r="AR84" s="10"/>
+      <c r="AS84" s="10"/>
+      <c r="AT84" s="10"/>
+      <c r="AU84" s="10"/>
+      <c r="AV84" s="10"/>
+      <c r="AW84" s="10"/>
+      <c r="AX84" s="10"/>
+      <c r="AY84" s="10"/>
+      <c r="AZ84" s="10"/>
+      <c r="BA84" s="10"/>
+      <c r="BB84" s="10"/>
+      <c r="BC84" s="10"/>
+      <c r="BD84" s="10"/>
+      <c r="BE84" s="10"/>
+      <c r="BF84" s="10"/>
+      <c r="BG84" s="10"/>
+      <c r="BH84" s="10"/>
+      <c r="BI84" s="10"/>
+      <c r="BJ84" s="10"/>
+      <c r="BK84" s="10"/>
+      <c r="BL84" s="10"/>
+      <c r="BM84" s="10"/>
+      <c r="BN84" s="10"/>
+      <c r="BO84" s="10"/>
+      <c r="BP84" s="10"/>
+      <c r="BQ84" s="10"/>
+      <c r="BR84" s="10"/>
+      <c r="BS84" s="10"/>
+      <c r="BT84" s="10"/>
+      <c r="BU84" s="10"/>
+      <c r="BV84" s="10"/>
+      <c r="BW84" s="10"/>
+      <c r="BX84" s="10"/>
+      <c r="BY84" s="10"/>
+      <c r="BZ84" s="10"/>
+      <c r="CA84" s="10"/>
+      <c r="CB84" s="10"/>
+      <c r="CC84" s="10"/>
+      <c r="CD84" s="10"/>
+      <c r="CE84" s="10"/>
+      <c r="CF84" s="10"/>
+      <c r="CG84" s="10"/>
+      <c r="CH84" s="10"/>
+      <c r="CI84" s="10"/>
+      <c r="CJ84" s="10"/>
+      <c r="CK84" s="10"/>
+      <c r="CL84" s="10"/>
+      <c r="CM84" s="10"/>
+      <c r="CN84" s="10"/>
+      <c r="CO84" s="10"/>
+      <c r="CP84" s="10"/>
+      <c r="CQ84" s="10"/>
+      <c r="CR84" s="10"/>
+      <c r="CS84" s="10"/>
+      <c r="CT84" s="10"/>
+      <c r="CU84" s="10"/>
+      <c r="CV84" s="10"/>
+      <c r="CW84" s="10"/>
+      <c r="CX84" s="10"/>
+      <c r="CY84" s="10"/>
+      <c r="CZ84" s="10"/>
+      <c r="DA84" s="10"/>
+      <c r="DB84" s="10"/>
+      <c r="DC84" s="10"/>
+      <c r="DD84" s="10"/>
+      <c r="DE84" s="10"/>
+      <c r="DF84" s="10"/>
+      <c r="DG84" s="10"/>
+      <c r="DH84" s="10"/>
+      <c r="DI84" s="10"/>
+      <c r="DJ84" s="10"/>
+      <c r="DK84" s="10"/>
+      <c r="DL84" s="10"/>
+      <c r="DM84" s="10"/>
+      <c r="DN84" s="10"/>
+      <c r="DO84" s="10"/>
+      <c r="DP84" s="10"/>
+      <c r="DQ84" s="10"/>
+      <c r="DR84" s="10"/>
+      <c r="DS84" s="10"/>
+      <c r="DT84" s="10"/>
+      <c r="DU84" s="10"/>
+      <c r="DV84" s="10"/>
+      <c r="DW84" s="10"/>
+      <c r="DX84" s="10"/>
+      <c r="DY84" s="10"/>
+      <c r="DZ84" s="10"/>
+      <c r="EA84" s="10"/>
+      <c r="EB84" s="10"/>
+      <c r="EC84" s="10"/>
+      <c r="ED84" s="10"/>
+      <c r="EE84" s="10"/>
+      <c r="EF84" s="10"/>
+      <c r="EG84" s="10"/>
+      <c r="EH84" s="10"/>
+      <c r="EI84" s="10"/>
+      <c r="EJ84" s="10"/>
+      <c r="EK84" s="10"/>
+      <c r="EL84" s="10"/>
+      <c r="EM84" s="10"/>
+      <c r="EN84" s="10"/>
+      <c r="EO84" s="10"/>
+      <c r="EP84" s="10"/>
+      <c r="EQ84" s="10"/>
+      <c r="ER84" s="10"/>
+      <c r="ES84" s="10"/>
+      <c r="ET84" s="10"/>
+      <c r="EU84" s="10"/>
+      <c r="EV84" s="10"/>
+      <c r="EW84" s="10"/>
+      <c r="EX84" s="10"/>
+      <c r="EY84" s="10"/>
+      <c r="EZ84" s="10"/>
+      <c r="FA84" s="10"/>
+      <c r="FB84" s="10"/>
+      <c r="FC84" s="10"/>
+      <c r="FD84" s="10"/>
+      <c r="FE84" s="10"/>
+      <c r="FF84" s="10"/>
+      <c r="FG84" s="10"/>
+      <c r="FH84" s="10"/>
+      <c r="FI84" s="10"/>
+      <c r="FJ84" s="10"/>
+      <c r="FK84" s="10"/>
+      <c r="FL84" s="10"/>
+      <c r="FM84" s="10"/>
+      <c r="FN84" s="10"/>
+      <c r="FO84" s="10"/>
+      <c r="FP84" s="10"/>
+      <c r="FQ84" s="10"/>
+      <c r="FR84" s="10"/>
+      <c r="FS84" s="10"/>
+      <c r="FT84" s="10"/>
+      <c r="FU84" s="10"/>
+      <c r="FV84" s="10"/>
+      <c r="FW84" s="10"/>
+      <c r="FX84" s="10"/>
+      <c r="FY84" s="10"/>
+      <c r="FZ84" s="10"/>
+      <c r="GA84" s="10"/>
+      <c r="GB84" s="10"/>
+      <c r="GC84" s="10"/>
+      <c r="GD84" s="10"/>
+      <c r="GE84" s="10"/>
+      <c r="GF84" s="10"/>
+      <c r="GG84" s="10"/>
+      <c r="GH84" s="10"/>
+      <c r="GI84" s="10"/>
+      <c r="GJ84" s="10"/>
+      <c r="GK84" s="10"/>
+      <c r="GL84" s="10"/>
+      <c r="GM84" s="10"/>
+      <c r="GN84" s="10"/>
+      <c r="GO84" s="10"/>
+      <c r="GP84" s="10"/>
+      <c r="GQ84" s="10"/>
+      <c r="GR84" s="10"/>
+      <c r="GS84" s="10"/>
+      <c r="GT84" s="10"/>
+      <c r="GU84" s="10"/>
+      <c r="GV84" s="10"/>
+      <c r="GW84" s="10"/>
+      <c r="GX84" s="10"/>
+      <c r="GY84" s="10"/>
+      <c r="GZ84" s="10"/>
+      <c r="HA84" s="10"/>
+      <c r="HB84" s="10"/>
+      <c r="HC84" s="10"/>
+      <c r="HD84" s="10"/>
+      <c r="HE84" s="10"/>
+      <c r="HF84" s="10"/>
+      <c r="HG84" s="10"/>
+      <c r="HH84" s="10"/>
+      <c r="HI84" s="10"/>
+      <c r="HJ84" s="10"/>
+      <c r="HK84" s="10"/>
+      <c r="HL84" s="10"/>
+      <c r="HM84" s="10"/>
+      <c r="HN84" s="10"/>
+      <c r="HO84" s="10"/>
+      <c r="HP84" s="10"/>
+      <c r="HQ84" s="10"/>
+      <c r="HR84" s="10"/>
+      <c r="HS84" s="10"/>
+      <c r="HT84" s="10"/>
+      <c r="HU84" s="10"/>
+      <c r="HV84" s="10"/>
+      <c r="HW84" s="10"/>
+      <c r="HX84" s="10"/>
+      <c r="HY84" s="10"/>
+      <c r="HZ84" s="10"/>
+      <c r="IA84" s="10"/>
+      <c r="IB84" s="10"/>
+      <c r="IC84" s="10"/>
+      <c r="ID84" s="10"/>
+      <c r="IE84" s="10"/>
+      <c r="IF84" s="10"/>
+      <c r="IG84" s="10"/>
+      <c r="IH84" s="10"/>
+      <c r="II84" s="10"/>
+      <c r="IJ84" s="10"/>
+      <c r="IK84" s="10"/>
+      <c r="IL84" s="10"/>
+      <c r="IM84" s="10"/>
+      <c r="IN84" s="10"/>
+      <c r="IO84" s="10"/>
+      <c r="IP84" s="10"/>
+      <c r="IQ84" s="10"/>
+      <c r="IR84" s="10"/>
+      <c r="IS84" s="10"/>
+      <c r="IT84" s="10"/>
+      <c r="IU84" s="10"/>
+      <c r="IV84" s="10"/>
+      <c r="IW84" s="10"/>
+      <c r="IX84" s="10"/>
+      <c r="IY84" s="10"/>
+      <c r="IZ84" s="10"/>
+      <c r="JA84" s="10"/>
+      <c r="JB84" s="10"/>
+      <c r="JC84" s="10"/>
+      <c r="JD84" s="10"/>
+      <c r="JE84" s="10"/>
+      <c r="JF84" s="10"/>
+      <c r="JG84" s="10"/>
+      <c r="JH84" s="10"/>
+      <c r="JI84" s="10"/>
+      <c r="JJ84" s="10"/>
+      <c r="JK84" s="10"/>
+      <c r="JL84" s="10"/>
+      <c r="JM84" s="10"/>
+      <c r="JN84" s="10"/>
+      <c r="JO84" s="10"/>
+      <c r="JP84" s="10"/>
+      <c r="JQ84" s="10"/>
+      <c r="JR84" s="10"/>
+      <c r="JS84" s="10"/>
+      <c r="JT84" s="10"/>
+      <c r="JU84" s="10"/>
+      <c r="JV84" s="10"/>
+      <c r="JW84" s="10"/>
+      <c r="JX84" s="10"/>
+      <c r="JY84" s="10"/>
+      <c r="JZ84" s="10"/>
+      <c r="KA84" s="10"/>
+      <c r="KB84" s="10"/>
+      <c r="KC84" s="10"/>
+      <c r="KD84" s="10"/>
+      <c r="KE84" s="10"/>
+    </row>
+    <row r="85" spans="1:291">
+      <c r="A85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:291">
+      <c r="A86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:291">
+      <c r="A87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:291">
+      <c r="A88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:291">
+      <c r="A89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:291">
+      <c r="A90" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:291">
+      <c r="A91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:291">
+      <c r="A92" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:291" s="5" customFormat="1">
+      <c r="A93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="10"/>
+      <c r="AF93" s="10"/>
+      <c r="AG93" s="10"/>
+      <c r="AH93" s="10"/>
+      <c r="AI93" s="10"/>
+      <c r="AJ93" s="10"/>
+      <c r="AK93" s="10"/>
+      <c r="AL93" s="10"/>
+      <c r="AM93" s="10"/>
+      <c r="AN93" s="10"/>
+      <c r="AO93" s="10"/>
+      <c r="AP93" s="10"/>
+      <c r="AQ93" s="10"/>
+      <c r="AR93" s="10"/>
+      <c r="AS93" s="10"/>
+      <c r="AT93" s="10"/>
+      <c r="AU93" s="10"/>
+      <c r="AV93" s="10"/>
+      <c r="AW93" s="10"/>
+      <c r="AX93" s="10"/>
+      <c r="AY93" s="10"/>
+      <c r="AZ93" s="10"/>
+      <c r="BA93" s="10"/>
+      <c r="BB93" s="10"/>
+      <c r="BC93" s="10"/>
+      <c r="BD93" s="10"/>
+      <c r="BE93" s="10"/>
+      <c r="BF93" s="10"/>
+      <c r="BG93" s="10"/>
+      <c r="BH93" s="10"/>
+      <c r="BI93" s="10"/>
+      <c r="BJ93" s="10"/>
+      <c r="BK93" s="10"/>
+      <c r="BL93" s="10"/>
+      <c r="BM93" s="10"/>
+      <c r="BN93" s="10"/>
+      <c r="BO93" s="10"/>
+      <c r="BP93" s="10"/>
+      <c r="BQ93" s="10"/>
+      <c r="BR93" s="10"/>
+      <c r="BS93" s="10"/>
+      <c r="BT93" s="10"/>
+      <c r="BU93" s="10"/>
+      <c r="BV93" s="10"/>
+      <c r="BW93" s="10"/>
+      <c r="BX93" s="10"/>
+      <c r="BY93" s="10"/>
+      <c r="BZ93" s="10"/>
+      <c r="CA93" s="10"/>
+      <c r="CB93" s="10"/>
+      <c r="CC93" s="10"/>
+      <c r="CD93" s="10"/>
+      <c r="CE93" s="10"/>
+      <c r="CF93" s="10"/>
+      <c r="CG93" s="10"/>
+      <c r="CH93" s="10"/>
+      <c r="CI93" s="10"/>
+      <c r="CJ93" s="10"/>
+      <c r="CK93" s="10"/>
+      <c r="CL93" s="10"/>
+      <c r="CM93" s="10"/>
+      <c r="CN93" s="10"/>
+      <c r="CO93" s="10"/>
+      <c r="CP93" s="10"/>
+      <c r="CQ93" s="10"/>
+      <c r="CR93" s="10"/>
+      <c r="CS93" s="10"/>
+      <c r="CT93" s="10"/>
+      <c r="CU93" s="10"/>
+      <c r="CV93" s="10"/>
+      <c r="CW93" s="10"/>
+      <c r="CX93" s="10"/>
+      <c r="CY93" s="10"/>
+      <c r="CZ93" s="10"/>
+      <c r="DA93" s="10"/>
+      <c r="DB93" s="10"/>
+      <c r="DC93" s="10"/>
+      <c r="DD93" s="10"/>
+      <c r="DE93" s="10"/>
+      <c r="DF93" s="10"/>
+      <c r="DG93" s="10"/>
+      <c r="DH93" s="10"/>
+      <c r="DI93" s="10"/>
+      <c r="DJ93" s="10"/>
+      <c r="DK93" s="10"/>
+      <c r="DL93" s="10"/>
+      <c r="DM93" s="10"/>
+      <c r="DN93" s="10"/>
+      <c r="DO93" s="10"/>
+      <c r="DP93" s="10"/>
+      <c r="DQ93" s="10"/>
+      <c r="DR93" s="10"/>
+      <c r="DS93" s="10"/>
+      <c r="DT93" s="10"/>
+      <c r="DU93" s="10"/>
+      <c r="DV93" s="10"/>
+      <c r="DW93" s="10"/>
+      <c r="DX93" s="10"/>
+      <c r="DY93" s="10"/>
+      <c r="DZ93" s="10"/>
+      <c r="EA93" s="10"/>
+      <c r="EB93" s="10"/>
+      <c r="EC93" s="10"/>
+      <c r="ED93" s="10"/>
+      <c r="EE93" s="10"/>
+      <c r="EF93" s="10"/>
+      <c r="EG93" s="10"/>
+      <c r="EH93" s="10"/>
+      <c r="EI93" s="10"/>
+      <c r="EJ93" s="10"/>
+      <c r="EK93" s="10"/>
+      <c r="EL93" s="10"/>
+      <c r="EM93" s="10"/>
+      <c r="EN93" s="10"/>
+      <c r="EO93" s="10"/>
+      <c r="EP93" s="10"/>
+      <c r="EQ93" s="10"/>
+      <c r="ER93" s="10"/>
+      <c r="ES93" s="10"/>
+      <c r="ET93" s="10"/>
+      <c r="EU93" s="10"/>
+      <c r="EV93" s="10"/>
+      <c r="EW93" s="10"/>
+      <c r="EX93" s="10"/>
+      <c r="EY93" s="10"/>
+      <c r="EZ93" s="10"/>
+      <c r="FA93" s="10"/>
+      <c r="FB93" s="10"/>
+      <c r="FC93" s="10"/>
+      <c r="FD93" s="10"/>
+      <c r="FE93" s="10"/>
+      <c r="FF93" s="10"/>
+      <c r="FG93" s="10"/>
+      <c r="FH93" s="10"/>
+      <c r="FI93" s="10"/>
+      <c r="FJ93" s="10"/>
+      <c r="FK93" s="10"/>
+      <c r="FL93" s="10"/>
+      <c r="FM93" s="10"/>
+      <c r="FN93" s="10"/>
+      <c r="FO93" s="10"/>
+      <c r="FP93" s="10"/>
+      <c r="FQ93" s="10"/>
+      <c r="FR93" s="10"/>
+      <c r="FS93" s="10"/>
+      <c r="FT93" s="10"/>
+      <c r="FU93" s="10"/>
+      <c r="FV93" s="10"/>
+      <c r="FW93" s="10"/>
+      <c r="FX93" s="10"/>
+      <c r="FY93" s="10"/>
+      <c r="FZ93" s="10"/>
+      <c r="GA93" s="10"/>
+      <c r="GB93" s="10"/>
+      <c r="GC93" s="10"/>
+      <c r="GD93" s="10"/>
+      <c r="GE93" s="10"/>
+      <c r="GF93" s="10"/>
+      <c r="GG93" s="10"/>
+      <c r="GH93" s="10"/>
+      <c r="GI93" s="10"/>
+      <c r="GJ93" s="10"/>
+      <c r="GK93" s="10"/>
+      <c r="GL93" s="10"/>
+      <c r="GM93" s="10"/>
+      <c r="GN93" s="10"/>
+      <c r="GO93" s="10"/>
+      <c r="GP93" s="10"/>
+      <c r="GQ93" s="10"/>
+      <c r="GR93" s="10"/>
+      <c r="GS93" s="10"/>
+      <c r="GT93" s="10"/>
+      <c r="GU93" s="10"/>
+      <c r="GV93" s="10"/>
+      <c r="GW93" s="10"/>
+      <c r="GX93" s="10"/>
+      <c r="GY93" s="10"/>
+      <c r="GZ93" s="10"/>
+      <c r="HA93" s="10"/>
+      <c r="HB93" s="10"/>
+      <c r="HC93" s="10"/>
+      <c r="HD93" s="10"/>
+      <c r="HE93" s="10"/>
+      <c r="HF93" s="10"/>
+      <c r="HG93" s="10"/>
+      <c r="HH93" s="10"/>
+      <c r="HI93" s="10"/>
+      <c r="HJ93" s="10"/>
+      <c r="HK93" s="10"/>
+      <c r="HL93" s="10"/>
+      <c r="HM93" s="10"/>
+      <c r="HN93" s="10"/>
+      <c r="HO93" s="10"/>
+      <c r="HP93" s="10"/>
+      <c r="HQ93" s="10"/>
+      <c r="HR93" s="10"/>
+      <c r="HS93" s="10"/>
+      <c r="HT93" s="10"/>
+      <c r="HU93" s="10"/>
+      <c r="HV93" s="10"/>
+      <c r="HW93" s="10"/>
+      <c r="HX93" s="10"/>
+      <c r="HY93" s="10"/>
+      <c r="HZ93" s="10"/>
+      <c r="IA93" s="10"/>
+      <c r="IB93" s="10"/>
+      <c r="IC93" s="10"/>
+      <c r="ID93" s="10"/>
+      <c r="IE93" s="10"/>
+      <c r="IF93" s="10"/>
+      <c r="IG93" s="10"/>
+      <c r="IH93" s="10"/>
+      <c r="II93" s="10"/>
+      <c r="IJ93" s="10"/>
+      <c r="IK93" s="10"/>
+      <c r="IL93" s="10"/>
+      <c r="IM93" s="10"/>
+      <c r="IN93" s="10"/>
+      <c r="IO93" s="10"/>
+      <c r="IP93" s="10"/>
+      <c r="IQ93" s="10"/>
+      <c r="IR93" s="10"/>
+      <c r="IS93" s="10"/>
+      <c r="IT93" s="10"/>
+      <c r="IU93" s="10"/>
+      <c r="IV93" s="10"/>
+      <c r="IW93" s="10"/>
+      <c r="IX93" s="10"/>
+      <c r="IY93" s="10"/>
+      <c r="IZ93" s="10"/>
+      <c r="JA93" s="10"/>
+      <c r="JB93" s="10"/>
+      <c r="JC93" s="10"/>
+      <c r="JD93" s="10"/>
+      <c r="JE93" s="10"/>
+      <c r="JF93" s="10"/>
+      <c r="JG93" s="10"/>
+      <c r="JH93" s="10"/>
+      <c r="JI93" s="10"/>
+      <c r="JJ93" s="10"/>
+      <c r="JK93" s="10"/>
+      <c r="JL93" s="10"/>
+      <c r="JM93" s="10"/>
+      <c r="JN93" s="10"/>
+      <c r="JO93" s="10"/>
+      <c r="JP93" s="10"/>
+      <c r="JQ93" s="10"/>
+      <c r="JR93" s="10"/>
+      <c r="JS93" s="10"/>
+      <c r="JT93" s="10"/>
+      <c r="JU93" s="10"/>
+      <c r="JV93" s="10"/>
+      <c r="JW93" s="10"/>
+      <c r="JX93" s="10"/>
+      <c r="JY93" s="10"/>
+      <c r="JZ93" s="10"/>
+      <c r="KA93" s="10"/>
+      <c r="KB93" s="10"/>
+      <c r="KC93" s="10"/>
+      <c r="KD93" s="10"/>
+      <c r="KE93" s="10"/>
+    </row>
+    <row r="94" spans="1:291">
+      <c r="A94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:291" s="5" customFormat="1">
+      <c r="A95" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+      <c r="AB95" s="10"/>
+      <c r="AC95" s="10"/>
+      <c r="AD95" s="10"/>
+      <c r="AE95" s="10"/>
+      <c r="AF95" s="10"/>
+      <c r="AG95" s="10"/>
+      <c r="AH95" s="10"/>
+      <c r="AI95" s="10"/>
+      <c r="AJ95" s="10"/>
+      <c r="AK95" s="10"/>
+      <c r="AL95" s="10"/>
+      <c r="AM95" s="10"/>
+      <c r="AN95" s="10"/>
+      <c r="AO95" s="10"/>
+      <c r="AP95" s="10"/>
+      <c r="AQ95" s="10"/>
+      <c r="AR95" s="10"/>
+      <c r="AS95" s="10"/>
+      <c r="AT95" s="10"/>
+      <c r="AU95" s="10"/>
+      <c r="AV95" s="10"/>
+      <c r="AW95" s="10"/>
+      <c r="AX95" s="10"/>
+      <c r="AY95" s="10"/>
+      <c r="AZ95" s="10"/>
+      <c r="BA95" s="10"/>
+      <c r="BB95" s="10"/>
+      <c r="BC95" s="10"/>
+      <c r="BD95" s="10"/>
+      <c r="BE95" s="10"/>
+      <c r="BF95" s="10"/>
+      <c r="BG95" s="10"/>
+      <c r="BH95" s="10"/>
+      <c r="BI95" s="10"/>
+      <c r="BJ95" s="10"/>
+      <c r="BK95" s="10"/>
+      <c r="BL95" s="10"/>
+      <c r="BM95" s="10"/>
+      <c r="BN95" s="10"/>
+      <c r="BO95" s="10"/>
+      <c r="BP95" s="10"/>
+      <c r="BQ95" s="10"/>
+      <c r="BR95" s="10"/>
+      <c r="BS95" s="10"/>
+      <c r="BT95" s="10"/>
+      <c r="BU95" s="10"/>
+      <c r="BV95" s="10"/>
+      <c r="BW95" s="10"/>
+      <c r="BX95" s="10"/>
+      <c r="BY95" s="10"/>
+      <c r="BZ95" s="10"/>
+      <c r="CA95" s="10"/>
+      <c r="CB95" s="10"/>
+      <c r="CC95" s="10"/>
+      <c r="CD95" s="10"/>
+      <c r="CE95" s="10"/>
+      <c r="CF95" s="10"/>
+      <c r="CG95" s="10"/>
+      <c r="CH95" s="10"/>
+      <c r="CI95" s="10"/>
+      <c r="CJ95" s="10"/>
+      <c r="CK95" s="10"/>
+      <c r="CL95" s="10"/>
+      <c r="CM95" s="10"/>
+      <c r="CN95" s="10"/>
+      <c r="CO95" s="10"/>
+      <c r="CP95" s="10"/>
+      <c r="CQ95" s="10"/>
+      <c r="CR95" s="10"/>
+      <c r="CS95" s="10"/>
+      <c r="CT95" s="10"/>
+      <c r="CU95" s="10"/>
+      <c r="CV95" s="10"/>
+      <c r="CW95" s="10"/>
+      <c r="CX95" s="10"/>
+      <c r="CY95" s="10"/>
+      <c r="CZ95" s="10"/>
+      <c r="DA95" s="10"/>
+      <c r="DB95" s="10"/>
+      <c r="DC95" s="10"/>
+      <c r="DD95" s="10"/>
+      <c r="DE95" s="10"/>
+      <c r="DF95" s="10"/>
+      <c r="DG95" s="10"/>
+      <c r="DH95" s="10"/>
+      <c r="DI95" s="10"/>
+      <c r="DJ95" s="10"/>
+      <c r="DK95" s="10"/>
+      <c r="DL95" s="10"/>
+      <c r="DM95" s="10"/>
+      <c r="DN95" s="10"/>
+      <c r="DO95" s="10"/>
+      <c r="DP95" s="10"/>
+      <c r="DQ95" s="10"/>
+      <c r="DR95" s="10"/>
+      <c r="DS95" s="10"/>
+      <c r="DT95" s="10"/>
+      <c r="DU95" s="10"/>
+      <c r="DV95" s="10"/>
+      <c r="DW95" s="10"/>
+      <c r="DX95" s="10"/>
+      <c r="DY95" s="10"/>
+      <c r="DZ95" s="10"/>
+      <c r="EA95" s="10"/>
+      <c r="EB95" s="10"/>
+      <c r="EC95" s="10"/>
+      <c r="ED95" s="10"/>
+      <c r="EE95" s="10"/>
+      <c r="EF95" s="10"/>
+      <c r="EG95" s="10"/>
+      <c r="EH95" s="10"/>
+      <c r="EI95" s="10"/>
+      <c r="EJ95" s="10"/>
+      <c r="EK95" s="10"/>
+      <c r="EL95" s="10"/>
+      <c r="EM95" s="10"/>
+      <c r="EN95" s="10"/>
+      <c r="EO95" s="10"/>
+      <c r="EP95" s="10"/>
+      <c r="EQ95" s="10"/>
+      <c r="ER95" s="10"/>
+      <c r="ES95" s="10"/>
+      <c r="ET95" s="10"/>
+      <c r="EU95" s="10"/>
+      <c r="EV95" s="10"/>
+      <c r="EW95" s="10"/>
+      <c r="EX95" s="10"/>
+      <c r="EY95" s="10"/>
+      <c r="EZ95" s="10"/>
+      <c r="FA95" s="10"/>
+      <c r="FB95" s="10"/>
+      <c r="FC95" s="10"/>
+      <c r="FD95" s="10"/>
+      <c r="FE95" s="10"/>
+      <c r="FF95" s="10"/>
+      <c r="FG95" s="10"/>
+      <c r="FH95" s="10"/>
+      <c r="FI95" s="10"/>
+      <c r="FJ95" s="10"/>
+      <c r="FK95" s="10"/>
+      <c r="FL95" s="10"/>
+      <c r="FM95" s="10"/>
+      <c r="FN95" s="10"/>
+      <c r="FO95" s="10"/>
+      <c r="FP95" s="10"/>
+      <c r="FQ95" s="10"/>
+      <c r="FR95" s="10"/>
+      <c r="FS95" s="10"/>
+      <c r="FT95" s="10"/>
+      <c r="FU95" s="10"/>
+      <c r="FV95" s="10"/>
+      <c r="FW95" s="10"/>
+      <c r="FX95" s="10"/>
+      <c r="FY95" s="10"/>
+      <c r="FZ95" s="10"/>
+      <c r="GA95" s="10"/>
+      <c r="GB95" s="10"/>
+      <c r="GC95" s="10"/>
+      <c r="GD95" s="10"/>
+      <c r="GE95" s="10"/>
+      <c r="GF95" s="10"/>
+      <c r="GG95" s="10"/>
+      <c r="GH95" s="10"/>
+      <c r="GI95" s="10"/>
+      <c r="GJ95" s="10"/>
+      <c r="GK95" s="10"/>
+      <c r="GL95" s="10"/>
+      <c r="GM95" s="10"/>
+      <c r="GN95" s="10"/>
+      <c r="GO95" s="10"/>
+      <c r="GP95" s="10"/>
+      <c r="GQ95" s="10"/>
+      <c r="GR95" s="10"/>
+      <c r="GS95" s="10"/>
+      <c r="GT95" s="10"/>
+      <c r="GU95" s="10"/>
+      <c r="GV95" s="10"/>
+      <c r="GW95" s="10"/>
+      <c r="GX95" s="10"/>
+      <c r="GY95" s="10"/>
+      <c r="GZ95" s="10"/>
+      <c r="HA95" s="10"/>
+      <c r="HB95" s="10"/>
+      <c r="HC95" s="10"/>
+      <c r="HD95" s="10"/>
+      <c r="HE95" s="10"/>
+      <c r="HF95" s="10"/>
+      <c r="HG95" s="10"/>
+      <c r="HH95" s="10"/>
+      <c r="HI95" s="10"/>
+      <c r="HJ95" s="10"/>
+      <c r="HK95" s="10"/>
+      <c r="HL95" s="10"/>
+      <c r="HM95" s="10"/>
+      <c r="HN95" s="10"/>
+      <c r="HO95" s="10"/>
+      <c r="HP95" s="10"/>
+      <c r="HQ95" s="10"/>
+      <c r="HR95" s="10"/>
+      <c r="HS95" s="10"/>
+      <c r="HT95" s="10"/>
+      <c r="HU95" s="10"/>
+      <c r="HV95" s="10"/>
+      <c r="HW95" s="10"/>
+      <c r="HX95" s="10"/>
+      <c r="HY95" s="10"/>
+      <c r="HZ95" s="10"/>
+      <c r="IA95" s="10"/>
+      <c r="IB95" s="10"/>
+      <c r="IC95" s="10"/>
+      <c r="ID95" s="10"/>
+      <c r="IE95" s="10"/>
+      <c r="IF95" s="10"/>
+      <c r="IG95" s="10"/>
+      <c r="IH95" s="10"/>
+      <c r="II95" s="10"/>
+      <c r="IJ95" s="10"/>
+      <c r="IK95" s="10"/>
+      <c r="IL95" s="10"/>
+      <c r="IM95" s="10"/>
+      <c r="IN95" s="10"/>
+      <c r="IO95" s="10"/>
+      <c r="IP95" s="10"/>
+      <c r="IQ95" s="10"/>
+      <c r="IR95" s="10"/>
+      <c r="IS95" s="10"/>
+      <c r="IT95" s="10"/>
+      <c r="IU95" s="10"/>
+      <c r="IV95" s="10"/>
+      <c r="IW95" s="10"/>
+      <c r="IX95" s="10"/>
+      <c r="IY95" s="10"/>
+      <c r="IZ95" s="10"/>
+      <c r="JA95" s="10"/>
+      <c r="JB95" s="10"/>
+      <c r="JC95" s="10"/>
+      <c r="JD95" s="10"/>
+      <c r="JE95" s="10"/>
+      <c r="JF95" s="10"/>
+      <c r="JG95" s="10"/>
+      <c r="JH95" s="10"/>
+      <c r="JI95" s="10"/>
+      <c r="JJ95" s="10"/>
+      <c r="JK95" s="10"/>
+      <c r="JL95" s="10"/>
+      <c r="JM95" s="10"/>
+      <c r="JN95" s="10"/>
+      <c r="JO95" s="10"/>
+      <c r="JP95" s="10"/>
+      <c r="JQ95" s="10"/>
+      <c r="JR95" s="10"/>
+      <c r="JS95" s="10"/>
+      <c r="JT95" s="10"/>
+      <c r="JU95" s="10"/>
+      <c r="JV95" s="10"/>
+      <c r="JW95" s="10"/>
+      <c r="JX95" s="10"/>
+      <c r="JY95" s="10"/>
+      <c r="JZ95" s="10"/>
+      <c r="KA95" s="10"/>
+      <c r="KB95" s="10"/>
+      <c r="KC95" s="10"/>
+      <c r="KD95" s="10"/>
+      <c r="KE95" s="10"/>
+    </row>
+    <row r="96" spans="1:291">
+      <c r="A96" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="8">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="8">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="8">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+    <row r="140" spans="1:1">
+      <c r="A140" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
+    <row r="166" spans="1:1">
+      <c r="A166" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
+    <row r="169" spans="1:1">
+      <c r="A169" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
+    <row r="172" spans="1:1">
+      <c r="A172" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
+    <row r="174" spans="1:1">
+      <c r="A174" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
+    <row r="175" spans="1:1">
+      <c r="A175" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
+    <row r="185" spans="1:1">
+      <c r="A185" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>86</v>
-      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="8"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="8"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="8"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="8"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="8"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="8"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="396">
   <si>
     <t>Arabic Name</t>
   </si>
@@ -781,13 +781,439 @@
   </si>
   <si>
     <t>Blue = unfound, possibly unnecessary.</t>
+  </si>
+  <si>
+    <t>&amp;#xa2</t>
+  </si>
+  <si>
+    <t>Cent Sign</t>
+  </si>
+  <si>
+    <t>Arabic Start Of Rub El Hizb</t>
+  </si>
+  <si>
+    <t>&amp;#x6de</t>
+  </si>
+  <si>
+    <t>DIVISION SIGN</t>
+  </si>
+  <si>
+    <t>0x00F7</t>
+  </si>
+  <si>
+    <t>&amp;#x660</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Zero</t>
+  </si>
+  <si>
+    <t>&amp;#x661</t>
+  </si>
+  <si>
+    <t>&amp;#x662</t>
+  </si>
+  <si>
+    <t>&amp;#x663</t>
+  </si>
+  <si>
+    <t>&amp;#x664</t>
+  </si>
+  <si>
+    <t>&amp;#x665</t>
+  </si>
+  <si>
+    <t>&amp;#x666</t>
+  </si>
+  <si>
+    <t>&amp;#x667</t>
+  </si>
+  <si>
+    <t>&amp;#x668</t>
+  </si>
+  <si>
+    <t>&amp;#x669</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit One</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Two</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Three</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Four</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Five</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Six</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Seven</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Eight</t>
+  </si>
+  <si>
+    <t>Arabic-Indic Digit Nine</t>
+  </si>
+  <si>
+    <t>commercial at</t>
+  </si>
+  <si>
+    <t>Number Sign</t>
+  </si>
+  <si>
+    <t>Dollar Sign</t>
+  </si>
+  <si>
+    <t>Percent sign</t>
+  </si>
+  <si>
+    <t>Conrol sign</t>
+  </si>
+  <si>
+    <t>ampersand</t>
+  </si>
+  <si>
+    <t>Asterisk</t>
+  </si>
+  <si>
+    <t>ARABIC FIVE POINTED STAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002A </t>
+  </si>
+  <si>
+    <t>Dotted Line</t>
+  </si>
+  <si>
+    <t>"low minus"</t>
+  </si>
+  <si>
+    <t>"hyphen minus"</t>
+  </si>
+  <si>
+    <t>Plus sign</t>
+  </si>
+  <si>
+    <t>Equals sign</t>
+  </si>
+  <si>
+    <t>back slash</t>
+  </si>
+  <si>
+    <t>Arabic Number Sign</t>
+  </si>
+  <si>
+    <t>&amp;#x600</t>
+  </si>
+  <si>
+    <t>&amp;#x66f</t>
+  </si>
+  <si>
+    <t>Arabic Letter Dotless Qaf</t>
+  </si>
+  <si>
+    <t>Arabic Small High Jeem</t>
+  </si>
+  <si>
+    <t>&amp;#x6da</t>
+  </si>
+  <si>
+    <t>Arabic Small High Three Dots</t>
+  </si>
+  <si>
+    <t>&amp;#x6db</t>
+  </si>
+  <si>
+    <t>Arabic Small Waw</t>
+  </si>
+  <si>
+    <t>&amp;#x6e5</t>
+  </si>
+  <si>
+    <t>High Dots</t>
+  </si>
+  <si>
+    <t>REGISTERED SIGN</t>
+  </si>
+  <si>
+    <t>&amp;#00ae</t>
+  </si>
+  <si>
+    <t>Arabic Small High Noon</t>
+  </si>
+  <si>
+    <t>&amp;#x6e8</t>
+  </si>
+  <si>
+    <t>TRADE MARK SIGN</t>
+  </si>
+  <si>
+    <t>&amp;#2122</t>
+  </si>
+  <si>
+    <t>&amp;#x60f</t>
+  </si>
+  <si>
+    <t>Arabic Sign Misra</t>
+  </si>
+  <si>
+    <t>&amp;#x655</t>
+  </si>
+  <si>
+    <t>Arabic Hamza Below</t>
+  </si>
+  <si>
+    <t>YEN SIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#00A5 </t>
+  </si>
+  <si>
+    <t>Arabic Ligature Qala Used As Koranic Stop Sign Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfdf1</t>
+  </si>
+  <si>
+    <t>High Salla</t>
+  </si>
+  <si>
+    <t>High Yeh Baree</t>
+  </si>
+  <si>
+    <t>Arabic Letter Teh Marbuta</t>
+  </si>
+  <si>
+    <t>&amp;#x629</t>
+  </si>
+  <si>
+    <t>Arabic Letter Heh</t>
+  </si>
+  <si>
+    <t>&amp;#x647</t>
+  </si>
+  <si>
+    <t>POUND SIGN</t>
+  </si>
+  <si>
+    <t>&amp;#00A3</t>
+  </si>
+  <si>
+    <t>Arabic Percent Sign</t>
+  </si>
+  <si>
+    <t>&amp;#x66a</t>
+  </si>
+  <si>
+    <t>left curly bracket</t>
+  </si>
+  <si>
+    <t>right curly bracket</t>
+  </si>
+  <si>
+    <t>left ornate curly bracket</t>
+  </si>
+  <si>
+    <t>right ornate curly bracket</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Allah Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfdf2</t>
+  </si>
+  <si>
+    <t>Arabic Letter Alef Wasla</t>
+  </si>
+  <si>
+    <t>&amp;#x671</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Salam Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfdf5</t>
+  </si>
+  <si>
+    <t>Safa Sign</t>
+  </si>
+  <si>
+    <t>DEGREE SIGN</t>
+  </si>
+  <si>
+    <t>&amp;#00B0</t>
+  </si>
+  <si>
+    <t>Arabic Small High Seen</t>
+  </si>
+  <si>
+    <t>&amp;#x6dc</t>
+  </si>
+  <si>
+    <t>Arabic Small Low Seen</t>
+  </si>
+  <si>
+    <t>&amp;#x6e3</t>
+  </si>
+  <si>
+    <t>Arabic Letter Dotless Feh</t>
+  </si>
+  <si>
+    <t>&amp;#x6a1</t>
+  </si>
+  <si>
+    <t>VULGAR FRACTION ONE HALF</t>
+  </si>
+  <si>
+    <t>&amp;#00BD</t>
+  </si>
+  <si>
+    <t>VULGAR FRACTION ONE QUARTER</t>
+  </si>
+  <si>
+    <t>&amp;#00BC</t>
+  </si>
+  <si>
+    <t>&amp;#00BE</t>
+  </si>
+  <si>
+    <t>VULGAR FRACTION THREE QUARTERS</t>
+  </si>
+  <si>
+    <t>&amp;#x643</t>
+  </si>
+  <si>
+    <t>Arabic Letter Kaf</t>
+  </si>
+  <si>
+    <t>Dochashmi Hey</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Jallajalalouhou</t>
+  </si>
+  <si>
+    <t>&amp;#xfdfb</t>
+  </si>
+  <si>
+    <t>Arabic Letter Swash Kaf</t>
+  </si>
+  <si>
+    <t>&amp;#x6aa</t>
+  </si>
+  <si>
+    <t>english semicolon</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>apostrophe</t>
+  </si>
+  <si>
+    <t>Arabic Letter Veh</t>
+  </si>
+  <si>
+    <t>&amp;#x6a4</t>
+  </si>
+  <si>
+    <t>Arabic Small Low Meem</t>
+  </si>
+  <si>
+    <t>&amp;#x6ed</t>
+  </si>
+  <si>
+    <t>Arabic Small High Meem Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#x6e2</t>
+  </si>
+  <si>
+    <t>Arabic Small High Meem Initial Form</t>
+  </si>
+  <si>
+    <t>&amp;#x6d8</t>
+  </si>
+  <si>
+    <t>&amp;#x6e9</t>
+  </si>
+  <si>
+    <t>Arabic Place Of Sajdah</t>
+  </si>
+  <si>
+    <t>COPYRIGHT SIGN</t>
+  </si>
+  <si>
+    <t>&amp;#00A9</t>
+  </si>
+  <si>
+    <t>Riyal sign</t>
+  </si>
+  <si>
+    <t>&amp;#x615</t>
+  </si>
+  <si>
+    <t>Arabic Small High Tah</t>
+  </si>
+  <si>
+    <t>&amp;#x66e</t>
+  </si>
+  <si>
+    <t>Arabic Letter Dotless Beh</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Bismillah Ar-Rahman Ar-Raheem</t>
+  </si>
+  <si>
+    <t>&amp;#xfdfd</t>
+  </si>
+  <si>
+    <t>Arabic End Of Ayah</t>
+  </si>
+  <si>
+    <t>&amp;#x6dd</t>
+  </si>
+  <si>
+    <t>&amp;#x602</t>
+  </si>
+  <si>
+    <t>Arabic Footnote Marker</t>
+  </si>
+  <si>
+    <t>MULTIPLICATION X</t>
+  </si>
+  <si>
+    <t>&amp;#2715</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Mohammad Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfdf4</t>
+  </si>
+  <si>
+    <t>front slash</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -812,6 +1238,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MyriadPro"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -862,7 +1306,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -906,8 +1350,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -936,8 +1404,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -959,6 +1434,18 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -980,6 +1467,18 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1311,15 +1810,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="10"/>
     <col min="6" max="6" width="12" style="10" customWidth="1"/>
     <col min="7" max="291" width="10.83203125" style="10"/>
@@ -9574,491 +10073,1021 @@
       <c r="A101" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="B101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8">
         <v>1</v>
       </c>
+      <c r="B104" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8">
         <v>2</v>
       </c>
+      <c r="B106" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="8">
         <v>3</v>
       </c>
+      <c r="B108" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="8">
         <v>4</v>
       </c>
+      <c r="B110" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="8" t="s">
+      <c r="B120" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" s="17"/>
+      <c r="C121" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" t="s">
+        <v>300</v>
+      </c>
+      <c r="C130" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" t="s">
+        <v>302</v>
+      </c>
+      <c r="C131" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="8" t="s">
+      <c r="B132" t="s">
+        <v>304</v>
+      </c>
+      <c r="C132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="10" customFormat="1">
+      <c r="A133" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="5"/>
+      <c r="C133" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" t="s">
+        <v>307</v>
+      </c>
+      <c r="C135" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" t="s">
+        <v>309</v>
+      </c>
+      <c r="C136" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" t="s">
+        <v>311</v>
+      </c>
+      <c r="C137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" t="s">
+        <v>317</v>
+      </c>
+      <c r="C139" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="8" t="s">
+      <c r="B142" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="8" t="s">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" t="s">
+        <v>325</v>
+      </c>
+      <c r="C146" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="8" t="s">
+      <c r="B149" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="8" t="s">
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="8" t="s">
+      <c r="B155" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="10" customFormat="1">
+      <c r="A156" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" t="s">
+        <v>344</v>
+      </c>
+      <c r="C158" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" t="s">
+        <v>346</v>
+      </c>
+      <c r="C160" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" t="s">
+        <v>352</v>
+      </c>
+      <c r="C161" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" t="s">
+        <v>355</v>
+      </c>
+      <c r="C162" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="8" t="s">
+      <c r="B163" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166" t="s">
+        <v>359</v>
+      </c>
+      <c r="C166" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167" t="s">
+        <v>319</v>
+      </c>
+      <c r="C167" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="8" t="s">
+      <c r="B168" t="s">
+        <v>361</v>
+      </c>
+      <c r="C168" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="8" t="s">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" t="s">
+        <v>186</v>
+      </c>
+      <c r="C171" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" t="s">
+        <v>63</v>
+      </c>
+      <c r="C172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" t="s">
+        <v>366</v>
+      </c>
+      <c r="C175" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" t="s">
+        <v>370</v>
+      </c>
+      <c r="C176" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" t="s">
+        <v>373</v>
+      </c>
+      <c r="C177" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" t="s">
+        <v>368</v>
+      </c>
+      <c r="C178" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" t="s">
+        <v>376</v>
+      </c>
+      <c r="C179" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="8" t="s">
+      <c r="B180" t="s">
+        <v>372</v>
+      </c>
+      <c r="C180" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" t="s">
+        <v>383</v>
+      </c>
+      <c r="C184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" t="s">
+        <v>385</v>
+      </c>
+      <c r="C185" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" t="s">
+        <v>386</v>
+      </c>
+      <c r="C186" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="8" t="s">
+      <c r="B187" t="s">
+        <v>389</v>
+      </c>
+      <c r="C187" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="10" customFormat="1">
+      <c r="A188" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="8" t="s">
+      <c r="B189" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="8" t="s">
+      <c r="B191" t="s">
+        <v>84</v>
+      </c>
+      <c r="C191" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" t="s">
+        <v>84</v>
+      </c>
+      <c r="C193" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="8"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:3">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:3">
       <c r="A197" s="8"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:3">
       <c r="A198" s="8"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:3">
       <c r="A199" s="8"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:3">
       <c r="A200" s="8"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:3">
       <c r="A201" s="8"/>
     </row>
   </sheetData>

--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="415">
   <si>
     <t>Arabic Name</t>
   </si>
@@ -324,12 +324,6 @@
     <t>&amp;#x66c</t>
   </si>
   <si>
-    <t>Arabic Letter Yeh</t>
-  </si>
-  <si>
-    <t>&amp;#x64a</t>
-  </si>
-  <si>
     <t>&amp;#x6af</t>
   </si>
   <si>
@@ -645,9 +639,6 @@
     <t>Rehmat Sign</t>
   </si>
   <si>
-    <t>Laam</t>
-  </si>
-  <si>
     <t>colon</t>
   </si>
   <si>
@@ -936,9 +927,6 @@
     <t>&amp;#x6e5</t>
   </si>
   <si>
-    <t>High Dots</t>
-  </si>
-  <si>
     <t>REGISTERED SIGN</t>
   </si>
   <si>
@@ -981,9 +969,6 @@
     <t>&amp;#xfdf1</t>
   </si>
   <si>
-    <t>High Salla</t>
-  </si>
-  <si>
     <t>High Yeh Baree</t>
   </si>
   <si>
@@ -1041,9 +1026,6 @@
     <t>&amp;#xfdf5</t>
   </si>
   <si>
-    <t>Safa Sign</t>
-  </si>
-  <si>
     <t>DEGREE SIGN</t>
   </si>
   <si>
@@ -1092,9 +1074,6 @@
     <t>Arabic Letter Kaf</t>
   </si>
   <si>
-    <t>Dochashmi Hey</t>
-  </si>
-  <si>
     <t>Arabic Ligature Jallajalalouhou</t>
   </si>
   <si>
@@ -1207,13 +1186,91 @@
   </si>
   <si>
     <t>question</t>
+  </si>
+  <si>
+    <t>&amp;#FD3E</t>
+  </si>
+  <si>
+    <t>&amp;#FD3F</t>
+  </si>
+  <si>
+    <t>FDFC</t>
+  </si>
+  <si>
+    <t>Arabic Small High Lam Alef</t>
+  </si>
+  <si>
+    <t>&amp;#x6d9</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Lam With Alef Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfefb</t>
+  </si>
+  <si>
+    <t>Arabic Letter Heh Doachashmee</t>
+  </si>
+  <si>
+    <t>&amp;#x6be</t>
+  </si>
+  <si>
+    <t>&amp;#x603</t>
+  </si>
+  <si>
+    <t>Arabic Sign Safha</t>
+  </si>
+  <si>
+    <t>Arabic Ligature Salla Used As Koranic Stop Sign Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfdf0</t>
+  </si>
+  <si>
+    <t>could not find high character</t>
+  </si>
+  <si>
+    <t>Dot Above</t>
+  </si>
+  <si>
+    <t>&amp;#x2d9</t>
+  </si>
+  <si>
+    <t>Number Comma</t>
+  </si>
+  <si>
+    <t>English Full Stop</t>
+  </si>
+  <si>
+    <t>Arabic Subscript Alef</t>
+  </si>
+  <si>
+    <t>&amp;#x656</t>
+  </si>
+  <si>
+    <t>Arabic Letter Lam</t>
+  </si>
+  <si>
+    <t>&amp;#x644</t>
+  </si>
+  <si>
+    <t>Arabic Jazam</t>
+  </si>
+  <si>
+    <t>Arabic Letter Yeh Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfef1</t>
+  </si>
+  <si>
+    <t>PDF has a dot, unicode dose not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1257,6 +1314,12 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1306,7 +1369,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1374,8 +1437,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1411,8 +1562,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1446,6 +1598,50 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1479,6 +1675,50 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1810,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1819,20 +2059,21 @@
     <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="25.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="10"/>
     <col min="6" max="6" width="12" style="10" customWidth="1"/>
     <col min="7" max="291" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:291">
       <c r="A1" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:291">
@@ -1840,7 +2081,7 @@
     </row>
     <row r="3" spans="1:291">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:291" s="10" customFormat="1">
@@ -1848,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2468,21 +2709,21 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:291" s="3" customFormat="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>130</v>
+      <c r="C9" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -2773,15 +3014,15 @@
       <c r="KD9" s="10"/>
       <c r="KE9" s="10"/>
     </row>
-    <row r="10" spans="1:291">
-      <c r="A10" s="2">
+    <row r="10" spans="1:291" s="10" customFormat="1">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>115</v>
+      <c r="B10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:291" s="3" customFormat="1">
@@ -2789,10 +3030,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -3083,304 +3324,16 @@
       <c r="KD11" s="10"/>
       <c r="KE11" s="10"/>
     </row>
-    <row r="12" spans="1:291" s="3" customFormat="1">
-      <c r="A12" s="2">
+    <row r="12" spans="1:291" s="10" customFormat="1">
+      <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-      <c r="BK12" s="10"/>
-      <c r="BL12" s="10"/>
-      <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
-      <c r="BO12" s="10"/>
-      <c r="BP12" s="10"/>
-      <c r="BQ12" s="10"/>
-      <c r="BR12" s="10"/>
-      <c r="BS12" s="10"/>
-      <c r="BT12" s="10"/>
-      <c r="BU12" s="10"/>
-      <c r="BV12" s="10"/>
-      <c r="BW12" s="10"/>
-      <c r="BX12" s="10"/>
-      <c r="BY12" s="10"/>
-      <c r="BZ12" s="10"/>
-      <c r="CA12" s="10"/>
-      <c r="CB12" s="10"/>
-      <c r="CC12" s="10"/>
-      <c r="CD12" s="10"/>
-      <c r="CE12" s="10"/>
-      <c r="CF12" s="10"/>
-      <c r="CG12" s="10"/>
-      <c r="CH12" s="10"/>
-      <c r="CI12" s="10"/>
-      <c r="CJ12" s="10"/>
-      <c r="CK12" s="10"/>
-      <c r="CL12" s="10"/>
-      <c r="CM12" s="10"/>
-      <c r="CN12" s="10"/>
-      <c r="CO12" s="10"/>
-      <c r="CP12" s="10"/>
-      <c r="CQ12" s="10"/>
-      <c r="CR12" s="10"/>
-      <c r="CS12" s="10"/>
-      <c r="CT12" s="10"/>
-      <c r="CU12" s="10"/>
-      <c r="CV12" s="10"/>
-      <c r="CW12" s="10"/>
-      <c r="CX12" s="10"/>
-      <c r="CY12" s="10"/>
-      <c r="CZ12" s="10"/>
-      <c r="DA12" s="10"/>
-      <c r="DB12" s="10"/>
-      <c r="DC12" s="10"/>
-      <c r="DD12" s="10"/>
-      <c r="DE12" s="10"/>
-      <c r="DF12" s="10"/>
-      <c r="DG12" s="10"/>
-      <c r="DH12" s="10"/>
-      <c r="DI12" s="10"/>
-      <c r="DJ12" s="10"/>
-      <c r="DK12" s="10"/>
-      <c r="DL12" s="10"/>
-      <c r="DM12" s="10"/>
-      <c r="DN12" s="10"/>
-      <c r="DO12" s="10"/>
-      <c r="DP12" s="10"/>
-      <c r="DQ12" s="10"/>
-      <c r="DR12" s="10"/>
-      <c r="DS12" s="10"/>
-      <c r="DT12" s="10"/>
-      <c r="DU12" s="10"/>
-      <c r="DV12" s="10"/>
-      <c r="DW12" s="10"/>
-      <c r="DX12" s="10"/>
-      <c r="DY12" s="10"/>
-      <c r="DZ12" s="10"/>
-      <c r="EA12" s="10"/>
-      <c r="EB12" s="10"/>
-      <c r="EC12" s="10"/>
-      <c r="ED12" s="10"/>
-      <c r="EE12" s="10"/>
-      <c r="EF12" s="10"/>
-      <c r="EG12" s="10"/>
-      <c r="EH12" s="10"/>
-      <c r="EI12" s="10"/>
-      <c r="EJ12" s="10"/>
-      <c r="EK12" s="10"/>
-      <c r="EL12" s="10"/>
-      <c r="EM12" s="10"/>
-      <c r="EN12" s="10"/>
-      <c r="EO12" s="10"/>
-      <c r="EP12" s="10"/>
-      <c r="EQ12" s="10"/>
-      <c r="ER12" s="10"/>
-      <c r="ES12" s="10"/>
-      <c r="ET12" s="10"/>
-      <c r="EU12" s="10"/>
-      <c r="EV12" s="10"/>
-      <c r="EW12" s="10"/>
-      <c r="EX12" s="10"/>
-      <c r="EY12" s="10"/>
-      <c r="EZ12" s="10"/>
-      <c r="FA12" s="10"/>
-      <c r="FB12" s="10"/>
-      <c r="FC12" s="10"/>
-      <c r="FD12" s="10"/>
-      <c r="FE12" s="10"/>
-      <c r="FF12" s="10"/>
-      <c r="FG12" s="10"/>
-      <c r="FH12" s="10"/>
-      <c r="FI12" s="10"/>
-      <c r="FJ12" s="10"/>
-      <c r="FK12" s="10"/>
-      <c r="FL12" s="10"/>
-      <c r="FM12" s="10"/>
-      <c r="FN12" s="10"/>
-      <c r="FO12" s="10"/>
-      <c r="FP12" s="10"/>
-      <c r="FQ12" s="10"/>
-      <c r="FR12" s="10"/>
-      <c r="FS12" s="10"/>
-      <c r="FT12" s="10"/>
-      <c r="FU12" s="10"/>
-      <c r="FV12" s="10"/>
-      <c r="FW12" s="10"/>
-      <c r="FX12" s="10"/>
-      <c r="FY12" s="10"/>
-      <c r="FZ12" s="10"/>
-      <c r="GA12" s="10"/>
-      <c r="GB12" s="10"/>
-      <c r="GC12" s="10"/>
-      <c r="GD12" s="10"/>
-      <c r="GE12" s="10"/>
-      <c r="GF12" s="10"/>
-      <c r="GG12" s="10"/>
-      <c r="GH12" s="10"/>
-      <c r="GI12" s="10"/>
-      <c r="GJ12" s="10"/>
-      <c r="GK12" s="10"/>
-      <c r="GL12" s="10"/>
-      <c r="GM12" s="10"/>
-      <c r="GN12" s="10"/>
-      <c r="GO12" s="10"/>
-      <c r="GP12" s="10"/>
-      <c r="GQ12" s="10"/>
-      <c r="GR12" s="10"/>
-      <c r="GS12" s="10"/>
-      <c r="GT12" s="10"/>
-      <c r="GU12" s="10"/>
-      <c r="GV12" s="10"/>
-      <c r="GW12" s="10"/>
-      <c r="GX12" s="10"/>
-      <c r="GY12" s="10"/>
-      <c r="GZ12" s="10"/>
-      <c r="HA12" s="10"/>
-      <c r="HB12" s="10"/>
-      <c r="HC12" s="10"/>
-      <c r="HD12" s="10"/>
-      <c r="HE12" s="10"/>
-      <c r="HF12" s="10"/>
-      <c r="HG12" s="10"/>
-      <c r="HH12" s="10"/>
-      <c r="HI12" s="10"/>
-      <c r="HJ12" s="10"/>
-      <c r="HK12" s="10"/>
-      <c r="HL12" s="10"/>
-      <c r="HM12" s="10"/>
-      <c r="HN12" s="10"/>
-      <c r="HO12" s="10"/>
-      <c r="HP12" s="10"/>
-      <c r="HQ12" s="10"/>
-      <c r="HR12" s="10"/>
-      <c r="HS12" s="10"/>
-      <c r="HT12" s="10"/>
-      <c r="HU12" s="10"/>
-      <c r="HV12" s="10"/>
-      <c r="HW12" s="10"/>
-      <c r="HX12" s="10"/>
-      <c r="HY12" s="10"/>
-      <c r="HZ12" s="10"/>
-      <c r="IA12" s="10"/>
-      <c r="IB12" s="10"/>
-      <c r="IC12" s="10"/>
-      <c r="ID12" s="10"/>
-      <c r="IE12" s="10"/>
-      <c r="IF12" s="10"/>
-      <c r="IG12" s="10"/>
-      <c r="IH12" s="10"/>
-      <c r="II12" s="10"/>
-      <c r="IJ12" s="10"/>
-      <c r="IK12" s="10"/>
-      <c r="IL12" s="10"/>
-      <c r="IM12" s="10"/>
-      <c r="IN12" s="10"/>
-      <c r="IO12" s="10"/>
-      <c r="IP12" s="10"/>
-      <c r="IQ12" s="10"/>
-      <c r="IR12" s="10"/>
-      <c r="IS12" s="10"/>
-      <c r="IT12" s="10"/>
-      <c r="IU12" s="10"/>
-      <c r="IV12" s="10"/>
-      <c r="IW12" s="10"/>
-      <c r="IX12" s="10"/>
-      <c r="IY12" s="10"/>
-      <c r="IZ12" s="10"/>
-      <c r="JA12" s="10"/>
-      <c r="JB12" s="10"/>
-      <c r="JC12" s="10"/>
-      <c r="JD12" s="10"/>
-      <c r="JE12" s="10"/>
-      <c r="JF12" s="10"/>
-      <c r="JG12" s="10"/>
-      <c r="JH12" s="10"/>
-      <c r="JI12" s="10"/>
-      <c r="JJ12" s="10"/>
-      <c r="JK12" s="10"/>
-      <c r="JL12" s="10"/>
-      <c r="JM12" s="10"/>
-      <c r="JN12" s="10"/>
-      <c r="JO12" s="10"/>
-      <c r="JP12" s="10"/>
-      <c r="JQ12" s="10"/>
-      <c r="JR12" s="10"/>
-      <c r="JS12" s="10"/>
-      <c r="JT12" s="10"/>
-      <c r="JU12" s="10"/>
-      <c r="JV12" s="10"/>
-      <c r="JW12" s="10"/>
-      <c r="JX12" s="10"/>
-      <c r="JY12" s="10"/>
-      <c r="JZ12" s="10"/>
-      <c r="KA12" s="10"/>
-      <c r="KB12" s="10"/>
-      <c r="KC12" s="10"/>
-      <c r="KD12" s="10"/>
-      <c r="KE12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:291" s="3" customFormat="1">
       <c r="A13" s="1" t="s">
@@ -3686,10 +3639,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:291" s="3" customFormat="1">
@@ -3697,10 +3650,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>413</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -3991,15 +3944,15 @@
       <c r="KD15" s="10"/>
       <c r="KE15" s="10"/>
     </row>
-    <row r="16" spans="1:291">
-      <c r="A16" s="2">
+    <row r="16" spans="1:291" s="10" customFormat="1">
+      <c r="A16" s="8">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>118</v>
+      <c r="B16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:291" s="3" customFormat="1">
@@ -4007,10 +3960,10 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4306,10 +4259,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:291" s="3" customFormat="1">
@@ -4317,10 +4270,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -4616,10 +4569,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:291" s="3" customFormat="1">
@@ -4627,10 +4580,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4921,15 +4874,15 @@
       <c r="KD21" s="10"/>
       <c r="KE21" s="10"/>
     </row>
-    <row r="22" spans="1:291">
-      <c r="A22" s="2">
+    <row r="22" spans="1:291" s="10" customFormat="1">
+      <c r="A22" s="8">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>121</v>
+      <c r="B22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:291" s="3" customFormat="1">
@@ -4940,7 +4893,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -5231,15 +5184,15 @@
       <c r="KD23" s="10"/>
       <c r="KE23" s="10"/>
     </row>
-    <row r="24" spans="1:291">
-      <c r="A24" s="2">
+    <row r="24" spans="1:291" s="10" customFormat="1">
+      <c r="A24" s="8">
         <v>9</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>122</v>
+      <c r="B24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:291">
@@ -5250,18 +5203,18 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:291">
-      <c r="A26" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:291" s="10" customFormat="1">
+      <c r="A26" s="8">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>112</v>
+      <c r="B26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:291">
@@ -5269,10 +5222,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:291">
@@ -5280,10 +5233,10 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:291">
@@ -5291,10 +5244,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:291" s="5" customFormat="1">
@@ -5302,10 +5255,10 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -5601,10 +5554,10 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:291">
@@ -5612,10 +5565,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:291">
@@ -5624,7 +5577,7 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:291" s="5" customFormat="1">
@@ -5632,10 +5585,10 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -5931,10 +5884,10 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:291">
@@ -5942,10 +5895,10 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:291">
@@ -5954,7 +5907,7 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:291">
@@ -5962,10 +5915,10 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:291">
@@ -5973,10 +5926,10 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:291" s="3" customFormat="1">
@@ -5984,10 +5937,10 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -6283,10 +6236,10 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:291">
@@ -6294,10 +6247,10 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:291">
@@ -6305,10 +6258,13 @@
         <v>30</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:291" s="3" customFormat="1">
@@ -6316,10 +6272,10 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -6615,10 +6571,10 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:291">
@@ -6626,10 +6582,10 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:291">
@@ -6637,10 +6593,10 @@
         <v>34</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:291">
@@ -6648,10 +6604,10 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:291">
@@ -6659,10 +6615,10 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:291" s="6" customFormat="1">
@@ -6670,10 +6626,10 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -6969,10 +6925,10 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:291" s="6" customFormat="1">
@@ -6980,10 +6936,10 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -7293,7 +7249,7 @@
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:291">
@@ -7315,7 +7271,7 @@
         <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:291">
@@ -7323,10 +7279,10 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:291">
@@ -7345,10 +7301,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:291" s="5" customFormat="1">
@@ -7356,10 +7312,10 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -7655,10 +7611,10 @@
         <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:291">
@@ -7666,28 +7622,32 @@
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:291">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="B63" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="64" spans="1:291">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:291" s="5" customFormat="1">
@@ -7695,10 +7655,10 @@
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -7994,10 +7954,10 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:291">
@@ -8005,28 +7965,32 @@
         <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:291">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="69" spans="1:291">
       <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:291" s="5" customFormat="1">
@@ -8034,10 +7998,10 @@
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -8333,10 +8297,10 @@
         <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -8632,10 +8596,10 @@
         <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:291">
@@ -8644,16 +8608,18 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:291">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5" t="s">
-        <v>208</v>
+      <c r="B74" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:291" s="3" customFormat="1">
@@ -8664,7 +8630,7 @@
         <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -8960,10 +8926,10 @@
         <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:291">
@@ -8971,10 +8937,10 @@
         <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:291">
@@ -8982,10 +8948,10 @@
         <v>65</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:291">
@@ -8993,10 +8959,10 @@
         <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:291">
@@ -9004,10 +8970,10 @@
         <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:291">
@@ -9015,10 +8981,10 @@
         <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:291">
@@ -9026,10 +8992,10 @@
         <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:291">
@@ -9037,10 +9003,10 @@
         <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:291" s="5" customFormat="1">
@@ -9048,10 +9014,10 @@
         <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -9347,10 +9313,10 @@
         <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:291">
@@ -9358,10 +9324,10 @@
         <v>73</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:291">
@@ -9370,7 +9336,7 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:291">
@@ -9378,10 +9344,10 @@
         <v>75</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:291">
@@ -9389,10 +9355,10 @@
         <v>76</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:291">
@@ -9400,10 +9366,10 @@
         <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:291">
@@ -9411,10 +9377,10 @@
         <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:291">
@@ -9422,10 +9388,10 @@
         <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:291" s="5" customFormat="1">
@@ -9433,10 +9399,10 @@
         <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -9743,10 +9709,10 @@
         <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -10043,7 +10009,7 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10062,11 +10028,13 @@
         <v>85</v>
       </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -10074,10 +10042,10 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -10085,10 +10053,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -10096,10 +10064,10 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10107,10 +10075,10 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -10121,7 +10089,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10129,10 +10097,10 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10143,7 +10111,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -10151,10 +10119,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -10165,7 +10133,7 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -10173,10 +10141,10 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -10187,7 +10155,7 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -10195,10 +10163,10 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -10209,7 +10177,7 @@
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -10217,10 +10185,10 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C114" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10231,7 +10199,7 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -10239,10 +10207,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -10253,7 +10221,7 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -10261,10 +10229,10 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -10272,10 +10240,10 @@
         <v>12</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10283,10 +10251,10 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10295,7 +10263,7 @@
       </c>
       <c r="B121" s="17"/>
       <c r="C121" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -10303,10 +10271,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -10317,7 +10285,7 @@
         <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10328,7 +10296,7 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -10339,7 +10307,7 @@
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10350,7 +10318,7 @@
         <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -10361,7 +10329,7 @@
         <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10369,154 +10337,156 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C128" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C130" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C131" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C132" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" s="10" customFormat="1">
-      <c r="A133" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="10" customFormat="1">
+      <c r="A133" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="B133" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C134" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C135" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C136" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C139" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C141" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="8" t="s">
         <v>33</v>
       </c>
@@ -10527,22 +10497,30 @@
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="4" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="B143" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -10550,10 +10528,10 @@
         <v>36</v>
       </c>
       <c r="B145" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C145" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -10561,10 +10539,10 @@
         <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C146" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -10572,10 +10550,10 @@
         <v>38</v>
       </c>
       <c r="B147" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C147" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -10583,10 +10561,10 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C148" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -10597,16 +10575,18 @@
         <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5" t="s">
-        <v>332</v>
+      <c r="B150" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -10617,16 +10597,18 @@
         <v>42</v>
       </c>
       <c r="C151" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5" t="s">
-        <v>333</v>
+      <c r="B152" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -10634,10 +10616,10 @@
         <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C153" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -10645,10 +10627,10 @@
         <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -10656,19 +10638,21 @@
         <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C155" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="10" customFormat="1">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5" t="s">
-        <v>340</v>
+      <c r="B156" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -10676,10 +10660,10 @@
         <v>48</v>
       </c>
       <c r="B157" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C157" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -10687,10 +10671,10 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C158" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -10698,10 +10682,10 @@
         <v>50</v>
       </c>
       <c r="B159" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C159" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -10709,10 +10693,10 @@
         <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C160" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -10720,10 +10704,10 @@
         <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C161" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -10731,10 +10715,10 @@
         <v>53</v>
       </c>
       <c r="B162" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C162" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -10742,19 +10726,21 @@
         <v>54</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C163" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5" t="s">
-        <v>357</v>
+      <c r="B164" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -10762,10 +10748,10 @@
         <v>56</v>
       </c>
       <c r="B165" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C165" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -10773,10 +10759,10 @@
         <v>57</v>
       </c>
       <c r="B166" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C166" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -10784,10 +10770,10 @@
         <v>58</v>
       </c>
       <c r="B167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C167" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -10795,35 +10781,43 @@
         <v>59</v>
       </c>
       <c r="B168" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C168" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
+      <c r="B169" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
+      <c r="B170" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -10834,7 +10828,7 @@
         <v>63</v>
       </c>
       <c r="C172" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -10845,7 +10839,7 @@
         <v>64</v>
       </c>
       <c r="C173" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -10856,7 +10850,7 @@
         <v>65</v>
       </c>
       <c r="C174" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -10864,10 +10858,10 @@
         <v>67</v>
       </c>
       <c r="B175" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C175" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -10875,10 +10869,10 @@
         <v>66</v>
       </c>
       <c r="B176" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C176" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -10886,10 +10880,10 @@
         <v>68</v>
       </c>
       <c r="B177" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C177" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -10897,10 +10891,10 @@
         <v>69</v>
       </c>
       <c r="B178" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C178" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -10908,10 +10902,10 @@
         <v>70</v>
       </c>
       <c r="B179" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C179" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -10919,19 +10913,21 @@
         <v>71</v>
       </c>
       <c r="B180" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5" t="s">
-        <v>377</v>
+      <c r="B181" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -10939,10 +10935,10 @@
         <v>73</v>
       </c>
       <c r="B182" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C182" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -10950,10 +10946,10 @@
         <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C183" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -10961,10 +10957,10 @@
         <v>75</v>
       </c>
       <c r="B184" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -10972,10 +10968,10 @@
         <v>76</v>
       </c>
       <c r="B185" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -10983,10 +10979,10 @@
         <v>77</v>
       </c>
       <c r="B186" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C186" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -10994,10 +10990,10 @@
         <v>78</v>
       </c>
       <c r="B187" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="10" customFormat="1">
@@ -11005,10 +11001,10 @@
         <v>79</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -11019,15 +11015,17 @@
         <v>80</v>
       </c>
       <c r="C189" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="8" t="s">
@@ -11037,15 +11035,17 @@
         <v>84</v>
       </c>
       <c r="C191" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="8" t="s">
@@ -11055,7 +11055,7 @@
         <v>84</v>
       </c>
       <c r="C193" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -11066,7 +11066,7 @@
         <v>85</v>
       </c>
       <c r="C194" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:3">

--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="12800" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="420">
   <si>
     <t>Arabic Name</t>
   </si>
@@ -1264,6 +1264,21 @@
   </si>
   <si>
     <t>PDF has a dot, unicode dose not</t>
+  </si>
+  <si>
+    <t>Arabic Letter Alef With Madda Above</t>
+  </si>
+  <si>
+    <t>&amp;#x622;</t>
+  </si>
+  <si>
+    <t>&amp;#x60e;</t>
+  </si>
+  <si>
+    <t>&amp;#x621;</t>
+  </si>
+  <si>
+    <t>&amp;#x62d</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1384,388 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="535">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1564,7 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="535">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1642,6 +2037,196 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1719,6 +2304,196 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2048,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KE201"/>
+  <dimension ref="A1:KE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3340,10 +4115,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -5244,10 +6019,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:291" s="5" customFormat="1">
@@ -5571,24 +6346,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:291">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:291" s="5" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:291" s="5" customFormat="1">
-      <c r="A34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -5881,66 +6644,66 @@
     </row>
     <row r="35" spans="1:291">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:291">
       <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:291">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>151</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:291">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:291">
+      <c r="A38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:291">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:291">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:291" s="3" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -6233,49 +6996,49 @@
     </row>
     <row r="41" spans="1:291">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:291">
       <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:291">
+      <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>161</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:291">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:291" s="3" customFormat="1">
-      <c r="A44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>165</v>
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -6568,68 +7331,68 @@
     </row>
     <row r="45" spans="1:291">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:291">
       <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:291">
+      <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>169</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:291">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:291">
+      <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:291">
-      <c r="A48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:291">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:291" s="6" customFormat="1">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -6922,24 +7685,24 @@
     </row>
     <row r="51" spans="1:291">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:291" s="6" customFormat="1">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -7231,92 +7994,86 @@
       <c r="KE52" s="10"/>
     </row>
     <row r="53" spans="1:291">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:291">
+      <c r="A54" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B54" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:291">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:291">
+      <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>41</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:291">
-      <c r="A55" s="12" t="s">
+    <row r="56" spans="1:291">
+      <c r="A56" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:291">
-      <c r="A56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:291">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:291">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:291">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:291" s="5" customFormat="1">
-      <c r="A60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" t="s">
-        <v>187</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60"/>
+      <c r="C60"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -7608,57 +8365,57 @@
     </row>
     <row r="61" spans="1:291">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:291">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:291">
-      <c r="A63" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>407</v>
+      <c r="A63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:291">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:291" s="5" customFormat="1">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -7951,57 +8708,57 @@
     </row>
     <row r="66" spans="1:291">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:291">
-      <c r="A67" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" t="s">
-        <v>102</v>
+      <c r="A67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:291">
-      <c r="A68" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>396</v>
+      <c r="A68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:291">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:291" s="5" customFormat="1">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -8294,13 +9051,13 @@
     </row>
     <row r="71" spans="1:291" s="5" customFormat="1">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -8592,45 +9349,47 @@
       <c r="KE71" s="10"/>
     </row>
     <row r="72" spans="1:291">
-      <c r="A72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" t="s">
-        <v>204</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
+      <c r="A72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:291">
-      <c r="A73" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5" t="s">
-        <v>205</v>
+      <c r="A73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:291">
-      <c r="A74" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>409</v>
+      <c r="A74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:291" s="3" customFormat="1">
       <c r="A75" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -8923,101 +9682,93 @@
     </row>
     <row r="76" spans="1:291">
       <c r="A76" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:291">
-      <c r="A77" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" t="s">
-        <v>210</v>
+      <c r="A77" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:291">
-      <c r="A78" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>212</v>
+      <c r="A78" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:291">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:291">
       <c r="A80" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:291">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:291">
-      <c r="A82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" t="s">
-        <v>220</v>
+      <c r="A82" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:291">
-      <c r="A83" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83" t="s">
-        <v>222</v>
-      </c>
+      <c r="A83" s="7"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:291" s="5" customFormat="1">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -9310,99 +10061,99 @@
     </row>
     <row r="85" spans="1:291">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:291">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:291">
-      <c r="A87" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5" t="s">
-        <v>230</v>
+      <c r="A87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:291">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:291">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:291">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:291">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:291">
-      <c r="A92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" t="s">
-        <v>240</v>
-      </c>
-      <c r="C92" t="s">
-        <v>239</v>
+      <c r="A92" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:291" s="5" customFormat="1">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -9695,24 +10446,24 @@
     </row>
     <row r="94" spans="1:291">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:291" s="5" customFormat="1">
       <c r="A95" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -10004,520 +10755,522 @@
       <c r="KE95" s="10"/>
     </row>
     <row r="96" spans="1:291">
-      <c r="A96" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5" t="s">
-        <v>245</v>
+      <c r="A96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B102" t="s">
         <v>93</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C102" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="4" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
-        <v>254</v>
-      </c>
-      <c r="C102" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" t="s">
-        <v>256</v>
-      </c>
-      <c r="C103" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="8">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
-        <v>259</v>
-      </c>
-      <c r="C104" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="8">
+      <c r="A106" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>254</v>
+      </c>
+      <c r="C107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="8">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="8">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C112" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="8">
+    <row r="113" spans="1:3">
+      <c r="A113" s="8">
         <v>3</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B113" t="s">
         <v>261</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C113" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="8" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C114" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="8">
+    <row r="115" spans="1:3">
+      <c r="A115" s="8">
         <v>4</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B115" t="s">
         <v>262</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C115" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="8" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C116" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="8">
+    <row r="117" spans="1:3">
+      <c r="A117" s="8">
         <v>5</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B117" t="s">
         <v>263</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C117" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="8" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C118" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="8">
+    <row r="119" spans="1:3">
+      <c r="A119" s="8">
         <v>6</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B119" t="s">
         <v>264</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C119" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="8" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C120" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="8">
+    <row r="121" spans="1:3">
+      <c r="A121" s="8">
         <v>7</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B121" t="s">
         <v>265</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C121" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="8" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B122" t="s">
         <v>11</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C122" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="8">
+    <row r="123" spans="1:3">
+      <c r="A123" s="8">
         <v>8</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B123" t="s">
         <v>266</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C123" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="8">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>267</v>
-      </c>
-      <c r="C120" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="8">
-        <v>0</v>
-      </c>
-      <c r="B122" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" t="s">
-        <v>288</v>
+        <v>12</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="8" t="s">
-        <v>16</v>
+      <c r="A125" s="8">
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B126" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" t="s">
-        <v>290</v>
+      <c r="A126" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="8" t="s">
-        <v>18</v>
+      <c r="A127" s="8">
+        <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="10" customFormat="1">
       <c r="A133" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>403</v>
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C134" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C135" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C136" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B138" t="s">
-        <v>310</v>
-      </c>
-      <c r="C138" t="s">
-        <v>311</v>
+        <v>24</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C139" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="C140" t="s">
-        <v>165</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C141" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="C142" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>400</v>
+      <c r="A143" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" t="s">
+        <v>311</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5" t="s">
-        <v>316</v>
+      <c r="A144" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" t="s">
+        <v>312</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>402</v>
@@ -10525,570 +11278,623 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="C145" t="s">
-        <v>317</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C146" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B147" t="s">
-        <v>322</v>
+        <v>97</v>
       </c>
       <c r="C147" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B148" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" t="s">
-        <v>323</v>
+      <c r="A148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149" t="s">
-        <v>40</v>
-      </c>
-      <c r="C149" t="s">
-        <v>325</v>
+      <c r="A149" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>327</v>
+        <v>36</v>
+      </c>
+      <c r="B150" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="C151" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>328</v>
+        <v>38</v>
+      </c>
+      <c r="B152" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C153" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B155" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" t="s">
-        <v>333</v>
+        <v>41</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="10" customFormat="1">
       <c r="A156" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>399</v>
+        <v>42</v>
+      </c>
+      <c r="B156" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B157" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" t="s">
-        <v>335</v>
+        <v>43</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C158" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C159" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C160" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B161" t="s">
-        <v>346</v>
-      </c>
-      <c r="C161" t="s">
-        <v>345</v>
+        <v>47</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B162" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C162" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C163" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>396</v>
+        <v>50</v>
+      </c>
+      <c r="B164" t="s">
+        <v>342</v>
+      </c>
+      <c r="C164" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B165" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C165" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C166" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C167" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B168" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C168" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>392</v>
+        <v>56</v>
+      </c>
+      <c r="B170" t="s">
+        <v>347</v>
+      </c>
+      <c r="C170" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B171" t="s">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="C171" t="s">
-        <v>183</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="C172" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B173" t="s">
-        <v>64</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B174" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C174" t="s">
-        <v>357</v>
+      <c r="A174" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B175" t="s">
-        <v>359</v>
-      </c>
-      <c r="C175" t="s">
-        <v>358</v>
+        <v>61</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B176" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s">
-        <v>362</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B177" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="C177" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B178" t="s">
-        <v>361</v>
+        <v>64</v>
       </c>
       <c r="C178" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B179" t="s">
-        <v>369</v>
+      <c r="A179" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C179" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B180" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C180" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>370</v>
+        <v>66</v>
+      </c>
+      <c r="B181" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B182" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C182" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B183" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C183" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B185" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C185" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B186" t="s">
-        <v>379</v>
-      </c>
-      <c r="C186" t="s">
-        <v>380</v>
+        <v>72</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C187" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="10" customFormat="1">
-      <c r="A188" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>383</v>
+      <c r="A188" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B189" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="C189" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13" t="s">
-        <v>405</v>
+      <c r="A190" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B191" t="s">
-        <v>84</v>
+        <v>379</v>
       </c>
       <c r="C191" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B192" s="13"/>
-      <c r="C192" s="13" t="s">
-        <v>406</v>
+      <c r="A192" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B192" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B193" t="s">
-        <v>84</v>
-      </c>
-      <c r="C193" t="s">
-        <v>388</v>
+      <c r="A193" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B194" t="s">
+        <v>80</v>
+      </c>
+      <c r="C194" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196" t="s">
+        <v>84</v>
+      </c>
+      <c r="C196" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B198" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B199" t="s">
         <v>85</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C199" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="8"/>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="8"/>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="8"/>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="8"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="8"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="8"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="8"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="8"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="8"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="8"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -1384,8 +1384,142 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="535">
+  <cellStyleXfs count="669">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1959,7 +2093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="535">
+  <cellStyles count="669">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2227,6 +2361,73 @@
     <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2494,6 +2695,73 @@
     <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2825,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="426">
   <si>
     <t>Arabic Name</t>
   </si>
@@ -789,9 +789,6 @@
     <t>DIVISION SIGN</t>
   </si>
   <si>
-    <t>0x00F7</t>
-  </si>
-  <si>
     <t>&amp;#x660</t>
   </si>
   <si>
@@ -876,9 +873,6 @@
     <t>ARABIC FIVE POINTED STAR</t>
   </si>
   <si>
-    <t xml:space="preserve">002A </t>
-  </si>
-  <si>
     <t>Dotted Line</t>
   </si>
   <si>
@@ -969,9 +963,6 @@
     <t>&amp;#xfdf1</t>
   </si>
   <si>
-    <t>High Yeh Baree</t>
-  </si>
-  <si>
     <t>Arabic Letter Teh Marbuta</t>
   </si>
   <si>
@@ -1194,9 +1185,6 @@
     <t>&amp;#FD3F</t>
   </si>
   <si>
-    <t>FDFC</t>
-  </si>
-  <si>
     <t>Arabic Small High Lam Alef</t>
   </si>
   <si>
@@ -1279,13 +1267,43 @@
   </si>
   <si>
     <t>&amp;#x62d</t>
+  </si>
+  <si>
+    <t>Arabic Small Yeh</t>
+  </si>
+  <si>
+    <t>&amp;#x6e6</t>
+  </si>
+  <si>
+    <t>Arabic Small High Yeh</t>
+  </si>
+  <si>
+    <t>&amp;#x6e7</t>
+  </si>
+  <si>
+    <t>Arabic Letter Heh Doachashmee Medial Form</t>
+  </si>
+  <si>
+    <t>&amp;#xfbad</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>&amp;x00F7</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>&amp;#1645;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1329,12 +1347,6 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1384,8 +1396,292 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="669">
+  <cellStyleXfs count="953">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2084,16 +2380,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="669">
+  <cellStyles count="953">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2428,6 +2726,148 @@
     <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2762,6 +3202,148 @@
     <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3093,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3118,6 +3700,9 @@
       <c r="C1" s="11" t="s">
         <v>250</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="2" spans="1:291">
       <c r="C2" s="10"/>
@@ -3138,25 +3723,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:291">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:291" s="10" customFormat="1">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:291" s="3" customFormat="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="10"/>
@@ -3449,13 +4034,13 @@
       <c r="KE6" s="10"/>
     </row>
     <row r="7" spans="1:291" s="3" customFormat="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="10"/>
@@ -3748,24 +4333,24 @@
       <c r="KE7" s="10"/>
     </row>
     <row r="8" spans="1:291">
-      <c r="A8" s="1">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:291" s="3" customFormat="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="10"/>
@@ -4058,24 +4643,24 @@
       <c r="KE9" s="10"/>
     </row>
     <row r="10" spans="1:291" s="10" customFormat="1">
-      <c r="A10" s="8">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:291" s="3" customFormat="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D11" s="10"/>
@@ -4368,24 +4953,24 @@
       <c r="KE11" s="10"/>
     </row>
     <row r="12" spans="1:291" s="10" customFormat="1">
-      <c r="A12" s="8">
+      <c r="A12" s="15">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:291" s="3" customFormat="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>418</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D13" s="10"/>
@@ -4689,14 +5274,14 @@
       </c>
     </row>
     <row r="15" spans="1:291" s="3" customFormat="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>412</v>
+      <c r="B15" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -4988,24 +5573,24 @@
       <c r="KE15" s="10"/>
     </row>
     <row r="16" spans="1:291" s="10" customFormat="1">
-      <c r="A16" s="8">
+      <c r="A16" s="15">
         <v>5</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:291" s="3" customFormat="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="10"/>
@@ -5309,13 +5894,13 @@
       </c>
     </row>
     <row r="19" spans="1:291" s="3" customFormat="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="10"/>
@@ -5619,13 +6204,13 @@
       </c>
     </row>
     <row r="21" spans="1:291" s="3" customFormat="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="10"/>
@@ -5918,24 +6503,24 @@
       <c r="KE21" s="10"/>
     </row>
     <row r="22" spans="1:291" s="10" customFormat="1">
-      <c r="A22" s="8">
+      <c r="A22" s="15">
         <v>8</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:291" s="3" customFormat="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D23" s="10"/>
@@ -6228,79 +6813,79 @@
       <c r="KE23" s="10"/>
     </row>
     <row r="24" spans="1:291" s="10" customFormat="1">
-      <c r="A24" s="8">
+      <c r="A24" s="15">
         <v>9</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:291">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:291" s="10" customFormat="1">
-      <c r="A26" s="8">
+      <c r="A26" s="15">
         <v>0</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:291">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="19" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:291">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:291">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C29" t="s">
-        <v>415</v>
+      <c r="B29" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:291" s="5" customFormat="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D30" s="10"/>
@@ -6593,24 +7178,24 @@
       <c r="KE30" s="10"/>
     </row>
     <row r="31" spans="1:291">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:291">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7295,7 +7880,7 @@
         <v>162</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:291" s="3" customFormat="1">
@@ -8332,7 +8917,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s">
         <v>145</v>
@@ -8990,10 +9575,10 @@
         <v>50</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:291">
@@ -9322,7 +9907,7 @@
         <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C71" t="s">
         <v>102</v>
@@ -9621,10 +10206,10 @@
         <v>55</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:291">
@@ -9973,10 +10558,10 @@
         <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:291">
@@ -11103,7 +11688,7 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -11112,287 +11697,289 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="15">
+        <v>1</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="15">
+        <v>2</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="15">
+        <v>3</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="15">
+        <v>4</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="15">
+        <v>5</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="15">
+        <v>6</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="15">
+        <v>7</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="15">
+        <v>8</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="15">
+        <v>9</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="15">
+        <v>0</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C108" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="8">
-        <v>1</v>
-      </c>
-      <c r="B109" t="s">
-        <v>259</v>
-      </c>
-      <c r="C109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="8">
-        <v>2</v>
-      </c>
-      <c r="B111" t="s">
-        <v>260</v>
-      </c>
-      <c r="C111" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="8">
-        <v>3</v>
-      </c>
-      <c r="B113" t="s">
-        <v>261</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="8">
-        <v>4</v>
-      </c>
-      <c r="B115" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="8">
-        <v>5</v>
-      </c>
-      <c r="B117" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="8">
-        <v>6</v>
-      </c>
-      <c r="B119" t="s">
-        <v>264</v>
-      </c>
-      <c r="C119" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="8">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="8">
-        <v>8</v>
-      </c>
-      <c r="B123" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" s="15" t="s">
+      <c r="C127" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C124" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="8">
-        <v>9</v>
-      </c>
-      <c r="B125" t="s">
-        <v>267</v>
-      </c>
-      <c r="C125" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17" t="s">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="8">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>257</v>
-      </c>
-      <c r="C127" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B131" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -11403,7 +11990,7 @@
         <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="10" customFormat="1">
@@ -11411,10 +11998,10 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C133" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -11422,10 +12009,10 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C134" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -11433,10 +12020,10 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -11444,10 +12031,10 @@
         <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C136" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -11455,10 +12042,10 @@
         <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C137" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -11466,10 +12053,10 @@
         <v>24</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -11477,10 +12064,10 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C139" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -11488,10 +12075,10 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C140" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -11499,10 +12086,10 @@
         <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C141" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -11510,10 +12097,10 @@
         <v>28</v>
       </c>
       <c r="B142" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C142" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -11521,13 +12108,13 @@
         <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C143" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -11535,13 +12122,13 @@
         <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C144" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -11549,10 +12136,10 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="C145" t="s">
-        <v>165</v>
+        <v>416</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -11560,10 +12147,10 @@
         <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C146" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -11582,19 +12169,21 @@
         <v>34</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B149" s="5"/>
+      <c r="B149" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="C149" s="5" t="s">
-        <v>316</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -11602,10 +12191,10 @@
         <v>36</v>
       </c>
       <c r="B150" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -11613,10 +12202,10 @@
         <v>37</v>
       </c>
       <c r="B151" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C151" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -11624,10 +12213,10 @@
         <v>38</v>
       </c>
       <c r="B152" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -11635,10 +12224,10 @@
         <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C153" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -11649,7 +12238,7 @@
         <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -11657,10 +12246,10 @@
         <v>41</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="10" customFormat="1">
@@ -11671,7 +12260,7 @@
         <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -11679,10 +12268,10 @@
         <v>43</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -11690,10 +12279,10 @@
         <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -11701,10 +12290,10 @@
         <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C159" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -11712,10 +12301,10 @@
         <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -11723,10 +12312,10 @@
         <v>47</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -11734,10 +12323,10 @@
         <v>48</v>
       </c>
       <c r="B162" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -11745,10 +12334,10 @@
         <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C163" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -11756,10 +12345,10 @@
         <v>50</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C164" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -11767,10 +12356,10 @@
         <v>51</v>
       </c>
       <c r="B165" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C165" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -11778,10 +12367,10 @@
         <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C166" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -11789,10 +12378,10 @@
         <v>53</v>
       </c>
       <c r="B167" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C167" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -11800,10 +12389,10 @@
         <v>54</v>
       </c>
       <c r="B168" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C168" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -11811,10 +12400,10 @@
         <v>55</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -11822,10 +12411,10 @@
         <v>56</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C170" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -11833,10 +12422,10 @@
         <v>57</v>
       </c>
       <c r="B171" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C171" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -11844,10 +12433,10 @@
         <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C172" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -11855,10 +12444,10 @@
         <v>59</v>
       </c>
       <c r="B173" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C173" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -11866,10 +12455,10 @@
         <v>60</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -11877,10 +12466,10 @@
         <v>61</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -11902,7 +12491,7 @@
         <v>63</v>
       </c>
       <c r="C177" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -11913,18 +12502,18 @@
         <v>64</v>
       </c>
       <c r="C178" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C179" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -11932,10 +12521,10 @@
         <v>67</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -11943,10 +12532,10 @@
         <v>66</v>
       </c>
       <c r="B181" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C181" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -11954,10 +12543,10 @@
         <v>68</v>
       </c>
       <c r="B182" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C182" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -11965,10 +12554,10 @@
         <v>69</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -11976,10 +12565,10 @@
         <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C184" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -11987,21 +12576,21 @@
         <v>71</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B186" s="19" t="s">
-        <v>391</v>
+      <c r="B186" t="s">
+        <v>366</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -12009,10 +12598,10 @@
         <v>73</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="10" customFormat="1">
@@ -12020,10 +12609,10 @@
         <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -12031,10 +12620,10 @@
         <v>75</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -12042,10 +12631,10 @@
         <v>76</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -12053,10 +12642,10 @@
         <v>77</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -12064,10 +12653,10 @@
         <v>78</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -12075,10 +12664,10 @@
         <v>79</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -12089,7 +12678,7 @@
         <v>80</v>
       </c>
       <c r="C194" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -12098,7 +12687,7 @@
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="13" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -12106,10 +12695,10 @@
         <v>82</v>
       </c>
       <c r="B196" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -12118,7 +12707,7 @@
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="13" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -12129,7 +12718,7 @@
         <v>84</v>
       </c>
       <c r="C198" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -12140,7 +12729,7 @@
         <v>85</v>
       </c>
       <c r="C199" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:3">

--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -564,9 +564,6 @@
     <t>&amp;#x67e</t>
   </si>
   <si>
-    <t>right square bra</t>
-  </si>
-  <si>
     <t>left square bracket</t>
   </si>
   <si>
@@ -1297,6 +1294,9 @@
   </si>
   <si>
     <t>&amp;#1645;</t>
+  </si>
+  <si>
+    <t>right square bracket</t>
   </si>
 </sst>
 </file>
@@ -3675,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3692,16 +3692,16 @@
   <sheetData>
     <row r="1" spans="1:291">
       <c r="A1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:291">
@@ -3709,7 +3709,7 @@
     </row>
     <row r="3" spans="1:291">
       <c r="A3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:291" s="10" customFormat="1">
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>170</v>
@@ -5278,10 +5278,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6872,10 +6872,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:291" s="5" customFormat="1">
@@ -7496,35 +7496,35 @@
       <c r="KE34" s="10"/>
     </row>
     <row r="35" spans="1:291">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:291">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:291">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7538,24 +7538,24 @@
       </c>
     </row>
     <row r="39" spans="1:291">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:291" s="3" customFormat="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D40" s="10"/>
@@ -7848,39 +7848,39 @@
       <c r="KE40" s="10"/>
     </row>
     <row r="41" spans="1:291">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:291">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:291">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:291" s="3" customFormat="1">
@@ -8183,68 +8183,68 @@
       <c r="KE44" s="10"/>
     </row>
     <row r="45" spans="1:291">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:291">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:291">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:291">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:291">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:291" s="6" customFormat="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>173</v>
       </c>
       <c r="D50" s="10"/>
@@ -8537,13 +8537,13 @@
       <c r="KE50" s="10"/>
     </row>
     <row r="51" spans="1:291">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8847,13 +8847,13 @@
       <c r="KE52" s="10"/>
     </row>
     <row r="53" spans="1:291">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8869,14 +8869,14 @@
       </c>
     </row>
     <row r="55" spans="1:291">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C55" t="s">
-        <v>182</v>
+      <c r="C55" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:291">
@@ -8891,35 +8891,35 @@
       </c>
     </row>
     <row r="57" spans="1:291">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C57" t="s">
-        <v>181</v>
+      <c r="C57" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:291">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:291">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B59" t="s">
-        <v>413</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9217,24 +9217,24 @@
       <c r="KE60" s="10"/>
     </row>
     <row r="61" spans="1:291">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B61" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C61" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="62" spans="1:291">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9243,32 +9243,32 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
         <v>185</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:291">
+      <c r="A64" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:291">
-      <c r="A64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="65" spans="1:291" s="5" customFormat="1">
+      <c r="A65" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:291" s="5" customFormat="1">
-      <c r="A65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" t="s">
-        <v>189</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -9560,57 +9560,57 @@
       <c r="KE65" s="10"/>
     </row>
     <row r="66" spans="1:291">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:291">
+      <c r="A67" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:291">
+      <c r="A68" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:291">
-      <c r="A67" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:291">
-      <c r="A68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:291">
+      <c r="A69" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C68" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:291">
-      <c r="A69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="70" spans="1:291" s="5" customFormat="1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D70" s="10"/>
@@ -9903,13 +9903,13 @@
       <c r="KE70" s="10"/>
     </row>
     <row r="71" spans="1:291" s="5" customFormat="1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B71" t="s">
-        <v>415</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D71" s="10"/>
@@ -10202,14 +10202,14 @@
       <c r="KE71" s="10"/>
     </row>
     <row r="72" spans="1:291">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>420</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:291">
@@ -10217,32 +10217,32 @@
         <v>56</v>
       </c>
       <c r="B73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:291">
+      <c r="A74" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:291">
-      <c r="A74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="1:291" s="3" customFormat="1">
+      <c r="A75" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:291" s="3" customFormat="1">
-      <c r="A75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" t="s">
-        <v>201</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -10534,14 +10534,14 @@
       <c r="KE75" s="10"/>
     </row>
     <row r="76" spans="1:291">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B76" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="6" t="s">
         <v>203</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:291">
@@ -10550,40 +10550,40 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:291">
+      <c r="A78" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:291">
+      <c r="A79" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:291">
-      <c r="A78" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:291">
-      <c r="A79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="80" spans="1:291">
+      <c r="A80" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="80" spans="1:291">
-      <c r="A80" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="C80" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:291">
@@ -10591,10 +10591,10 @@
         <v>64</v>
       </c>
       <c r="B81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" t="s">
         <v>209</v>
-      </c>
-      <c r="C81" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:291">
@@ -10602,10 +10602,10 @@
         <v>65</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:291">
@@ -10614,14 +10614,14 @@
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:291" s="5" customFormat="1">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="6" t="s">
         <v>213</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10913,80 +10913,80 @@
       <c r="KE84" s="10"/>
     </row>
     <row r="85" spans="1:291">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:291">
+      <c r="A86" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C85" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:291">
-      <c r="A86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="87" spans="1:291">
+      <c r="A87" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C86" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:291">
-      <c r="A87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:291">
+      <c r="A88" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="88" spans="1:291">
-      <c r="A88" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="1:291">
+      <c r="A89" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:291">
-      <c r="A89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:291">
+      <c r="A90" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C89" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:291">
-      <c r="A90" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="91" spans="1:291">
+      <c r="A91" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C90" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:291">
-      <c r="A91" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" t="s">
-        <v>228</v>
-      </c>
-      <c r="C91" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:291">
@@ -10995,18 +10995,18 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:291" s="5" customFormat="1">
+      <c r="A93" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="93" spans="1:291" s="5" customFormat="1">
-      <c r="A93" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" t="s">
-        <v>231</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -11298,25 +11298,25 @@
       <c r="KE93" s="10"/>
     </row>
     <row r="94" spans="1:291">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:291" s="5" customFormat="1">
+      <c r="A95" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C94" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:291" s="5" customFormat="1">
-      <c r="A95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B95" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" t="s">
-        <v>235</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -11608,25 +11608,25 @@
       <c r="KE95" s="10"/>
     </row>
     <row r="96" spans="1:291">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C96" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C97" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -11634,10 +11634,10 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" t="s">
         <v>241</v>
-      </c>
-      <c r="C98" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -11656,10 +11656,10 @@
         <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -11688,12 +11688,12 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -11701,10 +11701,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -11712,10 +11712,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -11723,10 +11723,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -11734,10 +11734,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -11748,7 +11748,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -11756,10 +11756,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -11770,7 +11770,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -11778,10 +11778,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -11792,7 +11792,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -11800,10 +11800,10 @@
         <v>4</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -11814,7 +11814,7 @@
         <v>8</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -11822,10 +11822,10 @@
         <v>5</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -11836,7 +11836,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -11844,10 +11844,10 @@
         <v>6</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -11858,7 +11858,7 @@
         <v>10</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -11866,10 +11866,10 @@
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -11880,7 +11880,7 @@
         <v>11</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -11888,10 +11888,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -11899,10 +11899,10 @@
         <v>12</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -11910,10 +11910,10 @@
         <v>9</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -11921,10 +11921,10 @@
         <v>13</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -11932,10 +11932,10 @@
         <v>0</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -11946,7 +11946,7 @@
         <v>14</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -11957,7 +11957,7 @@
         <v>15</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>16</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -11979,117 +11979,117 @@
         <v>17</v>
       </c>
       <c r="C131" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="133" spans="1:4" s="10" customFormat="1">
+      <c r="A133" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B133" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="10" customFormat="1">
-      <c r="A133" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C133" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C134" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C135" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C136" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" t="s">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C137" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B139" t="s">
-        <v>306</v>
-      </c>
-      <c r="C139" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" t="s">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C140" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B141" t="s">
-        <v>303</v>
-      </c>
-      <c r="C141" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -12097,49 +12097,49 @@
         <v>28</v>
       </c>
       <c r="B142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D143" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144" t="s">
-        <v>311</v>
-      </c>
-      <c r="C144" t="s">
-        <v>310</v>
-      </c>
       <c r="D144" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B145" t="s">
-        <v>417</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B145" s="6" t="s">
         <v>416</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -12147,32 +12147,32 @@
         <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C146" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="B148" s="6" t="s">
         <v>396</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -12180,120 +12180,120 @@
         <v>35</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C150" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B151" t="s">
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C151" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C152" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C153" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B154" t="s">
-        <v>40</v>
-      </c>
-      <c r="C154" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="10" customFormat="1">
+      <c r="A156" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B155" s="10" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C157" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="10" customFormat="1">
-      <c r="A156" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156" t="s">
-        <v>42</v>
-      </c>
-      <c r="C156" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C157" s="10" t="s">
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C158" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B159" t="s">
-        <v>329</v>
-      </c>
-      <c r="C159" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -12301,32 +12301,32 @@
         <v>46</v>
       </c>
       <c r="B160" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C160" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B162" t="s">
-        <v>333</v>
-      </c>
-      <c r="C162" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -12334,87 +12334,87 @@
         <v>49</v>
       </c>
       <c r="B163" t="s">
+        <v>334</v>
+      </c>
+      <c r="C163" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C163" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B164" t="s">
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C164" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B165" t="s">
-        <v>337</v>
-      </c>
-      <c r="C165" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C166" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B167" t="s">
-        <v>346</v>
-      </c>
-      <c r="C167" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B168" t="s">
-        <v>341</v>
-      </c>
-      <c r="C168" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="C170" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="C170" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -12422,10 +12422,10 @@
         <v>57</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -12433,65 +12433,65 @@
         <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C172" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C173" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B176" t="s">
-        <v>184</v>
-      </c>
-      <c r="C176" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B177" t="s">
-        <v>63</v>
-      </c>
-      <c r="C177" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -12502,7 +12502,7 @@
         <v>64</v>
       </c>
       <c r="C178" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -12513,73 +12513,73 @@
         <v>65</v>
       </c>
       <c r="C179" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="181" spans="1:3">
+      <c r="A181" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C180" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B181" t="s">
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="C181" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B182" t="s">
-        <v>363</v>
-      </c>
-      <c r="C182" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B183" t="s">
-        <v>358</v>
-      </c>
-      <c r="C183" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B184" t="s">
-        <v>366</v>
-      </c>
-      <c r="C184" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B185" t="s">
-        <v>362</v>
-      </c>
-      <c r="C185" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -12587,32 +12587,32 @@
         <v>72</v>
       </c>
       <c r="B186" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C186" s="10" t="s">
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="C187" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="188" spans="1:3" s="10" customFormat="1">
+      <c r="A188" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" s="10" customFormat="1">
-      <c r="A188" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="C188" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="C188" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -12620,32 +12620,32 @@
         <v>75</v>
       </c>
       <c r="B189" t="s">
+        <v>372</v>
+      </c>
+      <c r="C189" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C189" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B190" t="s">
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C190" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="C191" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C191" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -12653,10 +12653,10 @@
         <v>78</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -12664,21 +12664,21 @@
         <v>79</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C194" t="s">
-        <v>383</v>
+      <c r="C194" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -12687,18 +12687,18 @@
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C196" t="s">
-        <v>384</v>
+      <c r="C196" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -12718,7 +12718,7 @@
         <v>84</v>
       </c>
       <c r="C198" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -12729,7 +12729,7 @@
         <v>85</v>
       </c>
       <c r="C199" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="200" spans="1:3">

--- a/Resources/TranslationKeys.xlsx
+++ b/Resources/TranslationKeys.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="445">
   <si>
     <t>Arabic Name</t>
   </si>
@@ -318,12 +318,6 @@
     <t>Arabic Letter Yeh With Hamza Above</t>
   </si>
   <si>
-    <t>Arabic Thousands Separator</t>
-  </si>
-  <si>
-    <t>&amp;#x66c</t>
-  </si>
-  <si>
     <t>&amp;#x6af</t>
   </si>
   <si>
@@ -552,12 +546,6 @@
     <t>&amp;#x6c1</t>
   </si>
   <si>
-    <t>Arabic Small Damma</t>
-  </si>
-  <si>
-    <t>&amp;#x619</t>
-  </si>
-  <si>
     <t>Arabic Letter Peh</t>
   </si>
   <si>
@@ -645,9 +633,6 @@
     <t>Arabic Semicolon</t>
   </si>
   <si>
-    <t>&amp;#x640</t>
-  </si>
-  <si>
     <t>Arabic Tatweel</t>
   </si>
   <si>
@@ -741,18 +726,9 @@
     <t>&amp;#x645</t>
   </si>
   <si>
-    <t>&amp;#x61a</t>
-  </si>
-  <si>
-    <t>Arabic Small Kasra</t>
-  </si>
-  <si>
     <t>Arabic Small Fatha</t>
   </si>
   <si>
-    <t>&amp;#x618</t>
-  </si>
-  <si>
     <t>Urdu Full Stop</t>
   </si>
   <si>
@@ -873,12 +849,6 @@
     <t>Dotted Line</t>
   </si>
   <si>
-    <t>"low minus"</t>
-  </si>
-  <si>
-    <t>"hyphen minus"</t>
-  </si>
-  <si>
     <t>Plus sign</t>
   </si>
   <si>
@@ -933,9 +903,6 @@
     <t>TRADE MARK SIGN</t>
   </si>
   <si>
-    <t>&amp;#2122</t>
-  </si>
-  <si>
     <t>&amp;#x60f</t>
   </si>
   <si>
@@ -1224,9 +1191,6 @@
     <t>Number Comma</t>
   </si>
   <si>
-    <t>English Full Stop</t>
-  </si>
-  <si>
     <t>Arabic Subscript Alef</t>
   </si>
   <si>
@@ -1297,6 +1261,99 @@
   </si>
   <si>
     <t>right square bracket</t>
+  </si>
+  <si>
+    <t>looks slightly different</t>
+  </si>
+  <si>
+    <t>isn't sideways</t>
+  </si>
+  <si>
+    <t>isn't above the center</t>
+  </si>
+  <si>
+    <t>can't find</t>
+  </si>
+  <si>
+    <t>no dot.</t>
+  </si>
+  <si>
+    <t>&amp;#x64f</t>
+  </si>
+  <si>
+    <t>Arabic Damma</t>
+  </si>
+  <si>
+    <t>left single quote</t>
+  </si>
+  <si>
+    <t>right single quote</t>
+  </si>
+  <si>
+    <t>&amp;#x2018</t>
+  </si>
+  <si>
+    <t>&amp;#x2019</t>
+  </si>
+  <si>
+    <t>&amp;#x653;</t>
+  </si>
+  <si>
+    <t>not appearing on the top</t>
+  </si>
+  <si>
+    <t>Found, but not working well (not included in the keybaord)</t>
+  </si>
+  <si>
+    <t>not appearing propperly</t>
+  </si>
+  <si>
+    <t>lig</t>
+  </si>
+  <si>
+    <t>&amp;#x640;</t>
+  </si>
+  <si>
+    <t>These two look the same</t>
+  </si>
+  <si>
+    <t>&amp;#xfe7a</t>
+  </si>
+  <si>
+    <t>Arabic Kasra Isolated Form</t>
+  </si>
+  <si>
+    <t>&amp;#x64e</t>
+  </si>
+  <si>
+    <t>&amp;#x2212;</t>
+  </si>
+  <si>
+    <t>minus sign</t>
+  </si>
+  <si>
+    <t>hyphen minus</t>
+  </si>
+  <si>
+    <t>not sure what "low minus" is</t>
+  </si>
+  <si>
+    <t>&amp;#x2122;</t>
+  </si>
+  <si>
+    <t>not showing up</t>
+  </si>
+  <si>
+    <t>has an extra line after (I think</t>
+  </si>
+  <si>
+    <t>full stop</t>
+  </si>
+  <si>
+    <t>&amp;#x2e</t>
+  </si>
+  <si>
+    <t>doesn't show up for some reason</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1453,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="953">
+  <cellStyleXfs count="999">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2350,8 +2407,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2376,11 +2479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2390,8 +2488,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="953">
+  <cellStyles count="999">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2868,6 +2974,29 @@
     <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3344,6 +3473,29 @@
     <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3675,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="B182" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3684,7 +3836,7 @@
     <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="29" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="10"/>
     <col min="6" max="6" width="12" style="10" customWidth="1"/>
     <col min="7" max="291" width="10.83203125" style="10"/>
@@ -3692,24 +3844,26 @@
   <sheetData>
     <row r="1" spans="1:291">
       <c r="A1" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>423</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:291">
-      <c r="C2" s="10"/>
+      <c r="A2" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="3" spans="1:291">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:291" s="10" customFormat="1">
@@ -3717,14 +3871,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:291" s="10" customFormat="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3735,7 +3889,7 @@
       </c>
     </row>
     <row r="6" spans="1:291" s="3" customFormat="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -4034,7 +4188,7 @@
       <c r="KE6" s="10"/>
     </row>
     <row r="7" spans="1:291" s="3" customFormat="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -4333,25 +4487,25 @@
       <c r="KE7" s="10"/>
     </row>
     <row r="8" spans="1:291">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:291" s="3" customFormat="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -4643,25 +4797,25 @@
       <c r="KE9" s="10"/>
     </row>
     <row r="10" spans="1:291" s="10" customFormat="1">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:291" s="3" customFormat="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4953,25 +5107,25 @@
       <c r="KE11" s="10"/>
     </row>
     <row r="12" spans="1:291" s="10" customFormat="1">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:291" s="3" customFormat="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -5267,21 +5421,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:291" s="3" customFormat="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -5573,25 +5730,25 @@
       <c r="KE15" s="10"/>
     </row>
     <row r="16" spans="1:291" s="10" customFormat="1">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:291" s="3" customFormat="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5883,25 +6040,25 @@
       <c r="KE17" s="10"/>
     </row>
     <row r="18" spans="1:291">
-      <c r="A18" s="2">
+      <c r="A18" s="12">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>117</v>
+      <c r="B18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:291" s="3" customFormat="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6197,21 +6354,24 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:291" s="3" customFormat="1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6503,25 +6663,25 @@
       <c r="KE21" s="10"/>
     </row>
     <row r="22" spans="1:291" s="10" customFormat="1">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:291" s="3" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6813,80 +6973,80 @@
       <c r="KE23" s="10"/>
     </row>
     <row r="24" spans="1:291" s="10" customFormat="1">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>9</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:291">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:291" s="10" customFormat="1">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:291">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:291">
+      <c r="A28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:291">
-      <c r="A28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="19" t="s">
+    </row>
+    <row r="29" spans="1:291">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:291" s="5" customFormat="1">
+      <c r="A30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:291">
-      <c r="A29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:291" s="5" customFormat="1">
-      <c r="A30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -7182,21 +7342,24 @@
         <v>18</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:291">
+      <c r="A32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:291">
-      <c r="A32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:291" s="5" customFormat="1">
@@ -7204,9 +7367,11 @@
         <v>20</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>417</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -7496,36 +7661,36 @@
       <c r="KE34" s="10"/>
     </row>
     <row r="35" spans="1:291">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:291">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:291">
+      <c r="A37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:291">
-      <c r="A37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:291">
@@ -7534,29 +7699,29 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:291">
+      <c r="A39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="39" spans="1:291">
-      <c r="A39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:291" s="3" customFormat="1">
+      <c r="A40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:291" s="3" customFormat="1">
-      <c r="A40" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -7848,39 +8013,39 @@
       <c r="KE40" s="10"/>
     </row>
     <row r="41" spans="1:291">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:291">
+      <c r="A42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:291">
-      <c r="A42" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:291">
+      <c r="A43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:291">
-      <c r="A43" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="D43" s="10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:291" s="3" customFormat="1">
@@ -7888,12 +8053,14 @@
         <v>30</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -8183,69 +8350,69 @@
       <c r="KE44" s="10"/>
     </row>
     <row r="45" spans="1:291">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:291">
+      <c r="A46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:291">
-      <c r="A46" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="6" t="s">
+    <row r="47" spans="1:291">
+      <c r="A47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:291">
-      <c r="A47" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:291">
+      <c r="A48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:291">
-      <c r="A48" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:291">
+      <c r="A49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:291" s="6" customFormat="1">
+      <c r="A50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:291">
-      <c r="A49" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:291" s="6" customFormat="1">
-      <c r="A50" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -8537,25 +8704,25 @@
       <c r="KE50" s="10"/>
     </row>
     <row r="51" spans="1:291">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:291" s="6" customFormat="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" t="s">
-        <v>177</v>
+      <c r="B52" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -8847,80 +9014,80 @@
       <c r="KE52" s="10"/>
     </row>
     <row r="53" spans="1:291">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:291">
       <c r="A54" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>99</v>
+      <c r="B54" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:291">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:291">
       <c r="A56" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>92</v>
+      <c r="B56" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:291">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:291">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:291">
+      <c r="A59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:291">
-      <c r="A59" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:291" s="5" customFormat="1">
@@ -9221,14 +9388,17 @@
         <v>44</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>183</v>
+        <v>425</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:291">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -9239,36 +9409,39 @@
       </c>
     </row>
     <row r="63" spans="1:291">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:291">
+      <c r="A64" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:291" s="5" customFormat="1">
+      <c r="A65" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C63" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:291">
-      <c r="A64" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:291" s="5" customFormat="1">
-      <c r="A65" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -9560,58 +9733,58 @@
       <c r="KE65" s="10"/>
     </row>
     <row r="66" spans="1:291">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:291">
+      <c r="A67" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:291">
+      <c r="A68" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:291">
+      <c r="A69" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:291">
-      <c r="A67" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:291">
-      <c r="A68" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:291">
-      <c r="A69" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="70" spans="1:291" s="5" customFormat="1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -9903,14 +10076,14 @@
       <c r="KE70" s="10"/>
     </row>
     <row r="71" spans="1:291" s="5" customFormat="1">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -10202,47 +10375,47 @@
       <c r="KE71" s="10"/>
     </row>
     <row r="72" spans="1:291">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:291">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:291">
+      <c r="A74" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:291" s="3" customFormat="1">
+      <c r="A75" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" s="6" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:291">
-      <c r="A74" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:291" s="3" customFormat="1">
-      <c r="A75" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -10534,14 +10707,14 @@
       <c r="KE75" s="10"/>
     </row>
     <row r="76" spans="1:291">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:291">
@@ -10550,51 +10723,57 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:291">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:291">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:291">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:291">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B81" t="s">
-        <v>208</v>
-      </c>
-      <c r="C81" t="s">
-        <v>209</v>
+      <c r="B81" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:291">
@@ -10602,26 +10781,29 @@
         <v>65</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:291">
-      <c r="A83" s="7"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:291" s="5" customFormat="1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -10913,80 +11095,80 @@
       <c r="KE84" s="10"/>
     </row>
     <row r="85" spans="1:291">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:291">
+      <c r="A86" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:291">
+      <c r="A87" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:291">
+      <c r="A88" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:291">
-      <c r="A86" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="C88" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:291">
+      <c r="A89" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:291">
-      <c r="A87" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="6" t="s">
+    </row>
+    <row r="90" spans="1:291">
+      <c r="A90" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:291">
-      <c r="A88" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C88" s="6" t="s">
+    <row r="91" spans="1:291">
+      <c r="A91" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:291">
-      <c r="A89" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:291">
-      <c r="A90" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:291">
-      <c r="A91" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:291">
@@ -10995,18 +11177,21 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="1:291" s="5" customFormat="1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -11298,25 +11483,25 @@
       <c r="KE93" s="10"/>
     </row>
     <row r="94" spans="1:291">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:291" s="5" customFormat="1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -11608,58 +11793,58 @@
       <c r="KE95" s="10"/>
     </row>
     <row r="96" spans="1:291">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B98" t="s">
-        <v>240</v>
-      </c>
-      <c r="C98" t="s">
-        <v>241</v>
+      <c r="B98" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B100" t="s">
-        <v>243</v>
-      </c>
-      <c r="C100" t="s">
-        <v>242</v>
+      <c r="B100" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -11668,17 +11853,17 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -11688,473 +11873,479 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="C107" s="6" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="15">
+      <c r="A109" s="12">
         <v>1</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="15">
+      <c r="A111" s="12">
         <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="12">
         <v>3</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="12">
         <v>4</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="12">
         <v>5</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="12">
         <v>6</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="12">
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="12">
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="15">
+      <c r="B124" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="12">
         <v>9</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="15">
+      <c r="B126" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="12">
         <v>0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>284</v>
+        <v>436</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>285</v>
+      <c r="C129" s="6" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C132" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="10" customFormat="1">
+      <c r="A133" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" s="10" customFormat="1">
-      <c r="A133" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B133" s="6" t="s">
+      <c r="C137" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B134" s="6" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C135" s="6" t="s">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B136" s="6" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="6" t="s">
+      <c r="C143" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="6" t="s">
+      <c r="D144" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B142" t="s">
-        <v>304</v>
-      </c>
-      <c r="C142" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B146" t="s">
-        <v>312</v>
-      </c>
-      <c r="C146" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="15" t="s">
+      <c r="D146" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -12164,593 +12355,602 @@
         <v>98</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="15" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="4" t="s">
+      <c r="B148" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="15" t="s">
+      <c r="B149" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" s="10" customFormat="1">
-      <c r="A156" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="10" customFormat="1">
+      <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C158" s="3" t="s">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B159" s="6" t="s">
+      <c r="C165" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" t="s">
-        <v>330</v>
-      </c>
-      <c r="C160" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B162" s="6" t="s">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B163" t="s">
-        <v>334</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="C170" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B164" s="6" t="s">
+    <row r="171" spans="1:3">
+      <c r="A171" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B171" t="s">
-        <v>348</v>
-      </c>
-      <c r="C171" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B172" t="s">
-        <v>312</v>
-      </c>
-      <c r="C172" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C177" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B178" t="s">
-        <v>64</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="C182" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C179" t="s">
+    <row r="183" spans="1:3">
+      <c r="A183" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B180" s="6" t="s">
+    <row r="185" spans="1:3">
+      <c r="A185" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B181" s="6" t="s">
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="10" customFormat="1">
+      <c r="A188" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B182" s="6" t="s">
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B184" s="6" t="s">
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B186" t="s">
-        <v>365</v>
-      </c>
-      <c r="C186" s="10" t="s">
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C187" s="6" t="s">
+    <row r="193" spans="1:4">
+      <c r="A193" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C193" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="10" customFormat="1">
-      <c r="A188" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B189" t="s">
-        <v>372</v>
-      </c>
-      <c r="C189" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B192" t="s">
-        <v>378</v>
-      </c>
-      <c r="C192" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="15" t="s">
+    <row r="194" spans="1:4">
+      <c r="A194" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B195" s="13"/>
-      <c r="C195" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="15" t="s">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="8" t="s">
+      <c r="B197" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C198" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="8" t="s">
+      <c r="C198" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C199" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="C199" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="8"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" s="8"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" s="8"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" s="8"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" s="8"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" s="8"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" s="8"/>
     </row>
   </sheetData>
